--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -640,82 +640,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.493348470018676</v>
+        <v>3.533982877339798</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07999999999999918</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="E2" t="n">
-        <v>593.3796101048293</v>
+        <v>616.0178130413989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009377750775123688</v>
+        <v>0.2684440817102439</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.499396061470877</v>
+        <v>3.19339811550678</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9190619502389681</v>
+        <v>0.9218381629421259</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8446748683770555</v>
+        <v>0.8497855986565136</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8136098420524667</v>
+        <v>0.828326398464587</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3666</v>
+        <v>1.1195</v>
       </c>
       <c r="M2" t="n">
-        <v>289.2115990906556</v>
+        <v>288.0293238592193</v>
       </c>
       <c r="N2" t="n">
-        <v>295.3059782149966</v>
+        <v>292.9048271586921</v>
       </c>
       <c r="O2" t="n">
         <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>48.45000442814975</v>
+        <v>55.36818772439113</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.164363389986292e-10</v>
+        <v>3.810824299591794e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>-139.6057995453278</v>
+        <v>-140.0146619296096</v>
       </c>
       <c r="S2" t="n">
-        <v>103.9870617376494</v>
+        <v>50.6850612991688</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>103721.2946859771</v>
+        <v>107170.0080506733</v>
       </c>
       <c r="Y2" t="n">
-        <v>667768.9154499673</v>
+        <v>713446.9604256781</v>
       </c>
       <c r="Z2" t="n">
-        <v>9153075.161569998</v>
+        <v>6898685.190028247</v>
       </c>
       <c r="AA2" t="n">
-        <v>564047.6207639902</v>
+        <v>606276.9523750048</v>
       </c>
       <c r="AB2" t="n">
-        <v>141011.9051909976</v>
+        <v>202092.3174583349</v>
       </c>
       <c r="AC2" t="n">
-        <v>5186.064734298853</v>
+        <v>5103.333716698728</v>
       </c>
       <c r="AD2" t="n">
-        <v>27823.7048104153</v>
+        <v>29726.95668440325</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -728,82 +728,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.18121239136637</v>
+        <v>13.08779591592114</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3999999999999995</v>
+        <v>-0.2999999999999994</v>
       </c>
       <c r="E3" t="n">
-        <v>621.9936839831382</v>
+        <v>606.6168364761077</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1358956254431835</v>
+        <v>0.02370563214681913</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.827296568582099</v>
+        <v>5.78628048690428</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8926465742447158</v>
+        <v>0.8832654532100011</v>
       </c>
       <c r="J3" t="n">
-        <v>0.796817906510827</v>
+        <v>0.7801578608342686</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7561814878129923</v>
+        <v>0.7487518409534499</v>
       </c>
       <c r="L3" t="n">
-        <v>2.0557</v>
+        <v>2.2307</v>
       </c>
       <c r="M3" t="n">
-        <v>310.8449598413048</v>
+        <v>311.3942270250849</v>
       </c>
       <c r="N3" t="n">
-        <v>316.9393389656458</v>
+        <v>316.2697303245577</v>
       </c>
       <c r="O3" t="n">
         <v>25</v>
       </c>
       <c r="P3" t="n">
-        <v>53.60748666197536</v>
+        <v>47.79172050629109</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.072530943615186e-10</v>
+        <v>1.472880025507557e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>-150.4224799206524</v>
+        <v>-151.6971135125424</v>
       </c>
       <c r="S3" t="n">
-        <v>120.542453852378</v>
+        <v>70.55424656259807</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>246421.1029617269</v>
+        <v>272874.6577085448</v>
       </c>
       <c r="Y3" t="n">
-        <v>1212809.15424202</v>
+        <v>1241229.996869863</v>
       </c>
       <c r="Z3" t="n">
-        <v>19872727.59985134</v>
+        <v>22986782.20681246</v>
       </c>
       <c r="AA3" t="n">
-        <v>966388.0512802929</v>
+        <v>968355.3391613185</v>
       </c>
       <c r="AB3" t="n">
-        <v>241597.0128200732</v>
+        <v>322785.1130537728</v>
       </c>
       <c r="AC3" t="n">
-        <v>12321.05514808635</v>
+        <v>12994.03131945451</v>
       </c>
       <c r="AD3" t="n">
-        <v>50533.71476008416</v>
+        <v>51717.9165362443</v>
       </c>
       <c r="AG3" t="b">
         <v>1</v>
@@ -816,82 +816,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.54460327571464</v>
+        <v>-6.444043676829592</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.6499999999999997</v>
       </c>
       <c r="E4" t="n">
-        <v>1430.032028900948</v>
+        <v>1454.389518319624</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7178823268117385</v>
+        <v>0.4108169834485246</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.043095731265169</v>
+        <v>7.835115410583691</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7580263105084736</v>
+        <v>0.6879210107415656</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5746038874230888</v>
+        <v>0.4732353170196972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4895246649077065</v>
+        <v>0.3979832194510826</v>
       </c>
       <c r="L4" t="n">
-        <v>2.471</v>
+        <v>2.2783</v>
       </c>
       <c r="M4" t="n">
-        <v>316.1570804411717</v>
+        <v>319.3455675320941</v>
       </c>
       <c r="N4" t="n">
-        <v>322.2514595655127</v>
+        <v>324.2210708315669</v>
       </c>
       <c r="O4" t="n">
         <v>25</v>
       </c>
       <c r="P4" t="n">
-        <v>18.24452896878229</v>
+        <v>10.21938138877486</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.876655641812627e-06</v>
+        <v>0.0002358076618399804</v>
       </c>
       <c r="R4" t="n">
-        <v>-153.0785402205858</v>
+        <v>-155.672783766047</v>
       </c>
       <c r="S4" t="n">
-        <v>131.7956711609438</v>
+        <v>75.54466097568969</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>304760.6447261837</v>
+        <v>375052.5617295788</v>
       </c>
       <c r="Y4" t="n">
-        <v>716416.1488924825</v>
+        <v>711992.6104529735</v>
       </c>
       <c r="Z4" t="n">
-        <v>72073949.91799022</v>
+        <v>67773728.02516612</v>
       </c>
       <c r="AA4" t="n">
-        <v>411655.5041662988</v>
+        <v>336940.0487233947</v>
       </c>
       <c r="AB4" t="n">
-        <v>102913.8760415747</v>
+        <v>112313.3495744649</v>
       </c>
       <c r="AC4" t="n">
-        <v>15238.03223630919</v>
+        <v>17859.64579664661</v>
       </c>
       <c r="AD4" t="n">
-        <v>29850.67287052011</v>
+        <v>29666.3587688739</v>
       </c>
       <c r="AG4" t="b">
         <v>1</v>
@@ -904,82 +904,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-32.98364496967052</v>
+        <v>-60.1515143659377</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2699999999999994</v>
+        <v>0.05000000000000093</v>
       </c>
       <c r="E5" t="n">
-        <v>9916.268570768516</v>
+        <v>10099.3797278541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5156458850841461</v>
+        <v>0.2116012483976933</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50.73846951628935</v>
+        <v>48.15301087960746</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8286776872039305</v>
+        <v>0.8080929935058869</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6867067092696553</v>
+        <v>0.6530142861533055</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6240480511235864</v>
+        <v>0.6034448984609206</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5702</v>
+        <v>1.5478</v>
       </c>
       <c r="M5" t="n">
-        <v>408.2929143439034</v>
+        <v>408.8163096276781</v>
       </c>
       <c r="N5" t="n">
-        <v>414.3872934682444</v>
+        <v>413.6918129271509</v>
       </c>
       <c r="O5" t="n">
         <v>25</v>
       </c>
       <c r="P5" t="n">
-        <v>15.81937628097388</v>
+        <v>22.91060255642262</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.488328423814848e-06</v>
+        <v>8.002389190654293e-07</v>
       </c>
       <c r="R5" t="n">
-        <v>-199.1464571719517</v>
+        <v>-200.408154813839</v>
       </c>
       <c r="S5" t="n">
-        <v>99.87155126672171</v>
+        <v>51.67352044885147</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>12148488.68824166</v>
+        <v>13438726.62713675</v>
       </c>
       <c r="Y5" t="n">
-        <v>38776727.90221992</v>
+        <v>38729913.33895165</v>
       </c>
       <c r="Z5" t="n">
-        <v>1353923356.49601</v>
+        <v>1372101026.283262</v>
       </c>
       <c r="AA5" t="n">
-        <v>26628239.21397827</v>
+        <v>25291186.7118149</v>
       </c>
       <c r="AB5" t="n">
-        <v>6657059.803494567</v>
+        <v>8430395.570604965</v>
       </c>
       <c r="AC5" t="n">
-        <v>607424.4344120828</v>
+        <v>639939.3631969882</v>
       </c>
       <c r="AD5" t="n">
-        <v>1615696.99592583</v>
+        <v>1613746.389122985</v>
       </c>
       <c r="AG5" t="b">
         <v>1</v>
@@ -992,82 +992,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.4070839201953</v>
+        <v>146.6881162047267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4400000000000013</v>
+        <v>0.4500000000000013</v>
       </c>
       <c r="E6" t="n">
-        <v>3375.512029766366</v>
+        <v>3196.333874234947</v>
       </c>
       <c r="F6" t="n">
-        <v>2.96631623492145e-12</v>
+        <v>1.012363026745597e-22</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>15.81919579346064</v>
+        <v>14.95180863404297</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9723213734904971</v>
+        <v>0.954421722733689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9454088533464466</v>
+        <v>0.9109208248259427</v>
       </c>
       <c r="K6" t="n">
-        <v>0.934490624015736</v>
+        <v>0.898195228372506</v>
       </c>
       <c r="L6" t="n">
-        <v>1.1878</v>
+        <v>1.3941</v>
       </c>
       <c r="M6" t="n">
-        <v>388.7286468733109</v>
+        <v>397.4729389311631</v>
       </c>
       <c r="N6" t="n">
-        <v>394.8230259976519</v>
+        <v>402.3484422306359</v>
       </c>
       <c r="O6" t="n">
         <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>103.979789659466</v>
+        <v>173.4020216662592</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.356426747777693e-13</v>
+        <v>5.665605511975268e-15</v>
       </c>
       <c r="R6" t="n">
-        <v>-189.3643234366555</v>
+        <v>-194.7364694655815</v>
       </c>
       <c r="S6" t="n">
-        <v>90.29950870205724</v>
+        <v>60.75971278877572</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>5554642.560223614</v>
+        <v>8536966.703314248</v>
       </c>
       <c r="Y6" t="n">
-        <v>101749878.8855731</v>
+        <v>95835717.90638326</v>
       </c>
       <c r="Z6" t="n">
-        <v>501818610.6353712</v>
+        <v>635253469.4708579</v>
       </c>
       <c r="AA6" t="n">
-        <v>96195236.32534952</v>
+        <v>87298751.20306902</v>
       </c>
       <c r="AB6" t="n">
-        <v>24048809.08133738</v>
+        <v>29099583.73435634</v>
       </c>
       <c r="AC6" t="n">
-        <v>277732.1280111807</v>
+        <v>406522.2239673451</v>
       </c>
       <c r="AD6" t="n">
-        <v>4239578.28689888</v>
+        <v>3993154.912765969</v>
       </c>
       <c r="AG6" t="b">
         <v>1</v>
@@ -1080,82 +1080,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.139467418874637</v>
+        <v>4.215478949734259</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05000000000000093</v>
+        <v>0.150000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>338.6685055804809</v>
+        <v>326.9959197246957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2663301865284469</v>
+        <v>0.01647604513602059</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.924754382090128</v>
+        <v>1.757770798909326</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8289538817847479</v>
+        <v>0.7487779343607377</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6871645381260019</v>
+        <v>0.5606683949855332</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6245974457512022</v>
+        <v>0.4979067371263237</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5498</v>
+        <v>1.6246</v>
       </c>
       <c r="M7" t="n">
-        <v>270.4243469090944</v>
+        <v>275.4569087735999</v>
       </c>
       <c r="N7" t="n">
-        <v>276.5187260334354</v>
+        <v>280.3324120730728</v>
       </c>
       <c r="O7" t="n">
         <v>25</v>
       </c>
       <c r="P7" t="n">
-        <v>15.6933160569857</v>
+        <v>5.629050695017329</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.822060903612184e-06</v>
+        <v>0.005415524075996988</v>
       </c>
       <c r="R7" t="n">
-        <v>-130.2121734545472</v>
+        <v>-133.7284543868</v>
       </c>
       <c r="S7" t="n">
-        <v>101.6530789925919</v>
+        <v>54.08207519183764</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>48921.51874602748</v>
+        <v>64813.88340069607</v>
       </c>
       <c r="Y7" t="n">
-        <v>156380.9884370838</v>
+        <v>147528.3878075692</v>
       </c>
       <c r="Z7" t="n">
-        <v>2466487.021906329</v>
+        <v>3210492.323612588</v>
       </c>
       <c r="AA7" t="n">
-        <v>107459.4696910563</v>
+        <v>82714.50440687314</v>
       </c>
       <c r="AB7" t="n">
-        <v>26864.86742276408</v>
+        <v>27571.50146895771</v>
       </c>
       <c r="AC7" t="n">
-        <v>2446.075937301374</v>
+        <v>3086.375400033146</v>
       </c>
       <c r="AD7" t="n">
-        <v>6515.874518211825</v>
+        <v>6147.016158648717</v>
       </c>
       <c r="AG7" t="b">
         <v>1</v>
@@ -1168,82 +1168,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.919445343279219</v>
+        <v>12.00069528309309</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1900000000000011</v>
+        <v>-0.5499999999999996</v>
       </c>
       <c r="E8" t="n">
-        <v>113.1699604446348</v>
+        <v>71.61959448744342</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002730950577617249</v>
+        <v>8.035222299719216e-05</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.626413954064336</v>
+        <v>3.043276418129956</v>
       </c>
       <c r="I8" t="n">
-        <v>0.982218970162283</v>
+        <v>0.9036262656394306</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9647541053466557</v>
+        <v>0.8165404279534628</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9577049264159869</v>
+        <v>0.7903319176611003</v>
       </c>
       <c r="L8" t="n">
-        <v>2.1364</v>
+        <v>1.5991</v>
       </c>
       <c r="M8" t="n">
-        <v>245.1242697815462</v>
+        <v>286.2587302149367</v>
       </c>
       <c r="N8" t="n">
-        <v>251.2186489058872</v>
+        <v>291.1342335144095</v>
       </c>
       <c r="O8" t="n">
         <v>25</v>
       </c>
       <c r="P8" t="n">
-        <v>673.4734453035346</v>
+        <v>40.67753784830878</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.162318828428687e-21</v>
+        <v>6.28138040859885e-09</v>
       </c>
       <c r="R8" t="n">
-        <v>-117.5621348907731</v>
+        <v>-139.1293651074683</v>
       </c>
       <c r="S8" t="n">
-        <v>120.707736944044</v>
+        <v>52.00369388571118</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>17782.49009716025</v>
+        <v>99842.37456819184</v>
       </c>
       <c r="Y8" t="n">
-        <v>504526.5632226754</v>
+        <v>544220.0341711544</v>
       </c>
       <c r="Z8" t="n">
-        <v>2418908.805139052</v>
+        <v>1583404.894476244</v>
       </c>
       <c r="AA8" t="n">
-        <v>486744.0731255151</v>
+        <v>444377.6596029626</v>
       </c>
       <c r="AB8" t="n">
-        <v>121686.0182813788</v>
+        <v>148125.8865343209</v>
       </c>
       <c r="AC8" t="n">
-        <v>889.1245048580124</v>
+        <v>4754.398788961516</v>
       </c>
       <c r="AD8" t="n">
-        <v>21021.94013427814</v>
+        <v>22675.83475713143</v>
       </c>
       <c r="AG8" t="b">
         <v>1</v>
@@ -1256,82 +1256,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.221942479353341</v>
+        <v>3.927079601747539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07000000000000095</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>552.8659948040103</v>
+        <v>564.5072441184834</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1232334354484729</v>
+        <v>0.4659054658189263</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.036703219161696</v>
+        <v>5.385778574125879</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8574241145661805</v>
+        <v>0.7386378046147712</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7351761122395987</v>
+        <v>0.545585806406129</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6822113346875185</v>
+        <v>0.480669493035576</v>
       </c>
       <c r="L9" t="n">
-        <v>1.1752</v>
+        <v>1.2086</v>
       </c>
       <c r="M9" t="n">
-        <v>283.9068659865517</v>
+        <v>294.9546727331398</v>
       </c>
       <c r="N9" t="n">
-        <v>290.0012451108927</v>
+        <v>299.8301760326127</v>
       </c>
       <c r="O9" t="n">
         <v>25</v>
       </c>
       <c r="P9" t="n">
-        <v>31.95144270427586</v>
+        <v>38.85729924531558</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.985055276988115e-08</v>
+        <v>9.423709223059134e-09</v>
       </c>
       <c r="R9" t="n">
-        <v>-136.9534329932758</v>
+        <v>-143.4773363665699</v>
       </c>
       <c r="S9" t="n">
-        <v>78.04387022354608</v>
+        <v>43.43101090189256</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>83890.98169328379</v>
+        <v>141377.0435007658</v>
       </c>
       <c r="Y9" t="n">
-        <v>316780.2663224396</v>
+        <v>311119.3389067427</v>
       </c>
       <c r="Z9" t="n">
-        <v>3039619.400534236</v>
+        <v>3487917.77070653</v>
       </c>
       <c r="AA9" t="n">
-        <v>232889.2846291558</v>
+        <v>169742.295405977</v>
       </c>
       <c r="AB9" t="n">
-        <v>58222.32115728896</v>
+        <v>56580.76513532566</v>
       </c>
       <c r="AC9" t="n">
-        <v>4194.54908466419</v>
+        <v>6732.240166703133</v>
       </c>
       <c r="AD9" t="n">
-        <v>13199.17776343498</v>
+        <v>12963.30578778095</v>
       </c>
       <c r="AG9" t="b">
         <v>1</v>
@@ -1344,82 +1344,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.19520451061278</v>
+        <v>22.3145147673505</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4800000000000013</v>
+        <v>0.150000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>265.647094138627</v>
+        <v>333.9536680001393</v>
       </c>
       <c r="F10" t="n">
-        <v>1.538501716756036e-11</v>
+        <v>0.001605402789874315</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.922022026755403</v>
+        <v>7.07291820537697</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9448703198025279</v>
+        <v>0.8611075679633418</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8927799212437313</v>
+        <v>0.7415062436037413</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8713359054924775</v>
+        <v>0.7045785641185616</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5021</v>
+        <v>1.8034</v>
       </c>
       <c r="M10" t="n">
-        <v>309.6217414965645</v>
+        <v>327.2038090483714</v>
       </c>
       <c r="N10" t="n">
-        <v>315.7161206209055</v>
+        <v>332.0793123478442</v>
       </c>
       <c r="O10" t="n">
         <v>25</v>
       </c>
       <c r="P10" t="n">
-        <v>83.2195688842842</v>
+        <v>67.89273565634382</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.568367789189752e-12</v>
+        <v>5.63149748919493e-11</v>
       </c>
       <c r="R10" t="n">
-        <v>-149.8108707482823</v>
+        <v>-159.6019045241857</v>
       </c>
       <c r="S10" t="n">
-        <v>100.4103762058653</v>
+        <v>61.03809706839406</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>234654.2465226753</v>
+        <v>513574.8799431261</v>
       </c>
       <c r="Y10" t="n">
-        <v>2188528.951336516</v>
+        <v>1986798.006663805</v>
       </c>
       <c r="Z10" t="n">
-        <v>8858561.414900845</v>
+        <v>11713016.64430914</v>
       </c>
       <c r="AA10" t="n">
-        <v>1953874.70481384</v>
+        <v>1473223.126720679</v>
       </c>
       <c r="AB10" t="n">
-        <v>488468.6762034601</v>
+        <v>491074.3755735597</v>
       </c>
       <c r="AC10" t="n">
-        <v>11732.71232613377</v>
+        <v>24455.94666395839</v>
       </c>
       <c r="AD10" t="n">
-        <v>91188.70630568815</v>
+        <v>82783.25027765856</v>
       </c>
       <c r="AG10" t="b">
         <v>1</v>
@@ -1432,82 +1432,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.31876868087611</v>
+        <v>17.4878342588665</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1699999999999993</v>
+        <v>-0.3499999999999994</v>
       </c>
       <c r="E11" t="n">
-        <v>834.1871760846399</v>
+        <v>881.1811494243839</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003483215284278206</v>
+        <v>0.005548967866877284</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>7.079345775228759</v>
+        <v>6.305768464001689</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6721237304081356</v>
+        <v>0.59676677116837</v>
       </c>
       <c r="J11" t="n">
-        <v>0.451750308977748</v>
+        <v>0.3561305791707217</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3421003707732977</v>
+        <v>0.2641492333379677</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1919</v>
+        <v>2.3279</v>
       </c>
       <c r="M11" t="n">
-        <v>327.2854102724644</v>
+        <v>329.7628728669371</v>
       </c>
       <c r="N11" t="n">
-        <v>333.3797893968054</v>
+        <v>334.63837616641</v>
       </c>
       <c r="O11" t="n">
         <v>25</v>
       </c>
       <c r="P11" t="n">
-        <v>7.213689968851484</v>
+        <v>5.963991264980227</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0009130033213942049</v>
+        <v>0.004168594470041194</v>
       </c>
       <c r="R11" t="n">
-        <v>-158.6427051362322</v>
+        <v>-160.8814364334686</v>
       </c>
       <c r="S11" t="n">
-        <v>134.1478751615805</v>
+        <v>71.75832979901219</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>475639.3459031358</v>
+        <v>568930.5634929603</v>
       </c>
       <c r="Y11" t="n">
-        <v>867559.7153849209</v>
+        <v>883611.7154938035</v>
       </c>
       <c r="Z11" t="n">
-        <v>41210837.9538879</v>
+        <v>47778740.41722762</v>
       </c>
       <c r="AA11" t="n">
-        <v>391920.3694817852</v>
+        <v>314681.1520008432</v>
       </c>
       <c r="AB11" t="n">
-        <v>97980.09237044629</v>
+        <v>104893.7173336144</v>
       </c>
       <c r="AC11" t="n">
-        <v>23781.96729515679</v>
+        <v>27091.93159490287</v>
       </c>
       <c r="AD11" t="n">
-        <v>36148.3214743717</v>
+        <v>36817.15481224181</v>
       </c>
       <c r="AG11" t="b">
         <v>1</v>
@@ -1520,82 +1520,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-11.11452940895237</v>
+        <v>-11.63524149233548</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01999999999999913</v>
+        <v>0.8500000000000016</v>
       </c>
       <c r="E12" t="n">
-        <v>272.0508033593403</v>
+        <v>274.0755014832393</v>
       </c>
       <c r="F12" t="n">
-        <v>5.510014416413247e-07</v>
+        <v>1.491127205607743e-09</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.219512409121338</v>
+        <v>1.924668894711115</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9095066914299866</v>
+        <v>0.9108531842979477</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8272024217559208</v>
+        <v>0.8296535233457112</v>
       </c>
       <c r="K12" t="n">
-        <v>0.792642906107105</v>
+        <v>0.8053183123950985</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3323</v>
+        <v>2.5365</v>
       </c>
       <c r="M12" t="n">
-        <v>257.4945100600499</v>
+        <v>256.2441758040125</v>
       </c>
       <c r="N12" t="n">
-        <v>263.588889184391</v>
+        <v>261.1196791034852</v>
       </c>
       <c r="O12" t="n">
         <v>25</v>
       </c>
       <c r="P12" t="n">
-        <v>61.26521977574671</v>
+        <v>95.8943882880629</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.128792591197625e-11</v>
+        <v>2.03036676323867e-12</v>
       </c>
       <c r="R12" t="n">
-        <v>-123.747255030025</v>
+        <v>-124.1220879020062</v>
       </c>
       <c r="S12" t="n">
-        <v>129.4151893346351</v>
+        <v>78.30251245125089</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>29166.59016794531</v>
+        <v>30054.44324067274</v>
       </c>
       <c r="Y12" t="n">
-        <v>168790.5031096389</v>
+        <v>176431.2584032307</v>
       </c>
       <c r="Z12" t="n">
-        <v>785926.3701961456</v>
+        <v>919809.5551565982</v>
       </c>
       <c r="AA12" t="n">
-        <v>139623.9129416936</v>
+        <v>146376.815162558</v>
       </c>
       <c r="AB12" t="n">
-        <v>34905.9782354234</v>
+        <v>48792.27172085265</v>
       </c>
       <c r="AC12" t="n">
-        <v>1458.329508397266</v>
+        <v>1431.163963841559</v>
       </c>
       <c r="AD12" t="n">
-        <v>7032.937629568288</v>
+        <v>7351.302433467946</v>
       </c>
       <c r="AG12" t="b">
         <v>1</v>
@@ -1608,82 +1608,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.472938527954176</v>
+        <v>1.211297115907332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3200000000000012</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="E13" t="n">
-        <v>14.06778489691895</v>
+        <v>15.59649488938584</v>
       </c>
       <c r="F13" t="n">
-        <v>4.687284615950697e-10</v>
+        <v>3.413629562128705e-09</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2364558945173112</v>
+        <v>0.2049447617838888</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9556358736776991</v>
+        <v>0.9357679137912943</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9132399230597392</v>
+        <v>0.8756615884813113</v>
       </c>
       <c r="K13" t="n">
-        <v>0.895887907671687</v>
+        <v>0.8578989582643557</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3851</v>
+        <v>1.2979</v>
       </c>
       <c r="M13" t="n">
-        <v>161.830812430258</v>
+        <v>168.1859047081204</v>
       </c>
       <c r="N13" t="n">
-        <v>167.925191554599</v>
+        <v>173.0614080075932</v>
       </c>
       <c r="O13" t="n">
         <v>25</v>
       </c>
       <c r="P13" t="n">
-        <v>160.198046294421</v>
+        <v>48.45743836513106</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.901229806454239e-15</v>
+        <v>1.298495342113588e-09</v>
       </c>
       <c r="R13" t="n">
-        <v>-75.91540621512898</v>
+        <v>-80.09295235406019</v>
       </c>
       <c r="S13" t="n">
-        <v>95.04352567853273</v>
+        <v>53.11948934586592</v>
       </c>
       <c r="T13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>635.3850897729136</v>
+        <v>887.5234528826381</v>
       </c>
       <c r="Y13" t="n">
-        <v>7323.473101694133</v>
+        <v>7137.966795958614</v>
       </c>
       <c r="Z13" t="n">
-        <v>24167.50149386167</v>
+        <v>25945.4725769552</v>
       </c>
       <c r="AA13" t="n">
-        <v>6688.08801192122</v>
+        <v>6250.443343075976</v>
       </c>
       <c r="AB13" t="n">
-        <v>1672.022002980305</v>
+        <v>2083.481114358659</v>
       </c>
       <c r="AC13" t="n">
-        <v>31.76925448864568</v>
+        <v>42.26302156583991</v>
       </c>
       <c r="AD13" t="n">
-        <v>305.1447125705889</v>
+        <v>297.4152831649423</v>
       </c>
       <c r="AG13" t="b">
         <v>1</v>
@@ -1696,82 +1696,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.56973516113727</v>
+        <v>34.17146043678732</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.96</v>
+        <v>-0.8499999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>370.896975205363</v>
+        <v>431.1947469396923</v>
       </c>
       <c r="F14" t="n">
-        <v>1.286369347323161e-16</v>
+        <v>5.921103864405386e-09</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.386180109551827</v>
+        <v>5.87242331898103</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8811764578525133</v>
+        <v>0.77241725038875</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7764719498735021</v>
+        <v>0.5966284086981168</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7317663398482026</v>
+        <v>0.5390038956549907</v>
       </c>
       <c r="L14" t="n">
-        <v>2.0856</v>
+        <v>1.5382</v>
       </c>
       <c r="M14" t="n">
-        <v>323.8826840060735</v>
+        <v>336.3772383946642</v>
       </c>
       <c r="N14" t="n">
-        <v>329.9770631304145</v>
+        <v>341.2527416941371</v>
       </c>
       <c r="O14" t="n">
         <v>25</v>
       </c>
       <c r="P14" t="n">
-        <v>55.68226617172482</v>
+        <v>17.56618184529207</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.467779335599989e-10</v>
+        <v>6.131768135499671e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>-156.9413420030367</v>
+        <v>-164.1886191973321</v>
       </c>
       <c r="S14" t="n">
-        <v>127.1448552839288</v>
+        <v>55.54671958526231</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>415113.0279770792</v>
+        <v>741246.3419042167</v>
       </c>
       <c r="Y14" t="n">
-        <v>1857095.911417651</v>
+        <v>1837626.54060947</v>
       </c>
       <c r="Z14" t="n">
-        <v>20322036.80278471</v>
+        <v>13278832.76709149</v>
       </c>
       <c r="AA14" t="n">
-        <v>1441982.883440572</v>
+        <v>1096380.198705253</v>
       </c>
       <c r="AB14" t="n">
-        <v>360495.7208601431</v>
+        <v>365460.0662350845</v>
       </c>
       <c r="AC14" t="n">
-        <v>20755.65139885396</v>
+        <v>35297.44485258175</v>
       </c>
       <c r="AD14" t="n">
-        <v>77378.99630906881</v>
+        <v>76567.77252539458</v>
       </c>
       <c r="AG14" t="b">
         <v>1</v>
@@ -1784,82 +1784,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.01711537793503</v>
+        <v>68.83360621588611</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06000000000000094</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>652.2202182850851</v>
+        <v>694.0772683194917</v>
       </c>
       <c r="F15" t="n">
-        <v>9.028846716384645e-29</v>
+        <v>3.724814872030612e-16</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6.920179046510894</v>
+        <v>8.448755365805271</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9456440892730936</v>
+        <v>0.9386444920570221</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8942427435771387</v>
+        <v>0.8810534824689848</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8730912922925664</v>
+        <v>0.864061122821697</v>
       </c>
       <c r="L15" t="n">
-        <v>2.0052</v>
+        <v>1.7171</v>
       </c>
       <c r="M15" t="n">
-        <v>341.8260864234854</v>
+        <v>341.9809437164593</v>
       </c>
       <c r="N15" t="n">
-        <v>347.9204655478264</v>
+        <v>346.8564470159321</v>
       </c>
       <c r="O15" t="n">
         <v>25</v>
       </c>
       <c r="P15" t="n">
-        <v>271.3126183654947</v>
+        <v>148.6594956740263</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.072694268186038e-17</v>
+        <v>2.658675669175813e-14</v>
       </c>
       <c r="R15" t="n">
-        <v>-165.9130432117427</v>
+        <v>-166.9904718582297</v>
       </c>
       <c r="S15" t="n">
-        <v>127.0204848888417</v>
+        <v>74.14283505155009</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>850893.4681428013</v>
+        <v>927489.272275661</v>
       </c>
       <c r="Y15" t="n">
-        <v>8045721.843809722</v>
+        <v>7797531.962495829</v>
       </c>
       <c r="Z15" t="n">
-        <v>80531681.77863179</v>
+        <v>57681665.83393131</v>
       </c>
       <c r="AA15" t="n">
-        <v>7194828.375666921</v>
+        <v>6870042.690220168</v>
       </c>
       <c r="AB15" t="n">
-        <v>1798707.09391673</v>
+        <v>2290014.230073389</v>
       </c>
       <c r="AC15" t="n">
-        <v>42544.67340714006</v>
+        <v>44166.15582265052</v>
       </c>
       <c r="AD15" t="n">
-        <v>335238.4101587384</v>
+        <v>324897.1651039929</v>
       </c>
       <c r="AG15" t="b">
         <v>1</v>
@@ -1872,82 +1872,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.8146187109277</v>
+        <v>115.9804560062149</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6399999999999997</v>
+        <v>-0.7499999999999998</v>
       </c>
       <c r="E16" t="n">
-        <v>984.2622132837436</v>
+        <v>919.5008187762975</v>
       </c>
       <c r="F16" t="n">
-        <v>3.890166620359779e-70</v>
+        <v>2.685262458657334e-111</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5.976801272091674</v>
+        <v>5.173765919033589</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9843360523526798</v>
+        <v>0.9782591190237382</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9689174639612577</v>
+        <v>0.9569909039531004</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9627009567535092</v>
+        <v>0.9508467473749719</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5057</v>
+        <v>3.3478</v>
       </c>
       <c r="M16" t="n">
-        <v>340.1373538900229</v>
+        <v>345.0799650961305</v>
       </c>
       <c r="N16" t="n">
-        <v>346.2317330143639</v>
+        <v>349.9554683956034</v>
       </c>
       <c r="O16" t="n">
         <v>25</v>
       </c>
       <c r="P16" t="n">
-        <v>550.5418626021069</v>
+        <v>237.5490618042191</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.805018739002213e-20</v>
+        <v>2.333567399329669e-16</v>
       </c>
       <c r="R16" t="n">
-        <v>-165.0686769450114</v>
+        <v>-168.5399825480653</v>
       </c>
       <c r="S16" t="n">
-        <v>160.9813875503853</v>
+        <v>80.74839491083522</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>795314.500928195</v>
+        <v>1049891.477787404</v>
       </c>
       <c r="Y16" t="n">
-        <v>25587181.81608115</v>
+        <v>24410917.09164364</v>
       </c>
       <c r="Z16" t="n">
-        <v>526356712.0794854</v>
+        <v>491743418.3953158</v>
       </c>
       <c r="AA16" t="n">
-        <v>24791867.31515295</v>
+        <v>23361025.61385624</v>
       </c>
       <c r="AB16" t="n">
-        <v>6197966.828788239</v>
+        <v>7787008.537952079</v>
       </c>
       <c r="AC16" t="n">
-        <v>39765.72504640975</v>
+        <v>49994.83227559066</v>
       </c>
       <c r="AD16" t="n">
-        <v>1066132.575670048</v>
+        <v>1017121.545485152</v>
       </c>
       <c r="AG16" t="b">
         <v>1</v>
@@ -1960,82 +1960,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97878808176592</v>
+        <v>51.67384706245939</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.04999999999999916</v>
+        <v>0.3000000000000012</v>
       </c>
       <c r="E17" t="n">
-        <v>2323.493813655828</v>
+        <v>2295.818212515375</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008936163807897728</v>
+        <v>0.0101646937251566</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>17.96864676226676</v>
+        <v>20.10518050457228</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8493370069638129</v>
+        <v>0.8455964891767604</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7213733513982479</v>
+        <v>0.7150334225080632</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6656480216778975</v>
+        <v>0.6743239114377866</v>
       </c>
       <c r="L17" t="n">
-        <v>2.0061</v>
+        <v>2.0353</v>
       </c>
       <c r="M17" t="n">
-        <v>366.5704719904413</v>
+        <v>365.1482142296206</v>
       </c>
       <c r="N17" t="n">
-        <v>372.6648511147823</v>
+        <v>370.0237175290935</v>
       </c>
       <c r="O17" t="n">
         <v>25</v>
       </c>
       <c r="P17" t="n">
-        <v>46.57442052780875</v>
+        <v>67.4747861789554</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.356652304918872e-10</v>
+        <v>5.970760247638935e-11</v>
       </c>
       <c r="R17" t="n">
-        <v>-178.2852359952206</v>
+        <v>-178.5741071148103</v>
       </c>
       <c r="S17" t="n">
-        <v>128.0727534277171</v>
+        <v>83.9373186520381</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>2289439.619806333</v>
+        <v>2342963.941867697</v>
       </c>
       <c r="Y17" t="n">
-        <v>8216872.403610918</v>
+        <v>8221890.308992437</v>
       </c>
       <c r="Z17" t="n">
-        <v>242004691.4289573</v>
+        <v>251119949.255429</v>
       </c>
       <c r="AA17" t="n">
-        <v>5927432.783804584</v>
+        <v>5878926.36712474</v>
       </c>
       <c r="AB17" t="n">
-        <v>1481858.195951146</v>
+        <v>1959642.122374913</v>
       </c>
       <c r="AC17" t="n">
-        <v>114471.9809903167</v>
+        <v>111569.7115175094</v>
       </c>
       <c r="AD17" t="n">
-        <v>342369.6834837882</v>
+        <v>342578.7628746849</v>
       </c>
       <c r="AG17" t="b">
         <v>1</v>
@@ -2048,82 +2048,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.91743090067554</v>
+        <v>46.95637788850458</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4499999999999995</v>
+        <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>2788.122712692199</v>
+        <v>2797.074343275713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03908736434330871</v>
+        <v>0.03052433312918199</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>23.7087371941526</v>
+        <v>21.7067139602842</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7400317134862564</v>
+        <v>0.7456238139408708</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5476469369654047</v>
+        <v>0.5559548719157305</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4571763243584857</v>
+        <v>0.4925198536179777</v>
       </c>
       <c r="L18" t="n">
-        <v>1.7334</v>
+        <v>1.6742</v>
       </c>
       <c r="M18" t="n">
-        <v>369.7630980493191</v>
+        <v>367.8033216879484</v>
       </c>
       <c r="N18" t="n">
-        <v>375.8574771736601</v>
+        <v>372.6788249874212</v>
       </c>
       <c r="O18" t="n">
         <v>25</v>
       </c>
       <c r="P18" t="n">
-        <v>40.63652206204463</v>
+        <v>53.66297975717655</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.468324288197728e-09</v>
+        <v>5.090191071634637e-10</v>
       </c>
       <c r="R18" t="n">
-        <v>-179.8815490246595</v>
+        <v>-179.9016608439742</v>
       </c>
       <c r="S18" t="n">
-        <v>114.0997061637971</v>
+        <v>61.74335176722828</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>2601302.087279415</v>
+        <v>2605490.809493757</v>
       </c>
       <c r="Y18" t="n">
-        <v>5750601.244586845</v>
+        <v>5867626.159382826</v>
       </c>
       <c r="Z18" t="n">
-        <v>266011178.8218279</v>
+        <v>249267780.2757598</v>
       </c>
       <c r="AA18" t="n">
-        <v>3149299.15730743</v>
+        <v>3262135.349889068</v>
       </c>
       <c r="AB18" t="n">
-        <v>787324.7893268574</v>
+        <v>1087378.449963023</v>
       </c>
       <c r="AC18" t="n">
-        <v>130065.1043639708</v>
+        <v>124070.9909282742</v>
       </c>
       <c r="AD18" t="n">
-        <v>239608.3851911185</v>
+        <v>244484.4233076177</v>
       </c>
       <c r="AG18" t="b">
         <v>1</v>
@@ -2136,82 +2136,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.34466023016148</v>
+        <v>20.45729792005012</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6999999999999997</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="E19" t="n">
-        <v>3702.158180782284</v>
+        <v>3600.071787154308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4802620788508916</v>
+        <v>0.3172236625838764</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>17.48829957581603</v>
+        <v>20.45362710332734</v>
       </c>
       <c r="I19" t="n">
-        <v>0.631853060822095</v>
+        <v>0.5762853008661328</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3992382904702501</v>
+        <v>0.3321047479943693</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2790859485643001</v>
+        <v>0.2366911405649935</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4119</v>
+        <v>1.914</v>
       </c>
       <c r="M19" t="n">
-        <v>377.2874138209323</v>
+        <v>377.3904749258922</v>
       </c>
       <c r="N19" t="n">
-        <v>383.3817929452733</v>
+        <v>382.265978225365</v>
       </c>
       <c r="O19" t="n">
         <v>25</v>
       </c>
       <c r="P19" t="n">
-        <v>23.21913305647837</v>
+        <v>41.52661870787676</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.814350177158353e-07</v>
+        <v>5.225738162114509e-09</v>
       </c>
       <c r="R19" t="n">
-        <v>-183.6437069104661</v>
+        <v>-184.6952374629461</v>
       </c>
       <c r="S19" t="n">
-        <v>96.47191936492419</v>
+        <v>63.64858107364012</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>3514807.481935726</v>
+        <v>3823274.282624328</v>
       </c>
       <c r="Y19" t="n">
-        <v>5850585.059235821</v>
+        <v>5724362.122867877</v>
       </c>
       <c r="Z19" t="n">
-        <v>173586234.9066058</v>
+        <v>324298479.8803561</v>
       </c>
       <c r="AA19" t="n">
-        <v>2335777.577300096</v>
+        <v>1901087.840243549</v>
       </c>
       <c r="AB19" t="n">
-        <v>583944.394325024</v>
+        <v>633695.9467478497</v>
       </c>
       <c r="AC19" t="n">
-        <v>175740.3740967863</v>
+        <v>182060.680124968</v>
       </c>
       <c r="AD19" t="n">
-        <v>243774.3774681592</v>
+        <v>238515.0884528282</v>
       </c>
       <c r="AG19" t="b">
         <v>1</v>
@@ -2224,82 +2224,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.50440116957512</v>
+        <v>7.022241282077457</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2100000000000011</v>
+        <v>0.6500000000000015</v>
       </c>
       <c r="E20" t="n">
-        <v>2947.85047713212</v>
+        <v>2972.248545108507</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3543389168889712</v>
+        <v>0.6329382858827105</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42099569220048</v>
+        <v>14.70333035313263</v>
       </c>
       <c r="I20" t="n">
-        <v>0.623695162200021</v>
+        <v>0.611870236679516</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3889956553517104</v>
+        <v>0.3743851865342469</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2667947864220526</v>
+        <v>0.2850116417534251</v>
       </c>
       <c r="L20" t="n">
-        <v>1.6321</v>
+        <v>1.5886</v>
       </c>
       <c r="M20" t="n">
-        <v>361.6476814065078</v>
+        <v>360.2138159098444</v>
       </c>
       <c r="N20" t="n">
-        <v>367.7420605308488</v>
+        <v>365.0893192093172</v>
       </c>
       <c r="O20" t="n">
         <v>25</v>
       </c>
       <c r="P20" t="n">
-        <v>35.81061034339448</v>
+        <v>68.86001422956581</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.448662332455716e-09</v>
+        <v>4.924513248268565e-11</v>
       </c>
       <c r="R20" t="n">
-        <v>-175.8238407032539</v>
+        <v>-176.1069079549222</v>
       </c>
       <c r="S20" t="n">
-        <v>109.026170411418</v>
+        <v>58.30268901251782</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>1880232.532616012</v>
+        <v>1923296.876965635</v>
       </c>
       <c r="Y20" t="n">
-        <v>3077281.772355193</v>
+        <v>3074250.857825826</v>
       </c>
       <c r="Z20" t="n">
-        <v>173825736.6999328</v>
+        <v>166057802.2083453</v>
       </c>
       <c r="AA20" t="n">
-        <v>1197049.239739181</v>
+        <v>1150953.98086019</v>
       </c>
       <c r="AB20" t="n">
-        <v>299262.3099347954</v>
+        <v>383651.3269533968</v>
       </c>
       <c r="AC20" t="n">
-        <v>94011.62663080059</v>
+        <v>91585.56556979216</v>
       </c>
       <c r="AD20" t="n">
-        <v>128220.073848133</v>
+        <v>128093.7857427428</v>
       </c>
       <c r="AG20" t="b">
         <v>1</v>
@@ -2312,82 +2312,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18.49405916167615</v>
+        <v>17.10471849026666</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2599999999999993</v>
+        <v>-0.2499999999999993</v>
       </c>
       <c r="E21" t="n">
-        <v>1322.368280914448</v>
+        <v>1330.403980805591</v>
       </c>
       <c r="F21" t="n">
-        <v>7.743158680510506e-05</v>
+        <v>0.0005053971243595235</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.679417965353649</v>
+        <v>4.918145851998359</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5144032372125621</v>
+        <v>0.5061939946187031</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2646106904547634</v>
+        <v>0.2562323601880396</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1175328285457161</v>
+        <v>0.1499798402149025</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7656</v>
+        <v>1.7592</v>
       </c>
       <c r="M21" t="n">
-        <v>325.3917983560989</v>
+        <v>323.670675935563</v>
       </c>
       <c r="N21" t="n">
-        <v>331.4861774804399</v>
+        <v>328.5461792350358</v>
       </c>
       <c r="O21" t="n">
         <v>25</v>
       </c>
       <c r="P21" t="n">
-        <v>25.64798500220345</v>
+        <v>14.62189900972913</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.251278979267804e-07</v>
+        <v>2.285965038880693e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>-157.6958991780494</v>
+        <v>-157.8353379677815</v>
       </c>
       <c r="S21" t="n">
-        <v>113.293529108061</v>
+        <v>77.50157840483875</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>440942.9110742527</v>
+        <v>445889.2116985332</v>
       </c>
       <c r="Y21" t="n">
-        <v>599604.7336436411</v>
+        <v>599500.6878912654</v>
       </c>
       <c r="Z21" t="n">
-        <v>45403043.72552402</v>
+        <v>45155201.2243883</v>
       </c>
       <c r="AA21" t="n">
-        <v>158661.8225693884</v>
+        <v>153611.4761927322</v>
       </c>
       <c r="AB21" t="n">
-        <v>39665.45564234709</v>
+        <v>51203.82539757741</v>
       </c>
       <c r="AC21" t="n">
-        <v>22047.14555371264</v>
+        <v>21232.81960469206</v>
       </c>
       <c r="AD21" t="n">
-        <v>24983.53056848505</v>
+        <v>24979.19532880273</v>
       </c>
       <c r="AG21" t="b">
         <v>1</v>
@@ -2400,82 +2400,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.35364119463808</v>
+        <v>13.72041709653464</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6800000000000015</v>
+        <v>-0.1499999999999992</v>
       </c>
       <c r="E22" t="n">
-        <v>573.4314012462391</v>
+        <v>570.6394298161867</v>
       </c>
       <c r="F22" t="n">
-        <v>1.873910418443614e-25</v>
+        <v>4.129643985065665e-26</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.376631038124941</v>
+        <v>1.29812179587503</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7644131336506356</v>
+        <v>0.7800727996560461</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5843274388975844</v>
+        <v>0.6085135727632218</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5011929266771014</v>
+        <v>0.552586940300825</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5527</v>
+        <v>1.2539</v>
       </c>
       <c r="M22" t="n">
-        <v>283.6158885952698</v>
+        <v>281.9220105992185</v>
       </c>
       <c r="N22" t="n">
-        <v>289.7102677196108</v>
+        <v>286.7975138986913</v>
       </c>
       <c r="O22" t="n">
         <v>25</v>
       </c>
       <c r="P22" t="n">
-        <v>34.66800917406366</v>
+        <v>47.2738025688494</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.8590341325481e-09</v>
+        <v>1.62630737511367e-09</v>
       </c>
       <c r="R22" t="n">
-        <v>-136.8079442976349</v>
+        <v>-136.9610052996092</v>
       </c>
       <c r="S22" t="n">
-        <v>114.2948470868961</v>
+        <v>58.6586673759551</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>82920.22684620702</v>
+        <v>83941.81694629298</v>
       </c>
       <c r="Y22" t="n">
-        <v>199484.4851589247</v>
+        <v>214418.2048373376</v>
       </c>
       <c r="Z22" t="n">
-        <v>9271006.047558019</v>
+        <v>6142113.74244031</v>
       </c>
       <c r="AA22" t="n">
-        <v>116564.2583127176</v>
+        <v>130476.3878910446</v>
       </c>
       <c r="AB22" t="n">
-        <v>29141.06457817941</v>
+        <v>43492.12929701487</v>
       </c>
       <c r="AC22" t="n">
-        <v>4146.011342310351</v>
+        <v>3997.229378394904</v>
       </c>
       <c r="AD22" t="n">
-        <v>8311.853548288527</v>
+        <v>8934.0918682224</v>
       </c>
       <c r="AG22" t="b">
         <v>1</v>
@@ -2488,82 +2488,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-220.7773485868575</v>
+        <v>-226.9153120139885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9200000000000017</v>
+        <v>0.5500000000000014</v>
       </c>
       <c r="E23" t="n">
-        <v>2573.638406983892</v>
+        <v>2602.666433541243</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01124307497149141</v>
+        <v>0.01033511973272389</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>87.08988204320072</v>
+        <v>88.48634112161008</v>
       </c>
       <c r="I23" t="n">
-        <v>0.615231820842042</v>
+        <v>0.6063398316960144</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3785101933766144</v>
+        <v>0.367647991501151</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2542122320519373</v>
+        <v>0.2773119902870298</v>
       </c>
       <c r="L23" t="n">
-        <v>2.7853</v>
+        <v>2.7419</v>
       </c>
       <c r="M23" t="n">
-        <v>436.49576806288</v>
+        <v>434.5958676195353</v>
       </c>
       <c r="N23" t="n">
-        <v>442.590147187221</v>
+        <v>439.4713709190082</v>
       </c>
       <c r="O23" t="n">
         <v>25</v>
       </c>
       <c r="P23" t="n">
-        <v>1.948417587758086</v>
+        <v>2.370912569797326</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1416102860370714</v>
+        <v>0.09939710871279775</v>
       </c>
       <c r="R23" t="n">
-        <v>-213.24788403144</v>
+        <v>-213.2979338097677</v>
       </c>
       <c r="S23" t="n">
-        <v>154.8388031566447</v>
+        <v>77.75895472545363</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>37536692.56581036</v>
+        <v>37687290.11092941</v>
       </c>
       <c r="Y23" t="n">
-        <v>60397921.51982484</v>
+        <v>59598593.19557773</v>
       </c>
       <c r="Z23" t="n">
-        <v>70036661.08877827</v>
+        <v>68937306.35781457</v>
       </c>
       <c r="AA23" t="n">
-        <v>22861228.95401448</v>
+        <v>21911303.08464832</v>
       </c>
       <c r="AB23" t="n">
-        <v>5715307.23850362</v>
+        <v>7303767.694882773</v>
       </c>
       <c r="AC23" t="n">
-        <v>1876834.628290518</v>
+        <v>1794632.86242521</v>
       </c>
       <c r="AD23" t="n">
-        <v>2516580.063326035</v>
+        <v>2483274.716482405</v>
       </c>
       <c r="AG23" t="b">
         <v>1</v>
@@ -2576,82 +2576,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129.0401471058796</v>
+        <v>110.3249121994183</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5900000000000014</v>
+        <v>0.2500000000000011</v>
       </c>
       <c r="E24" t="n">
-        <v>12798.14389181947</v>
+        <v>12904.97397187842</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07553214939677902</v>
+        <v>0.1161989143417029</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>72.60788813759704</v>
+        <v>70.22904504255936</v>
       </c>
       <c r="I24" t="n">
-        <v>0.823148224631931</v>
+        <v>0.8125340573863745</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6775729997147</v>
+        <v>0.6602115944127642</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6130875996576399</v>
+        <v>0.6116703936145877</v>
       </c>
       <c r="L24" t="n">
-        <v>2.5061</v>
+        <v>2.4338</v>
       </c>
       <c r="M24" t="n">
-        <v>430.0189835229577</v>
+        <v>428.5368864267708</v>
       </c>
       <c r="N24" t="n">
-        <v>436.1133626472987</v>
+        <v>433.4123897262436</v>
       </c>
       <c r="O24" t="n">
         <v>25</v>
       </c>
       <c r="P24" t="n">
-        <v>32.23434758398714</v>
+        <v>44.62010274727595</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.841245541135165e-08</v>
+        <v>2.743507310393554e-09</v>
       </c>
       <c r="R24" t="n">
-        <v>-210.0094917614788</v>
+        <v>-210.2684432133854</v>
       </c>
       <c r="S24" t="n">
-        <v>142.3268665753362</v>
+        <v>75.28473958599123</v>
       </c>
       <c r="T24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X24" t="n">
-        <v>28969615.55997919</v>
+        <v>29576012.89310049</v>
       </c>
       <c r="Y24" t="n">
-        <v>89848603.04610154</v>
+        <v>87042442.90497801</v>
       </c>
       <c r="Z24" t="n">
-        <v>8339027979.048921</v>
+        <v>7836209062.667273</v>
       </c>
       <c r="AA24" t="n">
-        <v>60878987.48612235</v>
+        <v>57466430.01187752</v>
       </c>
       <c r="AB24" t="n">
-        <v>15219746.87153059</v>
+        <v>19155476.67062584</v>
       </c>
       <c r="AC24" t="n">
-        <v>1448480.77799896</v>
+        <v>1408381.566338118</v>
       </c>
       <c r="AD24" t="n">
-        <v>3743691.793587564</v>
+        <v>3626768.454374084</v>
       </c>
       <c r="AG24" t="b">
         <v>1</v>
@@ -2664,82 +2664,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.3779176765935</v>
+        <v>95.9109266244387</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08000000000000096</v>
+        <v>0.4500000000000013</v>
       </c>
       <c r="E25" t="n">
-        <v>4959.5607294097</v>
+        <v>5043.56643807552</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003818290316206579</v>
+        <v>0.0148180920192325</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>37.46476151089949</v>
+        <v>39.35946223642264</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8521008437685802</v>
+        <v>0.8459757358598627</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7260758479511262</v>
+        <v>0.7156749456636362</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6712910175413516</v>
+        <v>0.6750570807584414</v>
       </c>
       <c r="L25" t="n">
-        <v>2.1578</v>
+        <v>2.078</v>
       </c>
       <c r="M25" t="n">
-        <v>395.9481973321501</v>
+        <v>394.5386098166296</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0425764564911</v>
+        <v>399.4141131161024</v>
       </c>
       <c r="O25" t="n">
         <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>13.79237529490904</v>
+        <v>20.44083048096543</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.482570281312091e-05</v>
+        <v>1.953566904409394e-06</v>
       </c>
       <c r="R25" t="n">
-        <v>-192.974098666075</v>
+        <v>-193.2693049083148</v>
       </c>
       <c r="S25" t="n">
-        <v>132.6559498437222</v>
+        <v>69.4029338403881</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>7414340.970672251</v>
+        <v>7591525.75663412</v>
       </c>
       <c r="Y25" t="n">
-        <v>27067131.23036109</v>
+        <v>26700164.62092416</v>
       </c>
       <c r="Z25" t="n">
-        <v>1251461383.751211</v>
+        <v>1142492405.683582</v>
       </c>
       <c r="AA25" t="n">
-        <v>19652790.25968884</v>
+        <v>19108638.86429004</v>
       </c>
       <c r="AB25" t="n">
-        <v>4913197.564922209</v>
+        <v>6369546.28809668</v>
       </c>
       <c r="AC25" t="n">
-        <v>370717.0485336125</v>
+        <v>361501.2265063867</v>
       </c>
       <c r="AD25" t="n">
-        <v>1127797.134598379</v>
+        <v>1112506.859205173</v>
       </c>
       <c r="AG25" t="b">
         <v>1</v>
@@ -2752,82 +2752,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>191.7196778422608</v>
+        <v>169.6313785369969</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2199999999999993</v>
+        <v>-0.0999999999999992</v>
       </c>
       <c r="E26" t="n">
-        <v>18227.3206296167</v>
+        <v>18318.41080163793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05369097166985146</v>
+        <v>0.03836088624201017</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>99.37155905939605</v>
+        <v>81.90884138566977</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8044858340716261</v>
+        <v>0.79581339348068</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6471974572219199</v>
+        <v>0.6333189572432356</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5766369486663039</v>
+        <v>0.5809359511351264</v>
       </c>
       <c r="L26" t="n">
-        <v>1.6375</v>
+        <v>1.7829</v>
       </c>
       <c r="M26" t="n">
-        <v>450.7669156472037</v>
+        <v>449.3149610857268</v>
       </c>
       <c r="N26" t="n">
-        <v>456.8612947715447</v>
+        <v>454.1904643851997</v>
       </c>
       <c r="O26" t="n">
         <v>25</v>
       </c>
       <c r="P26" t="n">
-        <v>75.22396888332887</v>
+        <v>67.78918990223919</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.177401757681721e-12</v>
+        <v>5.713535369838796e-11</v>
       </c>
       <c r="R26" t="n">
-        <v>-220.3834578236019</v>
+        <v>-220.6574805428634</v>
       </c>
       <c r="S26" t="n">
-        <v>104.3692538806021</v>
+        <v>59.69849801004321</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
-        <v>66431067.18696363</v>
+        <v>67903436.46243431</v>
       </c>
       <c r="Y26" t="n">
-        <v>188295318.576403</v>
+        <v>185183929.7497515</v>
       </c>
       <c r="Z26" t="n">
-        <v>7293123571.051669</v>
+        <v>8614682913.00589</v>
       </c>
       <c r="AA26" t="n">
-        <v>121864251.3894393</v>
+        <v>117280493.2873172</v>
       </c>
       <c r="AB26" t="n">
-        <v>30466062.84735983</v>
+        <v>39093497.76243908</v>
       </c>
       <c r="AC26" t="n">
-        <v>3321553.359348182</v>
+        <v>3233496.974401634</v>
       </c>
       <c r="AD26" t="n">
-        <v>7845638.27401679</v>
+        <v>7715997.072906314</v>
       </c>
       <c r="AG26" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,50 +2880,25 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Step_PandemiaePos___coef</t>
+          <t>Trend_PandemiaePos___coef</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Step_PandemiaePos___p_value</t>
+          <t>Trend_PandemiaePos___p_value</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Step_PandemiaePos___sgn</t>
+          <t>Trend_PandemiaePos___sgn</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>Step_PandemiaePos___conf_int</t>
+          <t>Trend_PandemiaePos___conf_int</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Step_PandemiaePos___std_err</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>Trend_PandemiaePos___coef</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Trend_PandemiaePos___p_value</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>Trend_PandemiaePos___sgn</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Trend_PandemiaePos___conf_int</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Trend_PandemiaePos___std_err</t>
         </is>
@@ -2936,55 +2911,38 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-46.03092087606554</v>
+        <v>-82.3913092235118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3155820336618237</v>
+        <v>0.0002303662946313513</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-135.9282099833556, 43.86636823122452]</t>
+          <t>[-126.23525878089208, -38.54735966613151]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45.86680664358551</v>
+        <v>22.36977306890115</v>
       </c>
       <c r="G2" t="n">
-        <v>-85.06136810181576</v>
+        <v>37.98457813802297</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2376644760002145</v>
+        <v>6.553542589500305e-09</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[-226.2460952698404, 56.12335906620888]</t>
+          <t>[25.15303204704437, 50.81612422900157]</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>72.03434771336195</v>
-      </c>
-      <c r="L2" t="n">
-        <v>42.5991344271763</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.470605275210037e-06</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[25.25967657042721, 59.93859228392538]</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>8.846824734291301</v>
+        <v>6.54682748876622</v>
       </c>
     </row>
     <row r="3">
@@ -2994,55 +2952,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-399.6648538692962</v>
+        <v>-281.0676965470567</v>
       </c>
       <c r="C3" t="n">
-        <v>3.262347914838883e-14</v>
+        <v>5.870671481200783e-10</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-502.9047546452118, -296.4249530933805]</t>
+          <t>[-370.0077380685414, -192.12765502557198]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>52.67438666743818</v>
+        <v>45.37840604369898</v>
       </c>
       <c r="G3" t="n">
-        <v>198.8865351625179</v>
+        <v>32.11357526508033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03368881498033312</v>
+        <v>0.01624530580385788</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[15.34066876771314, 382.4324015573226]</t>
+          <t>[5.924605851590698, 58.30254467856996]</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>93.647570997524</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11.23006249054264</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2136285546926436</v>
-      </c>
-      <c r="N3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[-6.468265170396485, 28.928390151481764]</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>9.029924937672975</v>
+        <v>13.36196461775057</v>
       </c>
     </row>
     <row r="4">
@@ -3052,55 +2993,38 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-154.2774912669934</v>
+        <v>-334.986320656102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2193939200864303</v>
+        <v>0.004614691916338157</v>
       </c>
       <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[-566.7600525489979, -103.21258876320599]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>118.2540769734024</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-9.429091317965725</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4673321939886275</v>
+      </c>
+      <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-400.48557843688104, 91.93059590289417]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>125.6186792777549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-279.7801899340469</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0005194698461109812</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[-437.78549797880885, -121.77488188928501]</t>
+          <t>[-34.85562320993207, 15.99744057400062]</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>80.61643442996281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21.08672966179275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1848839768963655</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[-10.084761541428474, 52.25822086501398]</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>15.90411428429194</v>
+        <v>12.97295873420511</v>
       </c>
     </row>
     <row r="5">
@@ -3110,55 +3034,38 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1396.7452775528</v>
+        <v>-2261.77285368183</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003582642671112414</v>
+        <v>3.761898018218638e-07</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-2336.603786970385, -456.8867681352142]</t>
+          <t>[-3134.3015292621467, -1389.244178101514]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>479.5284591099987</v>
+        <v>445.175871833723</v>
       </c>
       <c r="G5" t="n">
-        <v>-1366.554617679123</v>
+        <v>-99.47005518207571</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02333270682276511</v>
+        <v>0.2543822279811031</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[-2547.535944362714, -185.57329099553203]</t>
+          <t>[-270.52014752609153, 71.58003716194013]</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>602.5525652506991</v>
-      </c>
-      <c r="L5" t="n">
-        <v>32.11960734777507</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.756589653745147</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[-170.9801925909809, 235.219407286531]</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>103.6242510274583</v>
+        <v>87.2720589221216</v>
       </c>
     </row>
     <row r="6">
@@ -3168,55 +3075,38 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1983.876431663532</v>
+        <v>-946.8082675614407</v>
       </c>
       <c r="C6" t="n">
-        <v>7.295109098144994e-05</v>
+        <v>2.793899835000874e-12</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-2964.180335935693, -1003.5725273913716]</t>
+          <t>[-1212.3756057757973, -681.2409293470843]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500.1642438354342</v>
+        <v>135.4960296766256</v>
       </c>
       <c r="G6" t="n">
-        <v>1857.587671029579</v>
+        <v>222.7956796529037</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001068526393250477</v>
+        <v>0.006449109180513319</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[744.8154611984378, 2970.3598808607194]</t>
+          <t>[62.492058833110804, 383.09930047269654]</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>567.7513559476328</v>
-      </c>
-      <c r="L6" t="n">
-        <v>60.24159790440398</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.535571766590011</v>
-      </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[-130.3426595471644, 250.82585535597238]</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>97.23865282978295</v>
+        <v>81.78906453600544</v>
       </c>
     </row>
     <row r="7">
@@ -3226,55 +3116,38 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-193.1405401406336</v>
+        <v>-84.96884117783276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003630167093778973</v>
+        <v>0.02679469277517085</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-299.30721319364466, -86.97386708762248]</t>
+          <t>[-160.17145394480215, -9.766228410863363]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>54.16766526856629</v>
+        <v>38.36938502960157</v>
       </c>
       <c r="G7" t="n">
-        <v>160.8793370185279</v>
+        <v>8.629757376945932</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004995304244525043</v>
+        <v>0.05120638685452483</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[48.56016366926819, 273.19851036778766]</t>
+          <t>[-0.045225236372655075, 17.30473999026452]</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>57.30675371344527</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-10.46242879317505</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1616558315409954</v>
-      </c>
-      <c r="N7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[-25.11453905315051, 4.1896814668004065]</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>7.475703826983269</v>
+        <v>4.426092867902545</v>
       </c>
     </row>
     <row r="8">
@@ -3284,55 +3157,38 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-308.0437380707839</v>
+        <v>-65.16138573779074</v>
       </c>
       <c r="C8" t="n">
-        <v>1.565862556050333e-32</v>
+        <v>0.005278088918750176</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-358.8793328414685, -257.20814330009927]</t>
+          <t>[-110.94434032328118, -19.378431152300294]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25.93700454277187</v>
+        <v>23.35907952728752</v>
       </c>
       <c r="G8" t="n">
-        <v>341.9385311071018</v>
+        <v>17.17420163497234</v>
       </c>
       <c r="H8" t="n">
-        <v>4.924535149304344e-55</v>
+        <v>0.0001080496469399266</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[299.046360833698, 384.83070138050556]</t>
+          <t>[8.480283543295199, 25.86811972664949]</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>21.88416247019422</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-18.18984793136697</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0002019805033039547</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[-27.78252735647721, -8.597168506256724]</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>4.894314130655499</v>
+        <v>4.435754003774387</v>
       </c>
     </row>
     <row r="9">
@@ -3342,55 +3198,38 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.3964767951737</v>
+        <v>-211.6913332570118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.622615300533893</v>
+        <v>0.001385008401424545</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-161.4146448979583, 96.62169130761092]</t>
+          <t>[-341.44083051535995, -81.94183599866358]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>65.82680555380786</v>
+        <v>66.19993953041774</v>
       </c>
       <c r="G9" t="n">
-        <v>-251.7639126009387</v>
+        <v>-25.55111341938943</v>
       </c>
       <c r="H9" t="n">
-        <v>4.364087565393509e-12</v>
+        <v>0.007007305250257944</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[-323.02141737146803, -180.50640783040936]</t>
+          <t>[-44.123084446784915, -6.979142391993957]</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>36.35653784079679</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.848326267482568</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.728521808186838</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[-13.235618157797719, 18.932270692762856]</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>8.206244886206271</v>
+        <v>9.475669539791964</v>
       </c>
     </row>
     <row r="10">
@@ -3400,55 +3239,38 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.80848128584665</v>
+        <v>-346.0528640369835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.534927782763557</v>
+        <v>0.000398043241316563</v>
       </c>
       <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[-537.5746940248025, -154.53103404916456]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>97.71701495462096</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.37802164834808</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2271081697920871</v>
+      </c>
+      <c r="I10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[-163.64611349951602, 315.2630760712093]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>122.1729565819321</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-598.4520154546293</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.599465480173406e-11</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[-776.6201755007147, -420.2838554085439]</t>
+          <t>[-13.312081815884387, 56.068125112580546]</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>90.90379285101827</v>
-      </c>
-      <c r="L10" t="n">
-        <v>78.01800421177347</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7.074402124762157e-08</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[49.644505166063, 106.39150325748395]</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>14.47654103316031</v>
+        <v>17.69935760955996</v>
       </c>
     </row>
     <row r="11">
@@ -3458,55 +3280,38 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-77.93657927066634</v>
+        <v>-309.7788821317049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4961468752971856</v>
+        <v>0.0007367137414505118</v>
       </c>
       <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[-489.6480928788863, -129.9096713845235]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>91.77169180962854</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-20.97250802001273</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1557876560308152</v>
+      </c>
+      <c r="I11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[-302.38673813079714, 146.51357958946448]</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>114.5174914593151</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-372.5493789321339</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.001620700230484685</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[-604.1951211089681, -140.90363675529974]</t>
+          <t>[-49.9325471591803, 7.987531119154848]</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>118.1887748979197</v>
-      </c>
-      <c r="L11" t="n">
-        <v>11.70085058152073</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.4249085422250592</v>
-      </c>
-      <c r="N11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[-17.039914168652288, 40.44161533169374]</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>14.66392493784401</v>
+        <v>14.77580168186797</v>
       </c>
     </row>
     <row r="12">
@@ -3516,55 +3321,38 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.116446377839079</v>
+        <v>-30.71189432824374</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6749544778695711</v>
+        <v>0.000790972798308156</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-23.355582602867592, 15.122689847189434]</t>
+          <t>[-48.64853925995318, -12.775249396534306]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.816066201616135</v>
+        <v>9.151517616237546</v>
       </c>
       <c r="G12" t="n">
-        <v>-40.4497491376282</v>
+        <v>8.119664321048154</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02394364889564743</v>
+        <v>0.03926921191778175</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[-75.55998793051495, -5.3395103447414485]</t>
+          <t>[0.39937749727715577, 15.839951144819151]</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17.91371630796884</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12.14426769254757</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.004058960162258466</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[3.8609990721368295, 20.427536312958303]</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>4.226235117455271</v>
+        <v>3.938994228806057</v>
       </c>
     </row>
     <row r="13">
@@ -3574,55 +3362,38 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1602888863327351</v>
+        <v>-12.4637306869131</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9579059402228001</v>
+        <v>1.703618644356432e-06</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-5.7917962996357675, 6.112374072301237]</t>
+          <t>[-17.56816252851432, -7.35929884531187]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.036833958643011</v>
+        <v>2.604349815539639</v>
       </c>
       <c r="G13" t="n">
-        <v>-17.21260905412576</v>
+        <v>1.93536061993556</v>
       </c>
       <c r="H13" t="n">
-        <v>6.408080891382128e-08</v>
+        <v>2.86381037987283e-06</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[-23.451918917861143, -10.97329919039038]</t>
+          <t>[1.1249010439951732, 2.7458201958759467]</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>3.18337985440052</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.698658674448098</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.577520162635358e-13</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[2.7164374038711485, 4.680879945025048]</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0.5011425099259914</v>
+        <v>0.4135073819382338</v>
       </c>
     </row>
     <row r="14">
@@ -3632,55 +3403,38 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67.53621496033617</v>
+        <v>-452.3574361580579</v>
       </c>
       <c r="C14" t="n">
-        <v>0.602958976312821</v>
+        <v>1.309154440898134e-09</v>
       </c>
       <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[-598.5105692258321, -306.2043030902837]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>74.56929526287803</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-22.58594166801389</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2200146513628966</v>
+      </c>
+      <c r="I14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[-186.9452401066003, 322.01767002727263]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>129.8398629129177</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-760.7323165433806</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.627604095347954e-09</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[-1007.9486792157646, -513.5159538709967]</t>
+          <t>[-58.67890816104756, 13.507024825019784]</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>126.133115007416</v>
-      </c>
-      <c r="L14" t="n">
-        <v>65.60750731327474</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.001775473619148596</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[24.46485154820745, 106.75016307834203]</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>20.99153662495603</v>
+        <v>18.41511720507641</v>
       </c>
     </row>
     <row r="15">
@@ -3690,55 +3444,38 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-535.9025984840774</v>
+        <v>-692.5969598239146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00232060622850118</v>
+        <v>1.307605585643711e-23</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-880.7542346594175, -191.05096230873727]</t>
+          <t>[-828.138095611236, -557.0558240365932]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>175.9479454191434</v>
+        <v>69.15491144554321</v>
       </c>
       <c r="G15" t="n">
-        <v>-376.3702388085615</v>
+        <v>1.665095394630229</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1308308590220349</v>
+        <v>0.9541438993444398</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[-864.6252835099069, 111.88480589278396]</t>
+          <t>[-55.08817034745656, 58.41836113671702]</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>249.1142942179749</v>
-      </c>
-      <c r="L15" t="n">
-        <v>31.33524633352096</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.4281132570294705</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[-46.16861938489636, 108.83911205193827]</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>39.54351525321788</v>
+        <v>28.95627990603364</v>
       </c>
     </row>
     <row r="16">
@@ -3748,55 +3485,38 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1079.112116521362</v>
+        <v>-759.8258269265292</v>
       </c>
       <c r="C16" t="n">
-        <v>3.545798253273385e-11</v>
+        <v>5.430061500374169e-27</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-1398.5093805931806, -759.7148524495442]</t>
+          <t>[-898.2551631981835, -621.3964906548749]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>162.9607822343589</v>
+        <v>70.62851019894613</v>
       </c>
       <c r="G16" t="n">
-        <v>524.2101860554843</v>
+        <v>48.37517910707202</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01744197375709342</v>
+        <v>0.0008432789190413353</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[92.01733703781633, 956.4030350731523]</t>
+          <t>[19.972428023062722, 76.77793019108132]</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>220.5106075554194</v>
-      </c>
-      <c r="L16" t="n">
-        <v>-2.95276863376311</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9222688133468719</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[-62.2635368826253, 56.357999615099075]</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>30.26115210110898</v>
+        <v>14.49146581674285</v>
       </c>
     </row>
     <row r="17">
@@ -3806,55 +3526,38 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-929.3109593753926</v>
+        <v>-734.7022431692861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001418931183891079</v>
+        <v>1.469741423062726e-11</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-1500.1495863320838, -358.4723324187013]</t>
+          <t>[-948.0069955611428, -521.3974907774294]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>291.2495492056964</v>
+        <v>108.8309550963066</v>
       </c>
       <c r="G17" t="n">
-        <v>272.5542526959043</v>
+        <v>28.50452189790689</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3467249701812128</v>
+        <v>0.5508873904794529</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[-295.1596666192606, 840.268172011069]</t>
+          <t>[-65.16573321876791, 122.17477701458168]</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>289.6552813180343</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.317361860110619</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9726531335603064</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[-130.17455457573394, 134.80927829595518]</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>67.59915869930462</v>
+        <v>47.7918246740929</v>
       </c>
     </row>
     <row r="18">
@@ -3864,55 +3567,38 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-801.9557343709326</v>
+        <v>-860.5207557001527</v>
       </c>
       <c r="C18" t="n">
-        <v>1.98107843777776e-06</v>
+        <v>1.949418481154756e-17</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-1132.4899792137753, -471.4214895280899]</t>
+          <t>[-1059.018538612388, -662.0229727879174]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>168.6430196932468</v>
+        <v>101.2762400115311</v>
       </c>
       <c r="G18" t="n">
-        <v>-86.72583001130306</v>
+        <v>-11.16285295464526</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7122599994526286</v>
+        <v>0.7675601689008626</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[-547.5965275291692, 374.14486750656306]</t>
+          <t>[-85.1857671829391, 62.86006127364858]</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>235.142431775867</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-5.8765804749611</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.8730308465992539</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[-77.94901176306367, 66.19585081314146]</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>36.7723243164674</v>
+        <v>37.76748696005495</v>
       </c>
     </row>
     <row r="19">
@@ -3922,55 +3608,38 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-382.156654115468</v>
+        <v>-1034.60150881121</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1747018214977335</v>
+        <v>7.692557517268225e-24</v>
       </c>
       <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[-1236.0205497183574, -833.1824679040633]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>102.7667051516838</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-71.01021553381089</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.06134860560972519</v>
+      </c>
+      <c r="I19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-934.0176493817346, 169.70434115079848]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>281.566906136682</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-738.9888631545149</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.01616605913338351</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[-1341.1944185741347, -136.78330773489506]</t>
+          <t>[-145.39789940010056, 3.37746833247877]</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>307.2533782098755</v>
-      </c>
-      <c r="L19" t="n">
-        <v>43.1821581195946</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.43842723830357</v>
-      </c>
-      <c r="N19" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[-66.04579365231783, 152.41010989150703]</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>55.72957086634682</v>
+        <v>37.95359733803796</v>
       </c>
     </row>
     <row r="20">
@@ -3980,55 +3649,38 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-567.0458729444018</v>
+        <v>-727.2336869951195</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001964754906639932</v>
+        <v>1.98736847635142e-34</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-926.0787596743521, -208.01298621445147]</t>
+          <t>[-843.7185988985378, -610.7487750917011]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>183.1834102881257</v>
+        <v>59.43216958180685</v>
       </c>
       <c r="G20" t="n">
-        <v>-244.5909261610441</v>
+        <v>-51.1753228928693</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3615584270132211</v>
+        <v>0.02651517075742637</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[-770.0070192489236, 280.82516692683527]</t>
+          <t>[-96.38518522118011, -5.965460564558505]</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>268.0743611782127</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-28.72851821570117</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.4660197233130036</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[-105.97013908262636, 48.51310265122402]</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>39.40971440097739</v>
+        <v>23.06668014561514</v>
       </c>
     </row>
     <row r="21">
@@ -4038,55 +3690,38 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-209.4473781349529</v>
+        <v>-264.5257830572552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1587846863885335</v>
+        <v>1.138478685433769e-09</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-500.7600665508361, 81.8653102809302]</t>
+          <t>[-349.6774583573682, -179.37410775714224]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>148.6316538026823</v>
+        <v>43.44553061779632</v>
       </c>
       <c r="G21" t="n">
-        <v>-79.49344296808475</v>
+        <v>-26.83935221223968</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6252428752359538</v>
+        <v>0.05436061340862506</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[-398.48120889853544, 239.4943229623659]</t>
+          <t>[-54.181077241948316, 0.502372817468963]</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>162.7518507720476</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-19.28329372128626</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.483771809919972</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[-73.25632433070822, 34.689736888135705]</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>27.53776652793334</v>
+        <v>13.95011604569098</v>
       </c>
     </row>
     <row r="22">
@@ -4096,55 +3731,38 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-81.46015823054044</v>
+        <v>-95.3036845196559</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1497122717911195</v>
+        <v>0.00478551211910214</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-192.2922291906923, 29.371912729611424]</t>
+          <t>[-161.51542564827764, -29.09194339103415]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>56.54801406269763</v>
+        <v>33.7821213302344</v>
       </c>
       <c r="G22" t="n">
-        <v>-60.31889018403698</v>
+        <v>-14.93092635860924</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3612576019087492</v>
+        <v>0.002477169325665534</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[-189.81128926610748, 69.17350889803353]</t>
+          <t>[-24.601432775873022, -5.260419941345464]</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>66.06876458113008</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-9.022248239037204</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.2883560733261624</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[-25.67733081307456, 7.632834335000151]</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>8.497647255465163</v>
+        <v>4.934022509364203</v>
       </c>
     </row>
     <row r="23">
@@ -4154,55 +3772,38 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1679.300543260548</v>
+        <v>1281.9808170619</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03089990632200405</v>
+        <v>0.03557943037506991</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[154.36048319590827, 3204.240603325188]</t>
+          <t>[86.45604503846153, 2477.5055890853378]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>778.0449396484694</v>
+        <v>609.9728267731372</v>
       </c>
       <c r="G23" t="n">
-        <v>-503.3180127496541</v>
+        <v>384.5789513603021</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3087135071380134</v>
+        <v>0.01310473632527432</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[-1472.431639807406, 465.7956143080977]</t>
+          <t>[80.75462208064624, 688.403280639958]</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>494.4548138139255</v>
-      </c>
-      <c r="L23" t="n">
-        <v>436.2593488633414</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.008444136738358298</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[111.61030422288883, 760.9083935037938]</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>165.6403113532916</v>
+        <v>155.0152613395876</v>
       </c>
     </row>
     <row r="24">
@@ -4212,55 +3813,38 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3455.280478185721</v>
+        <v>-3991.634987300355</v>
       </c>
       <c r="C24" t="n">
-        <v>4.889258339132472e-05</v>
+        <v>4.609304422779502e-23</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-5122.963597965828, -1787.5973584056146]</t>
+          <t>[-4782.698286834353, -3200.571687766356]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>850.8743695979</v>
+        <v>403.6111407014645</v>
       </c>
       <c r="G24" t="n">
-        <v>-926.1338963605559</v>
+        <v>76.22763220780062</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3992134477171105</v>
+        <v>0.6344659312080989</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[-3079.314616197233, 1227.0468234761215]</t>
+          <t>[-238.00786522803412, 390.4631296436354]</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1098.581778451386</v>
-      </c>
-      <c r="L24" t="n">
-        <v>158.1939931302738</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.452165028620518</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[-254.21648853240464, 570.6044747929523]</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>210.4173775210768</v>
+        <v>160.3271794351755</v>
       </c>
     </row>
     <row r="25">
@@ -4270,55 +3854,38 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1411.463988917861</v>
+        <v>-1750.117368453429</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001647855340825609</v>
+        <v>1.268406281503363e-09</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[-2290.4453941565916, -532.4825836791308]</t>
+          <t>[-2315.0935082809547, -1185.1412286259035]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>448.4681413393428</v>
+        <v>288.2584293813484</v>
       </c>
       <c r="G25" t="n">
-        <v>-542.1978977958989</v>
+        <v>28.32042984618392</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3355889029941289</v>
+        <v>0.6901686951868242</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[-1645.8109281863044, 561.4151325945064]</t>
+          <t>[-110.92538588079539, 167.56624557316323]</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>563.0782193425819</v>
-      </c>
-      <c r="L25" t="n">
-        <v>75.95171881801613</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.4317290135535895</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[-113.38400296599582, 265.2874406020281]</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>96.60163313074524</v>
+        <v>71.04508900435546</v>
       </c>
     </row>
     <row r="26">
@@ -4328,55 +3895,38 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-4179.299197026478</v>
+        <v>-5205.089544409322</v>
       </c>
       <c r="C26" t="n">
-        <v>1.113590336043386e-05</v>
+        <v>1.062612001063655e-31</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-6043.557185004919, -2315.0412090480377]</t>
+          <t>[-6075.889444992739, -4334.289643825905]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>951.1695126458801</v>
+        <v>444.2938275663105</v>
       </c>
       <c r="G26" t="n">
-        <v>-1584.608573205368</v>
+        <v>149.3208493765467</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3076331827783652</v>
+        <v>0.4130339107131122</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[-4628.887088349822, 1459.6699419390857]</t>
+          <t>[-208.21096344178375, 506.8526621948772]</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1553.231865053305</v>
-      </c>
-      <c r="L26" t="n">
-        <v>304.0135824196167</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.1573107161531786</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[-117.3316858349088, 725.3588506741423]</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>214.9760258749871</v>
+        <v>182.4175421785787</v>
       </c>
     </row>
   </sheetData>
@@ -6714,82 +6264,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>599.872958574848</v>
+        <v>619.5517959187387</v>
       </c>
       <c r="C2" t="n">
-        <v>606.3663070448667</v>
+        <v>623.0857787960784</v>
       </c>
       <c r="D2" t="n">
-        <v>612.8596555148854</v>
+        <v>626.6197616734182</v>
       </c>
       <c r="E2" t="n">
-        <v>619.353003984904</v>
+        <v>630.1537445507581</v>
       </c>
       <c r="F2" t="n">
-        <v>625.8463524549227</v>
+        <v>633.6877274280979</v>
       </c>
       <c r="G2" t="n">
-        <v>632.3397009249414</v>
+        <v>637.2217103054377</v>
       </c>
       <c r="H2" t="n">
-        <v>638.8330493949601</v>
+        <v>640.7556931827775</v>
       </c>
       <c r="I2" t="n">
-        <v>645.3263978649787</v>
+        <v>644.2896760601172</v>
       </c>
       <c r="J2" t="n">
-        <v>651.8197463349974</v>
+        <v>647.823658937457</v>
       </c>
       <c r="K2" t="n">
-        <v>658.3130948050161</v>
+        <v>651.3576418147968</v>
       </c>
       <c r="L2" t="n">
-        <v>664.8064432750348</v>
+        <v>654.8916246921367</v>
       </c>
       <c r="M2" t="n">
-        <v>671.2997917450534</v>
+        <v>658.4256075694765</v>
       </c>
       <c r="N2" t="n">
-        <v>677.7931402150721</v>
+        <v>661.9595904468163</v>
       </c>
       <c r="O2" t="n">
-        <v>684.2864886850908</v>
+        <v>665.493573324156</v>
       </c>
       <c r="P2" t="n">
-        <v>690.7798371551095</v>
+        <v>669.0275562014958</v>
       </c>
       <c r="Q2" t="n">
-        <v>697.2731856251281</v>
+        <v>672.5615390788356</v>
       </c>
       <c r="R2" t="n">
-        <v>703.7665340951469</v>
+        <v>676.0955219561754</v>
       </c>
       <c r="S2" t="n">
-        <v>710.2598825651655</v>
+        <v>679.6295048335153</v>
       </c>
       <c r="T2" t="n">
-        <v>716.7532310351842</v>
+        <v>683.1634877108551</v>
       </c>
       <c r="U2" t="n">
-        <v>723.2465795052028</v>
+        <v>686.6974705881948</v>
       </c>
       <c r="V2" t="n">
-        <v>729.7399279752215</v>
+        <v>690.2314534655346</v>
       </c>
       <c r="W2" t="n">
-        <v>736.2332764452402</v>
+        <v>693.7654363428744</v>
       </c>
       <c r="X2" t="n">
-        <v>742.7266249152589</v>
+        <v>697.2994192202142</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.2199733852776</v>
+        <v>700.833402097554</v>
       </c>
       <c r="Z2" t="n">
-        <v>755.7133218552963</v>
+        <v>704.3673849748939</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.2066703253149</v>
+        <v>707.9013678522336</v>
       </c>
     </row>
     <row r="3">
@@ -6799,82 +6349,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>632.1748963745046</v>
+        <v>619.7046323920288</v>
       </c>
       <c r="C3" t="n">
-        <v>642.356108765871</v>
+        <v>632.79242830795</v>
       </c>
       <c r="D3" t="n">
-        <v>652.5373211572373</v>
+        <v>645.8802242238711</v>
       </c>
       <c r="E3" t="n">
-        <v>662.7185335486037</v>
+        <v>658.9680201397922</v>
       </c>
       <c r="F3" t="n">
-        <v>672.8997459399701</v>
+        <v>672.0558160557133</v>
       </c>
       <c r="G3" t="n">
-        <v>683.0809583313364</v>
+        <v>685.1436119716345</v>
       </c>
       <c r="H3" t="n">
-        <v>693.2621707227028</v>
+        <v>698.2314078875556</v>
       </c>
       <c r="I3" t="n">
-        <v>703.4433831140691</v>
+        <v>711.3192038034767</v>
       </c>
       <c r="J3" t="n">
-        <v>713.6245955054355</v>
+        <v>724.4069997193978</v>
       </c>
       <c r="K3" t="n">
-        <v>723.8058078968019</v>
+        <v>737.4947956353191</v>
       </c>
       <c r="L3" t="n">
-        <v>733.9870202881682</v>
+        <v>750.5825915512402</v>
       </c>
       <c r="M3" t="n">
-        <v>744.1682326795346</v>
+        <v>763.6703874671614</v>
       </c>
       <c r="N3" t="n">
-        <v>754.349445070901</v>
+        <v>776.7581833830825</v>
       </c>
       <c r="O3" t="n">
-        <v>764.5306574622673</v>
+        <v>789.8459792990036</v>
       </c>
       <c r="P3" t="n">
-        <v>774.7118698536337</v>
+        <v>802.9337752149247</v>
       </c>
       <c r="Q3" t="n">
-        <v>784.8930822450001</v>
+        <v>816.0215711308458</v>
       </c>
       <c r="R3" t="n">
-        <v>795.0742946363664</v>
+        <v>829.109367046767</v>
       </c>
       <c r="S3" t="n">
-        <v>805.2555070277328</v>
+        <v>842.1971629626881</v>
       </c>
       <c r="T3" t="n">
-        <v>815.4367194190992</v>
+        <v>855.2849588786092</v>
       </c>
       <c r="U3" t="n">
-        <v>825.6179318104655</v>
+        <v>868.3727547945305</v>
       </c>
       <c r="V3" t="n">
-        <v>835.799144201832</v>
+        <v>881.4605507104516</v>
       </c>
       <c r="W3" t="n">
-        <v>845.9803565931983</v>
+        <v>894.5483466263727</v>
       </c>
       <c r="X3" t="n">
-        <v>856.1615689845646</v>
+        <v>907.6361425422938</v>
       </c>
       <c r="Y3" t="n">
-        <v>866.3427813759311</v>
+        <v>920.723938458215</v>
       </c>
       <c r="Z3" t="n">
-        <v>876.5239937672974</v>
+        <v>933.8117343741361</v>
       </c>
       <c r="AA3" t="n">
-        <v>886.7052061586637</v>
+        <v>946.8995302900573</v>
       </c>
     </row>
     <row r="4">
@@ -6884,82 +6434,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1427.487425625233</v>
+        <v>1447.945474642794</v>
       </c>
       <c r="C4" t="n">
-        <v>1424.942822349519</v>
+        <v>1441.501430965965</v>
       </c>
       <c r="D4" t="n">
-        <v>1422.398219073804</v>
+        <v>1435.057387289135</v>
       </c>
       <c r="E4" t="n">
-        <v>1419.85361579809</v>
+        <v>1428.613343612305</v>
       </c>
       <c r="F4" t="n">
-        <v>1417.309012522375</v>
+        <v>1422.169299935476</v>
       </c>
       <c r="G4" t="n">
-        <v>1414.76440924666</v>
+        <v>1415.725256258646</v>
       </c>
       <c r="H4" t="n">
-        <v>1412.219805970946</v>
+        <v>1409.281212581817</v>
       </c>
       <c r="I4" t="n">
-        <v>1409.675202695231</v>
+        <v>1402.837168904987</v>
       </c>
       <c r="J4" t="n">
-        <v>1407.130599419516</v>
+        <v>1396.393125228157</v>
       </c>
       <c r="K4" t="n">
-        <v>1404.585996143802</v>
+        <v>1389.949081551328</v>
       </c>
       <c r="L4" t="n">
-        <v>1402.041392868087</v>
+        <v>1383.505037874498</v>
       </c>
       <c r="M4" t="n">
-        <v>1399.496789592372</v>
+        <v>1377.060994197669</v>
       </c>
       <c r="N4" t="n">
-        <v>1396.952186316658</v>
+        <v>1370.616950520839</v>
       </c>
       <c r="O4" t="n">
-        <v>1394.407583040943</v>
+        <v>1364.17290684401</v>
       </c>
       <c r="P4" t="n">
-        <v>1391.862979765228</v>
+        <v>1357.72886316718</v>
       </c>
       <c r="Q4" t="n">
-        <v>1389.318376489514</v>
+        <v>1351.28481949035</v>
       </c>
       <c r="R4" t="n">
-        <v>1386.773773213799</v>
+        <v>1344.840775813521</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.229169938085</v>
+        <v>1338.396732136691</v>
       </c>
       <c r="T4" t="n">
-        <v>1381.68456666237</v>
+        <v>1331.952688459862</v>
       </c>
       <c r="U4" t="n">
-        <v>1379.139963386655</v>
+        <v>1325.508644783032</v>
       </c>
       <c r="V4" t="n">
-        <v>1376.595360110941</v>
+        <v>1319.064601106202</v>
       </c>
       <c r="W4" t="n">
-        <v>1374.050756835226</v>
+        <v>1312.620557429373</v>
       </c>
       <c r="X4" t="n">
-        <v>1371.506153559511</v>
+        <v>1306.176513752543</v>
       </c>
       <c r="Y4" t="n">
-        <v>1368.961550283797</v>
+        <v>1299.732470075714</v>
       </c>
       <c r="Z4" t="n">
-        <v>1366.416947008082</v>
+        <v>1293.288426398884</v>
       </c>
       <c r="AA4" t="n">
-        <v>1363.872343732367</v>
+        <v>1286.844382722054</v>
       </c>
     </row>
     <row r="5">
@@ -6969,82 +6519,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9883.284925798846</v>
+        <v>10039.22821348816</v>
       </c>
       <c r="C5" t="n">
-        <v>9850.301280829175</v>
+        <v>9979.076699122224</v>
       </c>
       <c r="D5" t="n">
-        <v>9817.317635859505</v>
+        <v>9918.925184756288</v>
       </c>
       <c r="E5" t="n">
-        <v>9784.333990889834</v>
+        <v>9858.77367039035</v>
       </c>
       <c r="F5" t="n">
-        <v>9751.350345920164</v>
+        <v>9798.622156024412</v>
       </c>
       <c r="G5" t="n">
-        <v>9718.366700950493</v>
+        <v>9738.470641658474</v>
       </c>
       <c r="H5" t="n">
-        <v>9685.383055980823</v>
+        <v>9678.319127292536</v>
       </c>
       <c r="I5" t="n">
-        <v>9652.399411011153</v>
+        <v>9618.1676129266</v>
       </c>
       <c r="J5" t="n">
-        <v>9619.415766041482</v>
+        <v>9558.016098560662</v>
       </c>
       <c r="K5" t="n">
-        <v>9586.43212107181</v>
+        <v>9497.864584194724</v>
       </c>
       <c r="L5" t="n">
-        <v>9553.448476102139</v>
+        <v>9437.713069828786</v>
       </c>
       <c r="M5" t="n">
-        <v>9520.464831132469</v>
+        <v>9377.561555462848</v>
       </c>
       <c r="N5" t="n">
-        <v>9487.481186162799</v>
+        <v>9317.410041096911</v>
       </c>
       <c r="O5" t="n">
-        <v>9454.497541193128</v>
+        <v>9257.258526730973</v>
       </c>
       <c r="P5" t="n">
-        <v>9421.513896223458</v>
+        <v>9197.107012365035</v>
       </c>
       <c r="Q5" t="n">
-        <v>9388.530251253787</v>
+        <v>9136.955497999097</v>
       </c>
       <c r="R5" t="n">
-        <v>9355.546606284117</v>
+        <v>9076.803983633159</v>
       </c>
       <c r="S5" t="n">
-        <v>9322.562961314447</v>
+        <v>9016.652469267221</v>
       </c>
       <c r="T5" t="n">
-        <v>9289.579316344776</v>
+        <v>8956.500954901285</v>
       </c>
       <c r="U5" t="n">
-        <v>9256.595671375106</v>
+        <v>8896.349440535347</v>
       </c>
       <c r="V5" t="n">
-        <v>9223.612026405435</v>
+        <v>8836.197926169409</v>
       </c>
       <c r="W5" t="n">
-        <v>9190.628381435765</v>
+        <v>8776.046411803471</v>
       </c>
       <c r="X5" t="n">
-        <v>9157.644736466094</v>
+        <v>8715.894897437534</v>
       </c>
       <c r="Y5" t="n">
-        <v>9124.661091496424</v>
+        <v>8655.743383071596</v>
       </c>
       <c r="Z5" t="n">
-        <v>9091.677446526754</v>
+        <v>8595.591868705658</v>
       </c>
       <c r="AA5" t="n">
-        <v>9058.693801557083</v>
+        <v>8535.44035433972</v>
       </c>
     </row>
     <row r="6">
@@ -7054,82 +6604,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3485.919113686561</v>
+        <v>3343.021990439674</v>
       </c>
       <c r="C6" t="n">
-        <v>3596.326197606757</v>
+        <v>3489.710106644401</v>
       </c>
       <c r="D6" t="n">
-        <v>3706.733281526951</v>
+        <v>3636.398222849127</v>
       </c>
       <c r="E6" t="n">
-        <v>3817.140365447147</v>
+        <v>3783.086339053854</v>
       </c>
       <c r="F6" t="n">
-        <v>3927.547449367342</v>
+        <v>3929.774455258581</v>
       </c>
       <c r="G6" t="n">
-        <v>4037.954533287538</v>
+        <v>4076.462571463308</v>
       </c>
       <c r="H6" t="n">
-        <v>4148.361617207733</v>
+        <v>4223.150687668034</v>
       </c>
       <c r="I6" t="n">
-        <v>4258.768701127929</v>
+        <v>4369.838803872761</v>
       </c>
       <c r="J6" t="n">
-        <v>4369.175785048124</v>
+        <v>4516.526920077487</v>
       </c>
       <c r="K6" t="n">
-        <v>4479.582868968319</v>
+        <v>4663.215036282214</v>
       </c>
       <c r="L6" t="n">
-        <v>4589.989952888514</v>
+        <v>4809.903152486941</v>
       </c>
       <c r="M6" t="n">
-        <v>4700.397036808709</v>
+        <v>4956.591268691667</v>
       </c>
       <c r="N6" t="n">
-        <v>4810.804120728904</v>
+        <v>5103.279384896394</v>
       </c>
       <c r="O6" t="n">
-        <v>4921.2112046491</v>
+        <v>5249.96750110112</v>
       </c>
       <c r="P6" t="n">
-        <v>5031.618288569295</v>
+        <v>5396.655617305847</v>
       </c>
       <c r="Q6" t="n">
-        <v>5142.025372489491</v>
+        <v>5543.343733510574</v>
       </c>
       <c r="R6" t="n">
-        <v>5252.432456409686</v>
+        <v>5690.0318497153</v>
       </c>
       <c r="S6" t="n">
-        <v>5362.839540329882</v>
+        <v>5836.719965920027</v>
       </c>
       <c r="T6" t="n">
-        <v>5473.246624250077</v>
+        <v>5983.408082124753</v>
       </c>
       <c r="U6" t="n">
-        <v>5583.653708170272</v>
+        <v>6130.09619832948</v>
       </c>
       <c r="V6" t="n">
-        <v>5694.060792090468</v>
+        <v>6276.784314534208</v>
       </c>
       <c r="W6" t="n">
-        <v>5804.467876010663</v>
+        <v>6423.472430738934</v>
       </c>
       <c r="X6" t="n">
-        <v>5914.874959930858</v>
+        <v>6570.160546943661</v>
       </c>
       <c r="Y6" t="n">
-        <v>6025.282043851053</v>
+        <v>6716.848663148387</v>
       </c>
       <c r="Z6" t="n">
-        <v>6135.689127771249</v>
+        <v>6863.536779353114</v>
       </c>
       <c r="AA6" t="n">
-        <v>6246.096211691443</v>
+        <v>7010.224895557841</v>
       </c>
     </row>
     <row r="7">
@@ -7139,82 +6689,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.8079729993556</v>
+        <v>331.21139867443</v>
       </c>
       <c r="C7" t="n">
-        <v>342.9474404182302</v>
+        <v>335.4268776241643</v>
       </c>
       <c r="D7" t="n">
-        <v>345.0869078371048</v>
+        <v>339.6423565738985</v>
       </c>
       <c r="E7" t="n">
-        <v>347.2263752559795</v>
+        <v>343.8578355236328</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3658426748541</v>
+        <v>348.073314473367</v>
       </c>
       <c r="G7" t="n">
-        <v>351.5053100937288</v>
+        <v>352.2887934231013</v>
       </c>
       <c r="H7" t="n">
-        <v>353.6447775126034</v>
+        <v>356.5042723728355</v>
       </c>
       <c r="I7" t="n">
-        <v>355.784244931478</v>
+        <v>360.7197513225698</v>
       </c>
       <c r="J7" t="n">
-        <v>357.9237123503527</v>
+        <v>364.9352302723041</v>
       </c>
       <c r="K7" t="n">
-        <v>360.0631797692273</v>
+        <v>369.1507092220384</v>
       </c>
       <c r="L7" t="n">
-        <v>362.2026471881019</v>
+        <v>373.3661881717726</v>
       </c>
       <c r="M7" t="n">
-        <v>364.3421146069766</v>
+        <v>377.5816671215068</v>
       </c>
       <c r="N7" t="n">
-        <v>366.4815820258512</v>
+        <v>381.7971460712411</v>
       </c>
       <c r="O7" t="n">
-        <v>368.6210494447258</v>
+        <v>386.0126250209753</v>
       </c>
       <c r="P7" t="n">
-        <v>370.7605168636005</v>
+        <v>390.2281039707096</v>
       </c>
       <c r="Q7" t="n">
-        <v>372.8999842824751</v>
+        <v>394.4435829204439</v>
       </c>
       <c r="R7" t="n">
-        <v>375.0394517013498</v>
+        <v>398.6590618701782</v>
       </c>
       <c r="S7" t="n">
-        <v>377.1789191202244</v>
+        <v>402.8745408199124</v>
       </c>
       <c r="T7" t="n">
-        <v>379.318386539099</v>
+        <v>407.0900197696467</v>
       </c>
       <c r="U7" t="n">
-        <v>381.4578539579737</v>
+        <v>411.3054987193809</v>
       </c>
       <c r="V7" t="n">
-        <v>383.5973213768483</v>
+        <v>415.5209776691152</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7367887957229</v>
+        <v>419.7364566188494</v>
       </c>
       <c r="X7" t="n">
-        <v>387.8762562145976</v>
+        <v>423.9519355685837</v>
       </c>
       <c r="Y7" t="n">
-        <v>390.0157236334722</v>
+        <v>428.167414518318</v>
       </c>
       <c r="Z7" t="n">
-        <v>392.1551910523468</v>
+        <v>432.3828934680522</v>
       </c>
       <c r="AA7" t="n">
-        <v>394.2946584712215</v>
+        <v>436.5983724177865</v>
       </c>
     </row>
     <row r="8">
@@ -7224,82 +6774,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.089405787914</v>
+        <v>83.62028977053652</v>
       </c>
       <c r="C8" t="n">
-        <v>125.0088511311932</v>
+        <v>95.6209850536296</v>
       </c>
       <c r="D8" t="n">
-        <v>130.9282964744724</v>
+        <v>107.6216803367227</v>
       </c>
       <c r="E8" t="n">
-        <v>136.8477418177517</v>
+        <v>119.6223756198158</v>
       </c>
       <c r="F8" t="n">
-        <v>142.7671871610308</v>
+        <v>131.6230709029089</v>
       </c>
       <c r="G8" t="n">
-        <v>148.6866325043101</v>
+        <v>143.6237661860019</v>
       </c>
       <c r="H8" t="n">
-        <v>154.6060778475893</v>
+        <v>155.624461469095</v>
       </c>
       <c r="I8" t="n">
-        <v>160.5255231908685</v>
+        <v>167.6251567521881</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4449685341477</v>
+        <v>179.6258520352812</v>
       </c>
       <c r="K8" t="n">
-        <v>172.364413877427</v>
+        <v>191.6265473183743</v>
       </c>
       <c r="L8" t="n">
-        <v>178.2838592207062</v>
+        <v>203.6272426014674</v>
       </c>
       <c r="M8" t="n">
-        <v>184.2033045639854</v>
+        <v>215.6279378845605</v>
       </c>
       <c r="N8" t="n">
-        <v>190.1227499072646</v>
+        <v>227.6286331676536</v>
       </c>
       <c r="O8" t="n">
-        <v>196.0421952505438</v>
+        <v>239.6293284507466</v>
       </c>
       <c r="P8" t="n">
-        <v>201.9616405938231</v>
+        <v>251.6300237338398</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.8810859371023</v>
+        <v>263.6307190169329</v>
       </c>
       <c r="R8" t="n">
-        <v>213.8005312803815</v>
+        <v>275.6314143000259</v>
       </c>
       <c r="S8" t="n">
-        <v>219.7199766236607</v>
+        <v>287.632109583119</v>
       </c>
       <c r="T8" t="n">
-        <v>225.6394219669399</v>
+        <v>299.6328048662121</v>
       </c>
       <c r="U8" t="n">
-        <v>231.5588673102191</v>
+        <v>311.6335001493052</v>
       </c>
       <c r="V8" t="n">
-        <v>237.4783126534984</v>
+        <v>323.6341954323983</v>
       </c>
       <c r="W8" t="n">
-        <v>243.3977579967776</v>
+        <v>335.6348907154913</v>
       </c>
       <c r="X8" t="n">
-        <v>249.3172033400568</v>
+        <v>347.6355859985845</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.236648683336</v>
+        <v>359.6362812816776</v>
       </c>
       <c r="Z8" t="n">
-        <v>261.1560940266153</v>
+        <v>371.6369765647706</v>
       </c>
       <c r="AA8" t="n">
-        <v>267.0755393698945</v>
+        <v>383.6376718478637</v>
       </c>
     </row>
     <row r="9">
@@ -7309,82 +6859,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>559.0879372833635</v>
+        <v>568.434323720231</v>
       </c>
       <c r="C9" t="n">
-        <v>565.3098797627169</v>
+        <v>572.3614033219785</v>
       </c>
       <c r="D9" t="n">
-        <v>571.5318222420702</v>
+        <v>576.2884829237261</v>
       </c>
       <c r="E9" t="n">
-        <v>577.7537647214236</v>
+        <v>580.2155625254736</v>
       </c>
       <c r="F9" t="n">
-        <v>583.9757072007769</v>
+        <v>584.1426421272211</v>
       </c>
       <c r="G9" t="n">
-        <v>590.1976496801303</v>
+        <v>588.0697217289686</v>
       </c>
       <c r="H9" t="n">
-        <v>596.4195921594836</v>
+        <v>591.9968013307162</v>
       </c>
       <c r="I9" t="n">
-        <v>602.641534638837</v>
+        <v>595.9238809324637</v>
       </c>
       <c r="J9" t="n">
-        <v>608.8634771181903</v>
+        <v>599.8509605342113</v>
       </c>
       <c r="K9" t="n">
-        <v>615.0854195975437</v>
+        <v>603.7780401359588</v>
       </c>
       <c r="L9" t="n">
-        <v>621.307362076897</v>
+        <v>607.7051197377064</v>
       </c>
       <c r="M9" t="n">
-        <v>627.5293045562504</v>
+        <v>611.6321993394539</v>
       </c>
       <c r="N9" t="n">
-        <v>633.7512470356037</v>
+        <v>615.5592789412015</v>
       </c>
       <c r="O9" t="n">
-        <v>639.9731895149571</v>
+        <v>619.486358542949</v>
       </c>
       <c r="P9" t="n">
-        <v>646.1951319943104</v>
+        <v>623.4134381446966</v>
       </c>
       <c r="Q9" t="n">
-        <v>652.4170744736637</v>
+        <v>627.340517746444</v>
       </c>
       <c r="R9" t="n">
-        <v>658.6390169530171</v>
+        <v>631.2675973481915</v>
       </c>
       <c r="S9" t="n">
-        <v>664.8609594323705</v>
+        <v>635.1946769499391</v>
       </c>
       <c r="T9" t="n">
-        <v>671.0829019117238</v>
+        <v>639.1217565516866</v>
       </c>
       <c r="U9" t="n">
-        <v>677.304844391077</v>
+        <v>643.0488361534342</v>
       </c>
       <c r="V9" t="n">
-        <v>683.5267868704304</v>
+        <v>646.9759157551817</v>
       </c>
       <c r="W9" t="n">
-        <v>689.7487293497837</v>
+        <v>650.9029953569293</v>
       </c>
       <c r="X9" t="n">
-        <v>695.9706718291371</v>
+        <v>654.8300749586768</v>
       </c>
       <c r="Y9" t="n">
-        <v>702.1926143084904</v>
+        <v>658.7571545604244</v>
       </c>
       <c r="Z9" t="n">
-        <v>708.4145567878438</v>
+        <v>662.6842341621718</v>
       </c>
       <c r="AA9" t="n">
-        <v>714.6364992671971</v>
+        <v>666.6113137639195</v>
       </c>
     </row>
     <row r="10">
@@ -7394,82 +6944,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>298.8422986492398</v>
+        <v>356.2681827674897</v>
       </c>
       <c r="C10" t="n">
-        <v>332.0375031598526</v>
+        <v>378.5826975348402</v>
       </c>
       <c r="D10" t="n">
-        <v>365.2327076704653</v>
+        <v>400.8972123021907</v>
       </c>
       <c r="E10" t="n">
-        <v>398.4279121810781</v>
+        <v>423.2117270695413</v>
       </c>
       <c r="F10" t="n">
-        <v>431.6231166916909</v>
+        <v>445.5262418368918</v>
       </c>
       <c r="G10" t="n">
-        <v>464.8183212023037</v>
+        <v>467.8407566042422</v>
       </c>
       <c r="H10" t="n">
-        <v>498.0135257129165</v>
+        <v>490.1552713715928</v>
       </c>
       <c r="I10" t="n">
-        <v>531.2087302235293</v>
+        <v>512.4697861389433</v>
       </c>
       <c r="J10" t="n">
-        <v>564.403934734142</v>
+        <v>534.7843009062938</v>
       </c>
       <c r="K10" t="n">
-        <v>597.5991392447547</v>
+        <v>557.0988156736443</v>
       </c>
       <c r="L10" t="n">
-        <v>630.7943437553677</v>
+        <v>579.4133304409947</v>
       </c>
       <c r="M10" t="n">
-        <v>663.9895482659804</v>
+        <v>601.7278452083452</v>
       </c>
       <c r="N10" t="n">
-        <v>697.1847527765931</v>
+        <v>624.0423599756957</v>
       </c>
       <c r="O10" t="n">
-        <v>730.379957287206</v>
+        <v>646.3568747430463</v>
       </c>
       <c r="P10" t="n">
-        <v>763.5751617978187</v>
+        <v>668.6713895103967</v>
       </c>
       <c r="Q10" t="n">
-        <v>796.7703663084314</v>
+        <v>690.9859042777473</v>
       </c>
       <c r="R10" t="n">
-        <v>829.9655708190444</v>
+        <v>713.3004190450977</v>
       </c>
       <c r="S10" t="n">
-        <v>863.1607753296571</v>
+        <v>735.6149338124483</v>
       </c>
       <c r="T10" t="n">
-        <v>896.3559798402698</v>
+        <v>757.9294485797988</v>
       </c>
       <c r="U10" t="n">
-        <v>929.5511843508825</v>
+        <v>780.2439633471492</v>
       </c>
       <c r="V10" t="n">
-        <v>962.7463888614955</v>
+        <v>802.5584781144997</v>
       </c>
       <c r="W10" t="n">
-        <v>995.9415933721082</v>
+        <v>824.8729928818502</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.136797882721</v>
+        <v>847.1875076492007</v>
       </c>
       <c r="Y10" t="n">
-        <v>1062.332002393334</v>
+        <v>869.5020224165512</v>
       </c>
       <c r="Z10" t="n">
-        <v>1095.527206903947</v>
+        <v>891.8165371839017</v>
       </c>
       <c r="AA10" t="n">
-        <v>1128.722411414559</v>
+        <v>914.1310519512522</v>
       </c>
     </row>
     <row r="11">
@@ -7479,82 +7029,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>859.505944765516</v>
+        <v>898.6689836832504</v>
       </c>
       <c r="C11" t="n">
-        <v>884.8247134463921</v>
+        <v>916.1568179421168</v>
       </c>
       <c r="D11" t="n">
-        <v>910.1434821272682</v>
+        <v>933.6446522009834</v>
       </c>
       <c r="E11" t="n">
-        <v>935.4622508081443</v>
+        <v>951.1324864598499</v>
       </c>
       <c r="F11" t="n">
-        <v>960.7810194890204</v>
+        <v>968.6203207187164</v>
       </c>
       <c r="G11" t="n">
-        <v>986.0997881698966</v>
+        <v>986.1081549775829</v>
       </c>
       <c r="H11" t="n">
-        <v>1011.418556850773</v>
+        <v>1003.595989236449</v>
       </c>
       <c r="I11" t="n">
-        <v>1036.737325531649</v>
+        <v>1021.083823495316</v>
       </c>
       <c r="J11" t="n">
-        <v>1062.056094212525</v>
+        <v>1038.571657754183</v>
       </c>
       <c r="K11" t="n">
-        <v>1087.374862893401</v>
+        <v>1056.059492013049</v>
       </c>
       <c r="L11" t="n">
-        <v>1112.693631574277</v>
+        <v>1073.547326271915</v>
       </c>
       <c r="M11" t="n">
-        <v>1138.012400255153</v>
+        <v>1091.035160530782</v>
       </c>
       <c r="N11" t="n">
-        <v>1163.331168936029</v>
+        <v>1108.522994789648</v>
       </c>
       <c r="O11" t="n">
-        <v>1188.649937616905</v>
+        <v>1126.010829048515</v>
       </c>
       <c r="P11" t="n">
-        <v>1213.968706297781</v>
+        <v>1143.498663307381</v>
       </c>
       <c r="Q11" t="n">
-        <v>1239.287474978658</v>
+        <v>1160.986497566248</v>
       </c>
       <c r="R11" t="n">
-        <v>1264.606243659534</v>
+        <v>1178.474331825114</v>
       </c>
       <c r="S11" t="n">
-        <v>1289.92501234041</v>
+        <v>1195.962166083981</v>
       </c>
       <c r="T11" t="n">
-        <v>1315.243781021286</v>
+        <v>1213.450000342847</v>
       </c>
       <c r="U11" t="n">
-        <v>1340.562549702162</v>
+        <v>1230.937834601714</v>
       </c>
       <c r="V11" t="n">
-        <v>1365.881318383038</v>
+        <v>1248.425668860581</v>
       </c>
       <c r="W11" t="n">
-        <v>1391.200087063914</v>
+        <v>1265.913503119447</v>
       </c>
       <c r="X11" t="n">
-        <v>1416.51885574479</v>
+        <v>1283.401337378313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1441.837624425666</v>
+        <v>1300.88917163718</v>
       </c>
       <c r="Z11" t="n">
-        <v>1467.156393106543</v>
+        <v>1318.377005896047</v>
       </c>
       <c r="AA11" t="n">
-        <v>1492.475161787419</v>
+        <v>1335.864840154913</v>
       </c>
     </row>
     <row r="12">
@@ -7564,82 +7114,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>260.9362739503879</v>
+        <v>262.4402599909038</v>
       </c>
       <c r="C12" t="n">
-        <v>249.8217445414355</v>
+        <v>250.8050184985683</v>
       </c>
       <c r="D12" t="n">
-        <v>238.7072151324832</v>
+        <v>239.1697770062329</v>
       </c>
       <c r="E12" t="n">
-        <v>227.5926857235308</v>
+        <v>227.5345355138974</v>
       </c>
       <c r="F12" t="n">
-        <v>216.4781563145784</v>
+        <v>215.8992940215619</v>
       </c>
       <c r="G12" t="n">
-        <v>205.3636269056261</v>
+        <v>204.2640525292264</v>
       </c>
       <c r="H12" t="n">
-        <v>194.2490974966737</v>
+        <v>192.628811036891</v>
       </c>
       <c r="I12" t="n">
-        <v>183.1345680877213</v>
+        <v>180.9935695445555</v>
       </c>
       <c r="J12" t="n">
-        <v>172.020038678769</v>
+        <v>169.35832805222</v>
       </c>
       <c r="K12" t="n">
-        <v>160.9055092698166</v>
+        <v>157.7230865598845</v>
       </c>
       <c r="L12" t="n">
-        <v>149.7909798608642</v>
+        <v>146.087845067549</v>
       </c>
       <c r="M12" t="n">
-        <v>138.6764504519118</v>
+        <v>134.4526035752136</v>
       </c>
       <c r="N12" t="n">
-        <v>127.5619210429595</v>
+        <v>122.8173620828781</v>
       </c>
       <c r="O12" t="n">
-        <v>116.4473916340071</v>
+        <v>111.1821205905426</v>
       </c>
       <c r="P12" t="n">
-        <v>105.3328622250548</v>
+        <v>99.54687909820711</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.21833281610239</v>
+        <v>87.91163760587165</v>
       </c>
       <c r="R12" t="n">
-        <v>83.10380340715002</v>
+        <v>76.27639611353618</v>
       </c>
       <c r="S12" t="n">
-        <v>71.98927399819766</v>
+        <v>64.64115462120068</v>
       </c>
       <c r="T12" t="n">
-        <v>60.8747445892453</v>
+        <v>53.00591312886522</v>
       </c>
       <c r="U12" t="n">
-        <v>49.76021518029293</v>
+        <v>41.37067163652972</v>
       </c>
       <c r="V12" t="n">
-        <v>38.64568577134057</v>
+        <v>29.73543014419425</v>
       </c>
       <c r="W12" t="n">
-        <v>27.5311563623882</v>
+        <v>18.10018865185879</v>
       </c>
       <c r="X12" t="n">
-        <v>16.41662695343584</v>
+        <v>6.464947159523319</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.302097544483445</v>
+        <v>-5.170294332812148</v>
       </c>
       <c r="Z12" t="n">
-        <v>-5.81243186446892</v>
+        <v>-16.80553582514767</v>
       </c>
       <c r="AA12" t="n">
-        <v>-16.92696127342128</v>
+        <v>-28.44077731748314</v>
       </c>
     </row>
     <row r="13">
@@ -7649,82 +7199,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.54072342487312</v>
+        <v>16.80779200529318</v>
       </c>
       <c r="C13" t="n">
-        <v>17.0136619528273</v>
+        <v>18.01908912120051</v>
       </c>
       <c r="D13" t="n">
-        <v>18.48660048078148</v>
+        <v>19.23038623710784</v>
       </c>
       <c r="E13" t="n">
-        <v>19.95953900873565</v>
+        <v>20.44168335301518</v>
       </c>
       <c r="F13" t="n">
-        <v>21.43247753668983</v>
+        <v>21.65298046892251</v>
       </c>
       <c r="G13" t="n">
-        <v>22.905416064644</v>
+        <v>22.86427758482984</v>
       </c>
       <c r="H13" t="n">
-        <v>24.37835459259818</v>
+        <v>24.07557470073717</v>
       </c>
       <c r="I13" t="n">
-        <v>25.85129312055236</v>
+        <v>25.28687181664451</v>
       </c>
       <c r="J13" t="n">
-        <v>27.32423164850653</v>
+        <v>26.49816893255183</v>
       </c>
       <c r="K13" t="n">
-        <v>28.7971701764607</v>
+        <v>27.70946604845917</v>
       </c>
       <c r="L13" t="n">
-        <v>30.27010870441488</v>
+        <v>28.9207631643665</v>
       </c>
       <c r="M13" t="n">
-        <v>31.74304723236906</v>
+        <v>30.13206028027383</v>
       </c>
       <c r="N13" t="n">
-        <v>33.21598576032324</v>
+        <v>31.34335739618117</v>
       </c>
       <c r="O13" t="n">
-        <v>34.68892428827741</v>
+        <v>32.5546545120885</v>
       </c>
       <c r="P13" t="n">
-        <v>36.16186281623158</v>
+        <v>33.76595162799583</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.63480134418576</v>
+        <v>34.97724874390316</v>
       </c>
       <c r="R13" t="n">
-        <v>39.10773987213994</v>
+        <v>36.1885458598105</v>
       </c>
       <c r="S13" t="n">
-        <v>40.58067840009411</v>
+        <v>37.39984297571783</v>
       </c>
       <c r="T13" t="n">
-        <v>42.05361692804829</v>
+        <v>38.61114009162516</v>
       </c>
       <c r="U13" t="n">
-        <v>43.52655545600246</v>
+        <v>39.8224372075325</v>
       </c>
       <c r="V13" t="n">
-        <v>44.99949398395664</v>
+        <v>41.03373432343983</v>
       </c>
       <c r="W13" t="n">
-        <v>46.47243251191081</v>
+        <v>42.24503143934716</v>
       </c>
       <c r="X13" t="n">
-        <v>47.94537103986499</v>
+        <v>43.45632855525449</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.41830956781916</v>
+        <v>44.66762567116182</v>
       </c>
       <c r="Z13" t="n">
-        <v>50.89124809577334</v>
+        <v>45.87892278706916</v>
       </c>
       <c r="AA13" t="n">
-        <v>52.36418662372752</v>
+        <v>47.09021990297649</v>
       </c>
     </row>
     <row r="14">
@@ -7734,82 +7284,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.4667103665003</v>
+        <v>465.3662073764796</v>
       </c>
       <c r="C14" t="n">
-        <v>460.0364455276376</v>
+        <v>499.5376678132669</v>
       </c>
       <c r="D14" t="n">
-        <v>504.6061806887749</v>
+        <v>533.7091282500542</v>
       </c>
       <c r="E14" t="n">
-        <v>549.1759158499121</v>
+        <v>567.8805886868415</v>
       </c>
       <c r="F14" t="n">
-        <v>593.7456510110494</v>
+        <v>602.0520491236289</v>
       </c>
       <c r="G14" t="n">
-        <v>638.3153861721867</v>
+        <v>636.2235095604162</v>
       </c>
       <c r="H14" t="n">
-        <v>682.8851213333239</v>
+        <v>670.3949699972035</v>
       </c>
       <c r="I14" t="n">
-        <v>727.4548564944612</v>
+        <v>704.5664304339908</v>
       </c>
       <c r="J14" t="n">
-        <v>772.0245916555984</v>
+        <v>738.7378908707781</v>
       </c>
       <c r="K14" t="n">
-        <v>816.5943268167357</v>
+        <v>772.9093513075654</v>
       </c>
       <c r="L14" t="n">
-        <v>861.164061977873</v>
+        <v>807.0808117443528</v>
       </c>
       <c r="M14" t="n">
-        <v>905.7337971390102</v>
+        <v>841.2522721811401</v>
       </c>
       <c r="N14" t="n">
-        <v>950.3035323001475</v>
+        <v>875.4237326179275</v>
       </c>
       <c r="O14" t="n">
-        <v>994.8732674612847</v>
+        <v>909.5951930547147</v>
       </c>
       <c r="P14" t="n">
-        <v>1039.443002622422</v>
+        <v>943.766653491502</v>
       </c>
       <c r="Q14" t="n">
-        <v>1084.012737783559</v>
+        <v>977.9381139282893</v>
       </c>
       <c r="R14" t="n">
-        <v>1128.582472944697</v>
+        <v>1012.109574365077</v>
       </c>
       <c r="S14" t="n">
-        <v>1173.152208105834</v>
+        <v>1046.281034801864</v>
       </c>
       <c r="T14" t="n">
-        <v>1217.721943266971</v>
+        <v>1080.452495238651</v>
       </c>
       <c r="U14" t="n">
-        <v>1262.291678428108</v>
+        <v>1114.623955675439</v>
       </c>
       <c r="V14" t="n">
-        <v>1306.861413589246</v>
+        <v>1148.795416112226</v>
       </c>
       <c r="W14" t="n">
-        <v>1351.431148750383</v>
+        <v>1182.966876549013</v>
       </c>
       <c r="X14" t="n">
-        <v>1396.00088391152</v>
+        <v>1217.138336985801</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.570619072658</v>
+        <v>1251.309797422588</v>
       </c>
       <c r="Z14" t="n">
-        <v>1485.140354233795</v>
+        <v>1285.481257859375</v>
       </c>
       <c r="AA14" t="n">
-        <v>1529.710089394932</v>
+        <v>1319.652718296163</v>
       </c>
     </row>
     <row r="15">
@@ -7819,82 +7369,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>729.2373336630202</v>
+        <v>762.9108745353778</v>
       </c>
       <c r="C15" t="n">
-        <v>806.2544490409553</v>
+        <v>831.7444807512639</v>
       </c>
       <c r="D15" t="n">
-        <v>883.2715644188902</v>
+        <v>900.5780869671501</v>
       </c>
       <c r="E15" t="n">
-        <v>960.2886797968252</v>
+        <v>969.4116931830362</v>
       </c>
       <c r="F15" t="n">
-        <v>1037.30579517476</v>
+        <v>1038.245299398922</v>
       </c>
       <c r="G15" t="n">
-        <v>1114.322910552695</v>
+        <v>1107.078905614808</v>
       </c>
       <c r="H15" t="n">
-        <v>1191.34002593063</v>
+        <v>1175.912511830694</v>
       </c>
       <c r="I15" t="n">
-        <v>1268.357141308565</v>
+        <v>1244.746118046581</v>
       </c>
       <c r="J15" t="n">
-        <v>1345.3742566865</v>
+        <v>1313.579724262467</v>
       </c>
       <c r="K15" t="n">
-        <v>1422.391372064435</v>
+        <v>1382.413330478353</v>
       </c>
       <c r="L15" t="n">
-        <v>1499.40848744237</v>
+        <v>1451.246936694239</v>
       </c>
       <c r="M15" t="n">
-        <v>1576.425602820305</v>
+        <v>1520.080542910125</v>
       </c>
       <c r="N15" t="n">
-        <v>1653.442718198241</v>
+        <v>1588.914149126011</v>
       </c>
       <c r="O15" t="n">
-        <v>1730.459833576175</v>
+        <v>1657.747755341897</v>
       </c>
       <c r="P15" t="n">
-        <v>1807.476948954111</v>
+        <v>1726.581361557784</v>
       </c>
       <c r="Q15" t="n">
-        <v>1884.494064332046</v>
+        <v>1795.41496777367</v>
       </c>
       <c r="R15" t="n">
-        <v>1961.511179709981</v>
+        <v>1864.248573989556</v>
       </c>
       <c r="S15" t="n">
-        <v>2038.528295087916</v>
+        <v>1933.082180205442</v>
       </c>
       <c r="T15" t="n">
-        <v>2115.545410465851</v>
+        <v>2001.915786421328</v>
       </c>
       <c r="U15" t="n">
-        <v>2192.562525843786</v>
+        <v>2070.749392637214</v>
       </c>
       <c r="V15" t="n">
-        <v>2269.579641221721</v>
+        <v>2139.5829988531</v>
       </c>
       <c r="W15" t="n">
-        <v>2346.596756599656</v>
+        <v>2208.416605068986</v>
       </c>
       <c r="X15" t="n">
-        <v>2423.613871977591</v>
+        <v>2277.250211284872</v>
       </c>
       <c r="Y15" t="n">
-        <v>2500.630987355526</v>
+        <v>2346.083817500758</v>
       </c>
       <c r="Z15" t="n">
-        <v>2577.648102733461</v>
+        <v>2414.917423716644</v>
       </c>
       <c r="AA15" t="n">
-        <v>2654.665218111396</v>
+        <v>2483.75102993253</v>
       </c>
     </row>
     <row r="16">
@@ -7904,82 +7454,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.076831994671</v>
+        <v>1035.481274782512</v>
       </c>
       <c r="C16" t="n">
-        <v>1195.891450705599</v>
+        <v>1151.461730788727</v>
       </c>
       <c r="D16" t="n">
-        <v>1301.706069416527</v>
+        <v>1267.442186794942</v>
       </c>
       <c r="E16" t="n">
-        <v>1407.520688127454</v>
+        <v>1383.422642801157</v>
       </c>
       <c r="F16" t="n">
-        <v>1513.335306838382</v>
+        <v>1499.403098807372</v>
       </c>
       <c r="G16" t="n">
-        <v>1619.14992554931</v>
+        <v>1615.383554813587</v>
       </c>
       <c r="H16" t="n">
-        <v>1724.964544260238</v>
+        <v>1731.364010819802</v>
       </c>
       <c r="I16" t="n">
-        <v>1830.779162971165</v>
+        <v>1847.344466826017</v>
       </c>
       <c r="J16" t="n">
-        <v>1936.593781682093</v>
+        <v>1963.324922832232</v>
       </c>
       <c r="K16" t="n">
-        <v>2042.408400393021</v>
+        <v>2079.305378838446</v>
       </c>
       <c r="L16" t="n">
-        <v>2148.223019103948</v>
+        <v>2195.285834844661</v>
       </c>
       <c r="M16" t="n">
-        <v>2254.037637814876</v>
+        <v>2311.266290850876</v>
       </c>
       <c r="N16" t="n">
-        <v>2359.852256525804</v>
+        <v>2427.246746857091</v>
       </c>
       <c r="O16" t="n">
-        <v>2465.666875236732</v>
+        <v>2543.227202863306</v>
       </c>
       <c r="P16" t="n">
-        <v>2571.481493947659</v>
+        <v>2659.207658869521</v>
       </c>
       <c r="Q16" t="n">
-        <v>2677.296112658587</v>
+        <v>2775.188114875736</v>
       </c>
       <c r="R16" t="n">
-        <v>2783.110731369515</v>
+        <v>2891.16857088195</v>
       </c>
       <c r="S16" t="n">
-        <v>2888.925350080443</v>
+        <v>3007.149026888165</v>
       </c>
       <c r="T16" t="n">
-        <v>2994.73996879137</v>
+        <v>3123.129482894381</v>
       </c>
       <c r="U16" t="n">
-        <v>3100.554587502298</v>
+        <v>3239.109938900595</v>
       </c>
       <c r="V16" t="n">
-        <v>3206.369206213226</v>
+        <v>3355.09039490681</v>
       </c>
       <c r="W16" t="n">
-        <v>3312.183824924154</v>
+        <v>3471.070850913025</v>
       </c>
       <c r="X16" t="n">
-        <v>3417.998443635081</v>
+        <v>3587.05130691924</v>
       </c>
       <c r="Y16" t="n">
-        <v>3523.813062346009</v>
+        <v>3703.031762925455</v>
       </c>
       <c r="Z16" t="n">
-        <v>3629.627681056937</v>
+        <v>3819.01221893167</v>
       </c>
       <c r="AA16" t="n">
-        <v>3735.442299767864</v>
+        <v>3934.992674937885</v>
       </c>
     </row>
     <row r="17">
@@ -7989,82 +7539,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2370.472601737593</v>
+        <v>2347.492059577835</v>
       </c>
       <c r="C17" t="n">
-        <v>2417.45138981936</v>
+        <v>2399.165906640294</v>
       </c>
       <c r="D17" t="n">
-        <v>2464.430177901125</v>
+        <v>2450.839753702754</v>
       </c>
       <c r="E17" t="n">
-        <v>2511.408965982891</v>
+        <v>2502.513600765213</v>
       </c>
       <c r="F17" t="n">
-        <v>2558.387754064657</v>
+        <v>2554.187447827672</v>
       </c>
       <c r="G17" t="n">
-        <v>2605.366542146423</v>
+        <v>2605.861294890132</v>
       </c>
       <c r="H17" t="n">
-        <v>2652.345330228189</v>
+        <v>2657.535141952591</v>
       </c>
       <c r="I17" t="n">
-        <v>2699.324118309955</v>
+        <v>2709.208989015051</v>
       </c>
       <c r="J17" t="n">
-        <v>2746.302906391721</v>
+        <v>2760.88283607751</v>
       </c>
       <c r="K17" t="n">
-        <v>2793.281694473487</v>
+        <v>2812.556683139969</v>
       </c>
       <c r="L17" t="n">
-        <v>2840.260482555253</v>
+        <v>2864.230530202429</v>
       </c>
       <c r="M17" t="n">
-        <v>2887.239270637019</v>
+        <v>2915.904377264888</v>
       </c>
       <c r="N17" t="n">
-        <v>2934.218058718785</v>
+        <v>2967.578224327347</v>
       </c>
       <c r="O17" t="n">
-        <v>2981.196846800551</v>
+        <v>3019.252071389807</v>
       </c>
       <c r="P17" t="n">
-        <v>3028.175634882316</v>
+        <v>3070.925918452266</v>
       </c>
       <c r="Q17" t="n">
-        <v>3075.154422964082</v>
+        <v>3122.599765514726</v>
       </c>
       <c r="R17" t="n">
-        <v>3122.133211045848</v>
+        <v>3174.273612577185</v>
       </c>
       <c r="S17" t="n">
-        <v>3169.111999127614</v>
+        <v>3225.947459639644</v>
       </c>
       <c r="T17" t="n">
-        <v>3216.09078720938</v>
+        <v>3277.621306702104</v>
       </c>
       <c r="U17" t="n">
-        <v>3263.069575291146</v>
+        <v>3329.295153764563</v>
       </c>
       <c r="V17" t="n">
-        <v>3310.048363372912</v>
+        <v>3380.969000827023</v>
       </c>
       <c r="W17" t="n">
-        <v>3357.027151454678</v>
+        <v>3432.642847889482</v>
       </c>
       <c r="X17" t="n">
-        <v>3404.005939536444</v>
+        <v>3484.316694951941</v>
       </c>
       <c r="Y17" t="n">
-        <v>3450.98472761821</v>
+        <v>3535.9905420144</v>
       </c>
       <c r="Z17" t="n">
-        <v>3497.963515699976</v>
+        <v>3587.66438907686</v>
       </c>
       <c r="AA17" t="n">
-        <v>3544.942303781741</v>
+        <v>3639.33823613932</v>
       </c>
     </row>
     <row r="18">
@@ -8074,82 +7624,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2837.040143592875</v>
+        <v>2844.030721164218</v>
       </c>
       <c r="C18" t="n">
-        <v>2885.957574493551</v>
+        <v>2890.987099052722</v>
       </c>
       <c r="D18" t="n">
-        <v>2934.875005394226</v>
+        <v>2937.943476941227</v>
       </c>
       <c r="E18" t="n">
-        <v>2983.792436294902</v>
+        <v>2984.899854829731</v>
       </c>
       <c r="F18" t="n">
-        <v>3032.709867195577</v>
+        <v>3031.856232718236</v>
       </c>
       <c r="G18" t="n">
-        <v>3081.627298096253</v>
+        <v>3078.812610606741</v>
       </c>
       <c r="H18" t="n">
-        <v>3130.544728996928</v>
+        <v>3125.768988495245</v>
       </c>
       <c r="I18" t="n">
-        <v>3179.462159897604</v>
+        <v>3172.72536638375</v>
       </c>
       <c r="J18" t="n">
-        <v>3228.379590798279</v>
+        <v>3219.681744272254</v>
       </c>
       <c r="K18" t="n">
-        <v>3277.297021698955</v>
+        <v>3266.638122160759</v>
       </c>
       <c r="L18" t="n">
-        <v>3326.21445259963</v>
+        <v>3313.594500049263</v>
       </c>
       <c r="M18" t="n">
-        <v>3375.131883500306</v>
+        <v>3360.550877937768</v>
       </c>
       <c r="N18" t="n">
-        <v>3424.049314400982</v>
+        <v>3407.507255826273</v>
       </c>
       <c r="O18" t="n">
-        <v>3472.966745301657</v>
+        <v>3454.463633714777</v>
       </c>
       <c r="P18" t="n">
-        <v>3521.884176202333</v>
+        <v>3501.420011603282</v>
       </c>
       <c r="Q18" t="n">
-        <v>3570.801607103008</v>
+        <v>3548.376389491787</v>
       </c>
       <c r="R18" t="n">
-        <v>3619.719038003684</v>
+        <v>3595.332767380291</v>
       </c>
       <c r="S18" t="n">
-        <v>3668.636468904359</v>
+        <v>3642.289145268795</v>
       </c>
       <c r="T18" t="n">
-        <v>3717.553899805035</v>
+        <v>3689.2455231573</v>
       </c>
       <c r="U18" t="n">
-        <v>3766.47133070571</v>
+        <v>3736.201901045805</v>
       </c>
       <c r="V18" t="n">
-        <v>3815.388761606386</v>
+        <v>3783.158278934309</v>
       </c>
       <c r="W18" t="n">
-        <v>3864.306192507061</v>
+        <v>3830.114656822814</v>
       </c>
       <c r="X18" t="n">
-        <v>3913.223623407737</v>
+        <v>3877.071034711319</v>
       </c>
       <c r="Y18" t="n">
-        <v>3962.141054308413</v>
+        <v>3924.027412599823</v>
       </c>
       <c r="Z18" t="n">
-        <v>4011.058485209088</v>
+        <v>3970.983790488328</v>
       </c>
       <c r="AA18" t="n">
-        <v>4059.975916109764</v>
+        <v>4017.940168376832</v>
       </c>
     </row>
     <row r="19">
@@ -8159,82 +7709,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3714.502841012446</v>
+        <v>3620.529085074359</v>
       </c>
       <c r="C19" t="n">
-        <v>3726.847501242607</v>
+        <v>3640.986382994409</v>
       </c>
       <c r="D19" t="n">
-        <v>3739.192161472768</v>
+        <v>3661.443680914459</v>
       </c>
       <c r="E19" t="n">
-        <v>3751.53682170293</v>
+        <v>3681.900978834509</v>
       </c>
       <c r="F19" t="n">
-        <v>3763.881481933091</v>
+        <v>3702.358276754559</v>
       </c>
       <c r="G19" t="n">
-        <v>3776.226142163253</v>
+        <v>3722.815574674609</v>
       </c>
       <c r="H19" t="n">
-        <v>3788.570802393414</v>
+        <v>3743.272872594659</v>
       </c>
       <c r="I19" t="n">
-        <v>3800.915462623576</v>
+        <v>3763.730170514709</v>
       </c>
       <c r="J19" t="n">
-        <v>3813.260122853737</v>
+        <v>3784.187468434759</v>
       </c>
       <c r="K19" t="n">
-        <v>3825.604783083899</v>
+        <v>3804.64476635481</v>
       </c>
       <c r="L19" t="n">
-        <v>3837.94944331406</v>
+        <v>3825.10206427486</v>
       </c>
       <c r="M19" t="n">
-        <v>3850.294103544222</v>
+        <v>3845.55936219491</v>
       </c>
       <c r="N19" t="n">
-        <v>3862.638763774383</v>
+        <v>3866.01666011496</v>
       </c>
       <c r="O19" t="n">
-        <v>3874.983424004545</v>
+        <v>3886.47395803501</v>
       </c>
       <c r="P19" t="n">
-        <v>3887.328084234706</v>
+        <v>3906.93125595506</v>
       </c>
       <c r="Q19" t="n">
-        <v>3899.672744464868</v>
+        <v>3927.38855387511</v>
       </c>
       <c r="R19" t="n">
-        <v>3912.017404695029</v>
+        <v>3947.84585179516</v>
       </c>
       <c r="S19" t="n">
-        <v>3924.362064925191</v>
+        <v>3968.303149715211</v>
       </c>
       <c r="T19" t="n">
-        <v>3936.706725155352</v>
+        <v>3988.760447635261</v>
       </c>
       <c r="U19" t="n">
-        <v>3949.051385385514</v>
+        <v>4009.217745555311</v>
       </c>
       <c r="V19" t="n">
-        <v>3961.396045615675</v>
+        <v>4029.675043475361</v>
       </c>
       <c r="W19" t="n">
-        <v>3973.740705845837</v>
+        <v>4050.132341395411</v>
       </c>
       <c r="X19" t="n">
-        <v>3986.085366075998</v>
+        <v>4070.589639315461</v>
       </c>
       <c r="Y19" t="n">
-        <v>3998.43002630616</v>
+        <v>4091.046937235511</v>
       </c>
       <c r="Z19" t="n">
-        <v>4010.774686536321</v>
+        <v>4111.504235155561</v>
       </c>
       <c r="AA19" t="n">
-        <v>4023.119346766483</v>
+        <v>4131.961533075611</v>
       </c>
     </row>
     <row r="20">
@@ -8244,82 +7794,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2959.354878301695</v>
+        <v>2979.270786390584</v>
       </c>
       <c r="C20" t="n">
-        <v>2970.859279471271</v>
+        <v>2986.293027672662</v>
       </c>
       <c r="D20" t="n">
-        <v>2982.363680640846</v>
+        <v>2993.315268954739</v>
       </c>
       <c r="E20" t="n">
-        <v>2993.868081810421</v>
+        <v>3000.337510236816</v>
       </c>
       <c r="F20" t="n">
-        <v>3005.372482979996</v>
+        <v>3007.359751518894</v>
       </c>
       <c r="G20" t="n">
-        <v>3016.876884149571</v>
+        <v>3014.381992800972</v>
       </c>
       <c r="H20" t="n">
-        <v>3028.381285319146</v>
+        <v>3021.404234083049</v>
       </c>
       <c r="I20" t="n">
-        <v>3039.885686488722</v>
+        <v>3028.426475365126</v>
       </c>
       <c r="J20" t="n">
-        <v>3051.390087658297</v>
+        <v>3035.448716647204</v>
       </c>
       <c r="K20" t="n">
-        <v>3062.894488827872</v>
+        <v>3042.470957929281</v>
       </c>
       <c r="L20" t="n">
-        <v>3074.398889997447</v>
+        <v>3049.493199211359</v>
       </c>
       <c r="M20" t="n">
-        <v>3085.903291167022</v>
+        <v>3056.515440493436</v>
       </c>
       <c r="N20" t="n">
-        <v>3097.407692336597</v>
+        <v>3063.537681775514</v>
       </c>
       <c r="O20" t="n">
-        <v>3108.912093506172</v>
+        <v>3070.559923057591</v>
       </c>
       <c r="P20" t="n">
-        <v>3120.416494675747</v>
+        <v>3077.582164339668</v>
       </c>
       <c r="Q20" t="n">
-        <v>3131.920895845322</v>
+        <v>3084.604405621746</v>
       </c>
       <c r="R20" t="n">
-        <v>3143.425297014897</v>
+        <v>3091.626646903824</v>
       </c>
       <c r="S20" t="n">
-        <v>3154.929698184473</v>
+        <v>3098.648888185901</v>
       </c>
       <c r="T20" t="n">
-        <v>3166.434099354048</v>
+        <v>3105.671129467979</v>
       </c>
       <c r="U20" t="n">
-        <v>3177.938500523623</v>
+        <v>3112.693370750056</v>
       </c>
       <c r="V20" t="n">
-        <v>3189.442901693198</v>
+        <v>3119.715612032133</v>
       </c>
       <c r="W20" t="n">
-        <v>3200.947302862773</v>
+        <v>3126.737853314211</v>
       </c>
       <c r="X20" t="n">
-        <v>3212.451704032348</v>
+        <v>3133.760094596288</v>
       </c>
       <c r="Y20" t="n">
-        <v>3223.956105201923</v>
+        <v>3140.782335878366</v>
       </c>
       <c r="Z20" t="n">
-        <v>3235.460506371498</v>
+        <v>3147.804577160443</v>
       </c>
       <c r="AA20" t="n">
-        <v>3246.964907541073</v>
+        <v>3154.826818442521</v>
       </c>
     </row>
     <row r="21">
@@ -8329,82 +7879,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1340.862340076124</v>
+        <v>1347.508699295857</v>
       </c>
       <c r="C21" t="n">
-        <v>1359.3563992378</v>
+        <v>1364.613417786124</v>
       </c>
       <c r="D21" t="n">
-        <v>1377.850458399476</v>
+        <v>1381.718136276391</v>
       </c>
       <c r="E21" t="n">
-        <v>1396.344517561153</v>
+        <v>1398.822854766657</v>
       </c>
       <c r="F21" t="n">
-        <v>1414.838576722829</v>
+        <v>1415.927573256924</v>
       </c>
       <c r="G21" t="n">
-        <v>1433.332635884505</v>
+        <v>1433.032291747191</v>
       </c>
       <c r="H21" t="n">
-        <v>1451.826695046181</v>
+        <v>1450.137010237457</v>
       </c>
       <c r="I21" t="n">
-        <v>1470.320754207857</v>
+        <v>1467.241728727724</v>
       </c>
       <c r="J21" t="n">
-        <v>1488.814813369533</v>
+        <v>1484.346447217991</v>
       </c>
       <c r="K21" t="n">
-        <v>1507.30887253121</v>
+        <v>1501.451165708257</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.802931692886</v>
+        <v>1518.555884198524</v>
       </c>
       <c r="M21" t="n">
-        <v>1544.296990854562</v>
+        <v>1535.660602688791</v>
       </c>
       <c r="N21" t="n">
-        <v>1562.791050016238</v>
+        <v>1552.765321179057</v>
       </c>
       <c r="O21" t="n">
-        <v>1581.285109177914</v>
+        <v>1569.870039669324</v>
       </c>
       <c r="P21" t="n">
-        <v>1599.77916833959</v>
+        <v>1586.97475815959</v>
       </c>
       <c r="Q21" t="n">
-        <v>1618.273227501266</v>
+        <v>1604.079476649857</v>
       </c>
       <c r="R21" t="n">
-        <v>1636.767286662943</v>
+        <v>1621.184195140124</v>
       </c>
       <c r="S21" t="n">
-        <v>1655.261345824619</v>
+        <v>1638.28891363039</v>
       </c>
       <c r="T21" t="n">
-        <v>1673.755404986295</v>
+        <v>1655.393632120657</v>
       </c>
       <c r="U21" t="n">
-        <v>1692.249464147971</v>
+        <v>1672.498350610924</v>
       </c>
       <c r="V21" t="n">
-        <v>1710.743523309647</v>
+        <v>1689.60306910119</v>
       </c>
       <c r="W21" t="n">
-        <v>1729.237582471323</v>
+        <v>1706.707787591457</v>
       </c>
       <c r="X21" t="n">
-        <v>1747.731641632999</v>
+        <v>1723.812506081724</v>
       </c>
       <c r="Y21" t="n">
-        <v>1766.225700794676</v>
+        <v>1740.91722457199</v>
       </c>
       <c r="Z21" t="n">
-        <v>1784.719759956352</v>
+        <v>1758.021943062257</v>
       </c>
       <c r="AA21" t="n">
-        <v>1803.213819118028</v>
+        <v>1775.126661552524</v>
       </c>
     </row>
     <row r="22">
@@ -8414,82 +7964,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>587.7850424408772</v>
+        <v>584.3598469127214</v>
       </c>
       <c r="C22" t="n">
-        <v>602.1386836355153</v>
+        <v>598.080264009256</v>
       </c>
       <c r="D22" t="n">
-        <v>616.4923248301534</v>
+        <v>611.8006811057907</v>
       </c>
       <c r="E22" t="n">
-        <v>630.8459660247914</v>
+        <v>625.5210982023253</v>
       </c>
       <c r="F22" t="n">
-        <v>645.1996072194296</v>
+        <v>639.2415152988599</v>
       </c>
       <c r="G22" t="n">
-        <v>659.5532484140676</v>
+        <v>652.9619323953946</v>
       </c>
       <c r="H22" t="n">
-        <v>673.9068896087057</v>
+        <v>666.6823494919292</v>
       </c>
       <c r="I22" t="n">
-        <v>688.2605308033438</v>
+        <v>680.4027665884638</v>
       </c>
       <c r="J22" t="n">
-        <v>702.6141719979819</v>
+        <v>694.1231836849985</v>
       </c>
       <c r="K22" t="n">
-        <v>716.9678131926199</v>
+        <v>707.843600781533</v>
       </c>
       <c r="L22" t="n">
-        <v>731.321454387258</v>
+        <v>721.5640178780677</v>
       </c>
       <c r="M22" t="n">
-        <v>745.6750955818961</v>
+        <v>735.2844349746024</v>
       </c>
       <c r="N22" t="n">
-        <v>760.0287367765342</v>
+        <v>749.0048520711371</v>
       </c>
       <c r="O22" t="n">
-        <v>774.3823779711722</v>
+        <v>762.7252691676716</v>
       </c>
       <c r="P22" t="n">
-        <v>788.7360191658104</v>
+        <v>776.4456862642063</v>
       </c>
       <c r="Q22" t="n">
-        <v>803.0896603604484</v>
+        <v>790.1661033607409</v>
       </c>
       <c r="R22" t="n">
-        <v>817.4433015550865</v>
+        <v>803.8865204572755</v>
       </c>
       <c r="S22" t="n">
-        <v>831.7969427497246</v>
+        <v>817.6069375538102</v>
       </c>
       <c r="T22" t="n">
-        <v>846.1505839443627</v>
+        <v>831.3273546503449</v>
       </c>
       <c r="U22" t="n">
-        <v>860.5042251390007</v>
+        <v>845.0477717468794</v>
       </c>
       <c r="V22" t="n">
-        <v>874.8578663336389</v>
+        <v>858.7681888434141</v>
       </c>
       <c r="W22" t="n">
-        <v>889.2115075282769</v>
+        <v>872.4886059399487</v>
       </c>
       <c r="X22" t="n">
-        <v>903.565148722915</v>
+        <v>886.2090230364834</v>
       </c>
       <c r="Y22" t="n">
-        <v>917.9187899175531</v>
+        <v>899.929440133018</v>
       </c>
       <c r="Z22" t="n">
-        <v>932.2724311121912</v>
+        <v>913.6498572295527</v>
       </c>
       <c r="AA22" t="n">
-        <v>946.6260723068292</v>
+        <v>927.3702743260873</v>
       </c>
     </row>
     <row r="23">
@@ -8499,82 +8049,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2352.861058397035</v>
+        <v>2375.751121527254</v>
       </c>
       <c r="C23" t="n">
-        <v>2132.083709810177</v>
+        <v>2148.835809513266</v>
       </c>
       <c r="D23" t="n">
-        <v>1911.30636122332</v>
+        <v>1921.920497499277</v>
       </c>
       <c r="E23" t="n">
-        <v>1690.529012636462</v>
+        <v>1695.005185485289</v>
       </c>
       <c r="F23" t="n">
-        <v>1469.751664049605</v>
+        <v>1468.0898734713</v>
       </c>
       <c r="G23" t="n">
-        <v>1248.974315462747</v>
+        <v>1241.174561457312</v>
       </c>
       <c r="H23" t="n">
-        <v>1028.19696687589</v>
+        <v>1014.259249443323</v>
       </c>
       <c r="I23" t="n">
-        <v>807.4196182890323</v>
+        <v>787.3439374293348</v>
       </c>
       <c r="J23" t="n">
-        <v>586.6422697021749</v>
+        <v>560.4286254153462</v>
       </c>
       <c r="K23" t="n">
-        <v>365.8649211153174</v>
+        <v>333.5133134013577</v>
       </c>
       <c r="L23" t="n">
-        <v>145.08757252846</v>
+        <v>106.5980013873691</v>
       </c>
       <c r="M23" t="n">
-        <v>-75.68977605839791</v>
+        <v>-120.317310626619</v>
       </c>
       <c r="N23" t="n">
-        <v>-296.4671246452554</v>
+        <v>-347.2326226406076</v>
       </c>
       <c r="O23" t="n">
-        <v>-517.2444732321128</v>
+        <v>-574.1479346545962</v>
       </c>
       <c r="P23" t="n">
-        <v>-738.0218218189702</v>
+        <v>-801.0632466685847</v>
       </c>
       <c r="Q23" t="n">
-        <v>-958.7991704058277</v>
+        <v>-1027.978558682573</v>
       </c>
       <c r="R23" t="n">
-        <v>-1179.576518992685</v>
+        <v>-1254.893870696562</v>
       </c>
       <c r="S23" t="n">
-        <v>-1400.353867579543</v>
+        <v>-1481.80918271055</v>
       </c>
       <c r="T23" t="n">
-        <v>-1621.1312161664</v>
+        <v>-1708.724494724539</v>
       </c>
       <c r="U23" t="n">
-        <v>-1841.908564753257</v>
+        <v>-1935.639806738528</v>
       </c>
       <c r="V23" t="n">
-        <v>-2062.685913340115</v>
+        <v>-2162.555118752516</v>
       </c>
       <c r="W23" t="n">
-        <v>-2283.463261926972</v>
+        <v>-2389.470430766505</v>
       </c>
       <c r="X23" t="n">
-        <v>-2504.24061051383</v>
+        <v>-2616.385742780493</v>
       </c>
       <c r="Y23" t="n">
-        <v>-2725.017959100688</v>
+        <v>-2843.301054794481</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2945.795307687546</v>
+        <v>-3070.21636680847</v>
       </c>
       <c r="AA23" t="n">
-        <v>-3166.572656274403</v>
+        <v>-3297.131678822458</v>
       </c>
     </row>
     <row r="24">
@@ -8584,82 +8134,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12927.18403892535</v>
+        <v>13015.29888407784</v>
       </c>
       <c r="C24" t="n">
-        <v>13056.22418603123</v>
+        <v>13125.62379627726</v>
       </c>
       <c r="D24" t="n">
-        <v>13185.26433313711</v>
+        <v>13235.94870847668</v>
       </c>
       <c r="E24" t="n">
-        <v>13314.30448024298</v>
+        <v>13346.27362067609</v>
       </c>
       <c r="F24" t="n">
-        <v>13443.34462734886</v>
+        <v>13456.59853287551</v>
       </c>
       <c r="G24" t="n">
-        <v>13572.38477445474</v>
+        <v>13566.92344507493</v>
       </c>
       <c r="H24" t="n">
-        <v>13701.42492156062</v>
+        <v>13677.24835727435</v>
       </c>
       <c r="I24" t="n">
-        <v>13830.4650686665</v>
+        <v>13787.57326947377</v>
       </c>
       <c r="J24" t="n">
-        <v>13959.50521577238</v>
+        <v>13897.89818167318</v>
       </c>
       <c r="K24" t="n">
-        <v>14088.54536287826</v>
+        <v>14008.2230938726</v>
       </c>
       <c r="L24" t="n">
-        <v>14217.58550998414</v>
+        <v>14118.54800607202</v>
       </c>
       <c r="M24" t="n">
-        <v>14346.62565709002</v>
+        <v>14228.87291827144</v>
       </c>
       <c r="N24" t="n">
-        <v>14475.6658041959</v>
+        <v>14339.19783047086</v>
       </c>
       <c r="O24" t="n">
-        <v>14604.70595130178</v>
+        <v>14449.52274267028</v>
       </c>
       <c r="P24" t="n">
-        <v>14733.74609840766</v>
+        <v>14559.84765486969</v>
       </c>
       <c r="Q24" t="n">
-        <v>14862.78624551354</v>
+        <v>14670.17256706911</v>
       </c>
       <c r="R24" t="n">
-        <v>14991.82639261942</v>
+        <v>14780.49747926853</v>
       </c>
       <c r="S24" t="n">
-        <v>15120.8665397253</v>
+        <v>14890.82239146795</v>
       </c>
       <c r="T24" t="n">
-        <v>15249.90668683118</v>
+        <v>15001.14730366737</v>
       </c>
       <c r="U24" t="n">
-        <v>15378.94683393706</v>
+        <v>15111.47221586679</v>
       </c>
       <c r="V24" t="n">
-        <v>15507.98698104294</v>
+        <v>15221.7971280662</v>
       </c>
       <c r="W24" t="n">
-        <v>15637.02712814882</v>
+        <v>15332.12204026562</v>
       </c>
       <c r="X24" t="n">
-        <v>15766.0672752547</v>
+        <v>15442.44695246504</v>
       </c>
       <c r="Y24" t="n">
-        <v>15895.10742236058</v>
+        <v>15552.77186466446</v>
       </c>
       <c r="Z24" t="n">
-        <v>16024.14756946646</v>
+        <v>15663.09677686388</v>
       </c>
       <c r="AA24" t="n">
-        <v>16153.18771657233</v>
+        <v>15773.4216890633</v>
       </c>
     </row>
     <row r="25">
@@ -8669,82 +8219,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5067.938647086294</v>
+        <v>5139.477364699958</v>
       </c>
       <c r="C25" t="n">
-        <v>5176.316564762887</v>
+        <v>5235.388291324397</v>
       </c>
       <c r="D25" t="n">
-        <v>5284.69448243948</v>
+        <v>5331.299217948836</v>
       </c>
       <c r="E25" t="n">
-        <v>5393.072400116073</v>
+        <v>5427.210144573274</v>
       </c>
       <c r="F25" t="n">
-        <v>5501.450317792667</v>
+        <v>5523.121071197713</v>
       </c>
       <c r="G25" t="n">
-        <v>5609.828235469261</v>
+        <v>5619.031997822152</v>
       </c>
       <c r="H25" t="n">
-        <v>5718.206153145854</v>
+        <v>5714.942924446591</v>
       </c>
       <c r="I25" t="n">
-        <v>5826.584070822448</v>
+        <v>5810.85385107103</v>
       </c>
       <c r="J25" t="n">
-        <v>5934.961988499041</v>
+        <v>5906.764777695468</v>
       </c>
       <c r="K25" t="n">
-        <v>6043.339906175634</v>
+        <v>6002.675704319907</v>
       </c>
       <c r="L25" t="n">
-        <v>6151.717823852228</v>
+        <v>6098.586630944345</v>
       </c>
       <c r="M25" t="n">
-        <v>6260.095741528821</v>
+        <v>6194.497557568784</v>
       </c>
       <c r="N25" t="n">
-        <v>6368.473659205415</v>
+        <v>6290.408484193223</v>
       </c>
       <c r="O25" t="n">
-        <v>6476.851576882009</v>
+        <v>6386.319410817661</v>
       </c>
       <c r="P25" t="n">
-        <v>6585.229494558602</v>
+        <v>6482.230337442101</v>
       </c>
       <c r="Q25" t="n">
-        <v>6693.607412235196</v>
+        <v>6578.141264066538</v>
       </c>
       <c r="R25" t="n">
-        <v>6801.985329911789</v>
+        <v>6674.052190690978</v>
       </c>
       <c r="S25" t="n">
-        <v>6910.363247588382</v>
+        <v>6769.963117315417</v>
       </c>
       <c r="T25" t="n">
-        <v>7018.741165264975</v>
+        <v>6865.874043939855</v>
       </c>
       <c r="U25" t="n">
-        <v>7127.119082941569</v>
+        <v>6961.784970564294</v>
       </c>
       <c r="V25" t="n">
-        <v>7235.497000618163</v>
+        <v>7057.695897188732</v>
       </c>
       <c r="W25" t="n">
-        <v>7343.874918294756</v>
+        <v>7153.606823813171</v>
       </c>
       <c r="X25" t="n">
-        <v>7452.25283597135</v>
+        <v>7249.51775043761</v>
       </c>
       <c r="Y25" t="n">
-        <v>7560.630753647943</v>
+        <v>7345.428677062048</v>
       </c>
       <c r="Z25" t="n">
-        <v>7669.008671324536</v>
+        <v>7441.339603686487</v>
       </c>
       <c r="AA25" t="n">
-        <v>7777.38658900113</v>
+        <v>7537.250530310926</v>
       </c>
     </row>
     <row r="26">
@@ -8754,82 +8304,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18419.04030745896</v>
+        <v>18488.04218017492</v>
       </c>
       <c r="C26" t="n">
-        <v>18610.75998530122</v>
+        <v>18657.67355871192</v>
       </c>
       <c r="D26" t="n">
-        <v>18802.47966314348</v>
+        <v>18827.30493724891</v>
       </c>
       <c r="E26" t="n">
-        <v>18994.19934098574</v>
+        <v>18996.93631578591</v>
       </c>
       <c r="F26" t="n">
-        <v>19185.919018828</v>
+        <v>19166.56769432291</v>
       </c>
       <c r="G26" t="n">
-        <v>19377.63869667026</v>
+        <v>19336.1990728599</v>
       </c>
       <c r="H26" t="n">
-        <v>19569.35837451252</v>
+        <v>19505.8304513969</v>
       </c>
       <c r="I26" t="n">
-        <v>19761.07805235478</v>
+        <v>19675.4618299339</v>
       </c>
       <c r="J26" t="n">
-        <v>19952.79773019705</v>
+        <v>19845.0932084709</v>
       </c>
       <c r="K26" t="n">
-        <v>20144.5174080393</v>
+        <v>20014.7245870079</v>
       </c>
       <c r="L26" t="n">
-        <v>20336.23708588157</v>
+        <v>20184.35596554489</v>
       </c>
       <c r="M26" t="n">
-        <v>20527.95676372383</v>
+        <v>20353.98734408189</v>
       </c>
       <c r="N26" t="n">
-        <v>20719.67644156609</v>
+        <v>20523.61872261888</v>
       </c>
       <c r="O26" t="n">
-        <v>20911.39611940835</v>
+        <v>20693.25010115588</v>
       </c>
       <c r="P26" t="n">
-        <v>21103.11579725061</v>
+        <v>20862.88147969288</v>
       </c>
       <c r="Q26" t="n">
-        <v>21294.83547509287</v>
+        <v>21032.51285822987</v>
       </c>
       <c r="R26" t="n">
-        <v>21486.55515293513</v>
+        <v>21202.14423676687</v>
       </c>
       <c r="S26" t="n">
-        <v>21678.27483077739</v>
+        <v>21371.77561530387</v>
       </c>
       <c r="T26" t="n">
-        <v>21869.99450861965</v>
+        <v>21541.40699384086</v>
       </c>
       <c r="U26" t="n">
-        <v>22061.71418646191</v>
+        <v>21711.03837237786</v>
       </c>
       <c r="V26" t="n">
-        <v>22253.43386430417</v>
+        <v>21880.66975091486</v>
       </c>
       <c r="W26" t="n">
-        <v>22445.15354214644</v>
+        <v>22050.30112945185</v>
       </c>
       <c r="X26" t="n">
-        <v>22636.87321998869</v>
+        <v>22219.93250798885</v>
       </c>
       <c r="Y26" t="n">
-        <v>22828.59289783096</v>
+        <v>22389.56388652585</v>
       </c>
       <c r="Z26" t="n">
-        <v>23020.31257567322</v>
+        <v>22559.19526506284</v>
       </c>
       <c r="AA26" t="n">
-        <v>23212.03225351548</v>
+        <v>22728.82664359984</v>
       </c>
     </row>
   </sheetData>
@@ -8843,7 +8393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8874,7 +8424,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>QE</t>
+          <t>Q</t>
         </is>
       </c>
     </row>
@@ -8904,7 +8454,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>valores~periodo + Pulse_Pandemia + Step_PandemiaePos + Trend_PandemiaePos</t>
+          <t>valores~periodo + Pulse_Pandemia + Trend_PandemiaePos</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8495,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bic</t>
+          <t>aic</t>
         </is>
       </c>
     </row>
@@ -8960,7 +8510,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-1.0, 1.0, 0.01]</t>
+          <t>[-1.0, 1.0, 0.05]</t>
         </is>
       </c>
     </row>
@@ -9000,11 +8550,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>additional_dates_factor</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>ARIMAOrder</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -9013,13 +8565,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DfsForRegression</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{'Total': [2016, 2022]}</t>
-        </is>
+          <t>additional_dates_factor</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -9028,12 +8578,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>DfsForRegression</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'Total': [2016, 2022]}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>DummyArgs</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>{'Pulse_Pandemia': {'start_date': '2020-01-01', 'end_date': '2020-06-30'}, 'Step_PandemiaePos': {'start_date': '2020-01-01', 'end_date': '2022-06-30'}, 'Trend_PandemiaePos': {'start_date': '2020-01-01', 'end_date': '2022-06-30', 'add_time_trend': True}}</t>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'Pulse_Pandemia': {'start_date': '2020-01-01', 'end_date': '2020-06-30'}, 'Trend_PandemiaePos': {'start_date': '2020-01-01', 'end_date': '2022-06-30', 'add_time_trend': True}}</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -640,55 +640,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.533982877339798</v>
+        <v>8.329674641665735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2500000000000011</v>
+        <v>-0.04999999999999916</v>
       </c>
       <c r="E2" t="n">
-        <v>616.0178130413989</v>
+        <v>579.9617954936776</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2684440817102439</v>
+        <v>3.137692603104468e-06</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.19339811550678</v>
+        <v>1.786872500424258</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9218381629421259</v>
+        <v>0.9178010857629546</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8497855986565136</v>
+        <v>0.8423588330276583</v>
       </c>
       <c r="K2" t="n">
-        <v>0.828326398464587</v>
+        <v>0.8198386663173238</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1195</v>
+        <v>1.5228</v>
       </c>
       <c r="M2" t="n">
-        <v>288.0293238592193</v>
+        <v>286.8497435555616</v>
       </c>
       <c r="N2" t="n">
-        <v>292.9048271586921</v>
+        <v>291.7252468550344</v>
       </c>
       <c r="O2" t="n">
         <v>25</v>
       </c>
       <c r="P2" t="n">
-        <v>55.36818772439113</v>
+        <v>111.2066365985575</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.810824299591794e-10</v>
+        <v>4.751198349061699e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>-140.0146619296096</v>
+        <v>-139.4248717777808</v>
       </c>
       <c r="S2" t="n">
-        <v>50.6850612991688</v>
+        <v>58.36058032877639</v>
       </c>
       <c r="T2" t="n">
         <v>3</v>
@@ -697,25 +697,25 @@
         <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>107170.0080506733</v>
+        <v>102230.8224365285</v>
       </c>
       <c r="Y2" t="n">
-        <v>713446.9604256781</v>
+        <v>648503.3345031313</v>
       </c>
       <c r="Z2" t="n">
-        <v>6898685.190028247</v>
+        <v>10731007.475042</v>
       </c>
       <c r="AA2" t="n">
-        <v>606276.9523750048</v>
+        <v>546272.5120666029</v>
       </c>
       <c r="AB2" t="n">
-        <v>202092.3174583349</v>
+        <v>182090.8373555343</v>
       </c>
       <c r="AC2" t="n">
-        <v>5103.333716698728</v>
+        <v>4868.13440173945</v>
       </c>
       <c r="AD2" t="n">
-        <v>29726.95668440325</v>
+        <v>27020.9722709638</v>
       </c>
       <c r="AG2" t="b">
         <v>1</v>
@@ -728,55 +728,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.08779591592114</v>
+        <v>19.2759103855767</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2999999999999994</v>
+        <v>0.09000000000000097</v>
       </c>
       <c r="E3" t="n">
-        <v>606.6168364761077</v>
+        <v>562.3917385592124</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02370563214681913</v>
+        <v>5.942682791246331e-08</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.78628048690428</v>
+        <v>3.556101639962427</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8832654532100011</v>
+        <v>0.86384437024102</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7801578608342686</v>
+        <v>0.7462270959971045</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7487518409534499</v>
+        <v>0.7099738239966908</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2307</v>
+        <v>2.21</v>
       </c>
       <c r="M3" t="n">
-        <v>311.3942270250849</v>
+        <v>314.8858917736183</v>
       </c>
       <c r="N3" t="n">
-        <v>316.2697303245577</v>
+        <v>319.7613950730911</v>
       </c>
       <c r="O3" t="n">
         <v>25</v>
       </c>
       <c r="P3" t="n">
-        <v>47.79172050629109</v>
+        <v>61.30295161308872</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.472880025507557e-09</v>
+        <v>1.474558159099559e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>-151.6971135125424</v>
+        <v>-153.4429458868092</v>
       </c>
       <c r="S3" t="n">
-        <v>70.55424656259807</v>
+        <v>69.86967224000436</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
@@ -785,25 +785,25 @@
         <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>272874.6577085448</v>
+        <v>313775.9356392046</v>
       </c>
       <c r="Y3" t="n">
-        <v>1241229.996869863</v>
+        <v>1236443.807395704</v>
       </c>
       <c r="Z3" t="n">
-        <v>22986782.20681246</v>
+        <v>22563168.60553966</v>
       </c>
       <c r="AA3" t="n">
-        <v>968355.3391613185</v>
+        <v>922667.8717564989</v>
       </c>
       <c r="AB3" t="n">
-        <v>322785.1130537728</v>
+        <v>307555.9572521663</v>
       </c>
       <c r="AC3" t="n">
-        <v>12994.03131945451</v>
+        <v>14941.71122091451</v>
       </c>
       <c r="AD3" t="n">
-        <v>51717.9165362443</v>
+        <v>51518.49197482099</v>
       </c>
       <c r="AG3" t="b">
         <v>1</v>
@@ -816,55 +816,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.444043676829592</v>
+        <v>-12.32486842632842</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6499999999999997</v>
+        <v>-0.4499999999999995</v>
       </c>
       <c r="E4" t="n">
-        <v>1454.389518319624</v>
+        <v>1500.11450895171</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4108169834485246</v>
+        <v>0.0793780202329297</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.835115410583691</v>
+        <v>7.025493634861299</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6879210107415656</v>
+        <v>0.690847112667746</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4732353170196972</v>
+        <v>0.4772697330813613</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3979832194510826</v>
+        <v>0.402593980664413</v>
       </c>
       <c r="L4" t="n">
-        <v>2.2783</v>
+        <v>2.4427</v>
       </c>
       <c r="M4" t="n">
-        <v>319.3455675320941</v>
+        <v>319.4090310741275</v>
       </c>
       <c r="N4" t="n">
-        <v>324.2210708315669</v>
+        <v>324.2845343736003</v>
       </c>
       <c r="O4" t="n">
         <v>25</v>
       </c>
       <c r="P4" t="n">
-        <v>10.21938138877486</v>
+        <v>5.84727878252188</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0002358076618399804</v>
+        <v>0.004563407920097613</v>
       </c>
       <c r="R4" t="n">
-        <v>-155.672783766047</v>
+        <v>-155.7045155370637</v>
       </c>
       <c r="S4" t="n">
-        <v>75.54466097568969</v>
+        <v>78.10857122749296</v>
       </c>
       <c r="T4" t="n">
         <v>3</v>
@@ -873,25 +873,25 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>375052.5617295788</v>
+        <v>376005.8577691519</v>
       </c>
       <c r="Y4" t="n">
-        <v>711992.6104529735</v>
+        <v>719311.4337641291</v>
       </c>
       <c r="Z4" t="n">
-        <v>67773728.02516612</v>
+        <v>74216854.6706772</v>
       </c>
       <c r="AA4" t="n">
-        <v>336940.0487233947</v>
+        <v>343305.5759949772</v>
       </c>
       <c r="AB4" t="n">
-        <v>112313.3495744649</v>
+        <v>114435.1919983257</v>
       </c>
       <c r="AC4" t="n">
-        <v>17859.64579664661</v>
+        <v>17905.04084615009</v>
       </c>
       <c r="AD4" t="n">
-        <v>29666.3587688739</v>
+        <v>29971.30974017204</v>
       </c>
       <c r="AG4" t="b">
         <v>1</v>
@@ -904,55 +904,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-60.1515143659377</v>
+        <v>-89.97651156841421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05000000000000093</v>
+        <v>-0.1599999999999993</v>
       </c>
       <c r="E5" t="n">
-        <v>10099.3797278541</v>
+        <v>10306.57970187437</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2116012483976933</v>
+        <v>0.006862827117444009</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>48.15301087960746</v>
+        <v>33.28237504695176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8080929935058869</v>
+        <v>0.802528616566903</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6530142861533055</v>
+        <v>0.6440521804087872</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6034448984609206</v>
+        <v>0.5932024918957568</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5478</v>
+        <v>1.4655</v>
       </c>
       <c r="M5" t="n">
-        <v>408.8163096276781</v>
+        <v>409.8901035947397</v>
       </c>
       <c r="N5" t="n">
-        <v>413.6918129271509</v>
+        <v>414.7656068942125</v>
       </c>
       <c r="O5" t="n">
         <v>25</v>
       </c>
       <c r="P5" t="n">
-        <v>22.91060255642262</v>
+        <v>41.35647173992665</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.002389190654293e-07</v>
+        <v>5.420615588668466e-09</v>
       </c>
       <c r="R5" t="n">
-        <v>-200.408154813839</v>
+        <v>-200.9450517973698</v>
       </c>
       <c r="S5" t="n">
-        <v>51.67352044885147</v>
+        <v>48.08095963202832</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
@@ -961,25 +961,25 @@
         <v>21</v>
       </c>
       <c r="X5" t="n">
-        <v>13438726.62713675</v>
+        <v>14028519.21403201</v>
       </c>
       <c r="Y5" t="n">
-        <v>38729913.33895165</v>
+        <v>39411729.5904299</v>
       </c>
       <c r="Z5" t="n">
-        <v>1372101026.283262</v>
+        <v>1170433950.507028</v>
       </c>
       <c r="AA5" t="n">
-        <v>25291186.7118149</v>
+        <v>25383210.3763979</v>
       </c>
       <c r="AB5" t="n">
-        <v>8430395.570604965</v>
+        <v>8461070.125465965</v>
       </c>
       <c r="AC5" t="n">
-        <v>639939.3631969882</v>
+        <v>668024.7244777145</v>
       </c>
       <c r="AD5" t="n">
-        <v>1613746.389122985</v>
+        <v>1642155.399601246</v>
       </c>
       <c r="AG5" t="b">
         <v>1</v>
@@ -992,55 +992,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.6881162047267</v>
+        <v>203.280755694283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4500000000000013</v>
+        <v>0.110000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>3196.333874234947</v>
+        <v>2794.668892879006</v>
       </c>
       <c r="F6" t="n">
-        <v>1.012363026745597e-22</v>
+        <v>4.133413844754167e-91</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>14.95180863404297</v>
+        <v>10.04225722300823</v>
       </c>
       <c r="I6" t="n">
-        <v>0.954421722733689</v>
+        <v>0.9390076773162637</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9109208248259427</v>
+        <v>0.8817354180588843</v>
       </c>
       <c r="K6" t="n">
-        <v>0.898195228372506</v>
+        <v>0.8648404777815821</v>
       </c>
       <c r="L6" t="n">
-        <v>1.3941</v>
+        <v>1.6931</v>
       </c>
       <c r="M6" t="n">
-        <v>397.4729389311631</v>
+        <v>403.6905936771</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3484422306359</v>
+        <v>408.5660969765728</v>
       </c>
       <c r="O6" t="n">
         <v>25</v>
       </c>
       <c r="P6" t="n">
-        <v>173.4020216662592</v>
+        <v>165.1163431169693</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.665605511975268e-15</v>
+        <v>9.273945295805722e-15</v>
       </c>
       <c r="R6" t="n">
-        <v>-194.7364694655815</v>
+        <v>-197.84529683855</v>
       </c>
       <c r="S6" t="n">
-        <v>60.75971278877572</v>
+        <v>63.04953060415961</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
@@ -1049,25 +1049,25 @@
         <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>8536966.703314248</v>
+        <v>10947509.06327654</v>
       </c>
       <c r="Y6" t="n">
-        <v>95835717.90638326</v>
+        <v>92567942.85822059</v>
       </c>
       <c r="Z6" t="n">
-        <v>635253469.4708579</v>
+        <v>776680965.5142297</v>
       </c>
       <c r="AA6" t="n">
-        <v>87298751.20306902</v>
+        <v>81620433.79494405</v>
       </c>
       <c r="AB6" t="n">
-        <v>29099583.73435634</v>
+        <v>27206811.26498135</v>
       </c>
       <c r="AC6" t="n">
-        <v>406522.2239673451</v>
+        <v>521309.9553941212</v>
       </c>
       <c r="AD6" t="n">
-        <v>3993154.912765969</v>
+        <v>3856997.619092525</v>
       </c>
       <c r="AG6" t="b">
         <v>1</v>
@@ -1080,55 +1080,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.215478949734259</v>
+        <v>7.10241942077857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.150000000000001</v>
+        <v>0.8900000000000017</v>
       </c>
       <c r="E7" t="n">
-        <v>326.9959197246957</v>
+        <v>305.1284853176258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01647604513602059</v>
+        <v>0.0002323196413896726</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.757770798909326</v>
+        <v>1.929480177533885</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7487779343607377</v>
+        <v>0.7229592409929458</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5606683949855332</v>
+        <v>0.5226700641370963</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4979067371263237</v>
+        <v>0.4544800732995387</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6246</v>
+        <v>1.7418</v>
       </c>
       <c r="M7" t="n">
-        <v>275.4569087735999</v>
+        <v>277.2132565963747</v>
       </c>
       <c r="N7" t="n">
-        <v>280.3324120730728</v>
+        <v>282.0887598958475</v>
       </c>
       <c r="O7" t="n">
         <v>25</v>
       </c>
       <c r="P7" t="n">
-        <v>5.629050695017329</v>
+        <v>7.373561240988393</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005415524075996988</v>
+        <v>0.001476440211050744</v>
       </c>
       <c r="R7" t="n">
-        <v>-133.7284543868</v>
+        <v>-134.6066282981873</v>
       </c>
       <c r="S7" t="n">
-        <v>54.08207519183764</v>
+        <v>57.09227110686771</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1137,25 +1137,25 @@
         <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>64813.88340069607</v>
+        <v>69531.07280199692</v>
       </c>
       <c r="Y7" t="n">
-        <v>147528.3878075692</v>
+        <v>145666.6921095166</v>
       </c>
       <c r="Z7" t="n">
-        <v>3210492.323612588</v>
+        <v>3442043.305578674</v>
       </c>
       <c r="AA7" t="n">
-        <v>82714.50440687314</v>
+        <v>76135.61930751972</v>
       </c>
       <c r="AB7" t="n">
-        <v>27571.50146895771</v>
+        <v>25378.53976917324</v>
       </c>
       <c r="AC7" t="n">
-        <v>3086.375400033146</v>
+        <v>3311.003466761758</v>
       </c>
       <c r="AD7" t="n">
-        <v>6147.016158648717</v>
+        <v>6069.445504563194</v>
       </c>
       <c r="AG7" t="b">
         <v>1</v>
@@ -1168,55 +1168,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.00069528309309</v>
+        <v>16.86959017673601</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5499999999999996</v>
+        <v>0.170000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>71.61959448744342</v>
+        <v>48.29678084817671</v>
       </c>
       <c r="F8" t="n">
-        <v>8.035222299719216e-05</v>
+        <v>5.942786478175087e-07</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.043276418129956</v>
+        <v>3.378602662921831</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9036262656394306</v>
+        <v>0.8758092525566349</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8165404279534628</v>
+        <v>0.7670418468638115</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7903319176611003</v>
+        <v>0.7337621107014989</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5991</v>
+        <v>2.3332</v>
       </c>
       <c r="M8" t="n">
-        <v>286.2587302149367</v>
+        <v>290.585007811537</v>
       </c>
       <c r="N8" t="n">
-        <v>291.1342335144095</v>
+        <v>295.4605111110098</v>
       </c>
       <c r="O8" t="n">
         <v>25</v>
       </c>
       <c r="P8" t="n">
-        <v>40.67753784830878</v>
+        <v>73.18069009682719</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.28138040859885e-09</v>
+        <v>2.759563968424175e-11</v>
       </c>
       <c r="R8" t="n">
-        <v>-139.1293651074683</v>
+        <v>-141.2925039057685</v>
       </c>
       <c r="S8" t="n">
-        <v>52.00369388571118</v>
+        <v>69.68786283576286</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
@@ -1225,25 +1225,25 @@
         <v>21</v>
       </c>
       <c r="X8" t="n">
-        <v>99842.37456819184</v>
+        <v>118705.2811187681</v>
       </c>
       <c r="Y8" t="n">
-        <v>544220.0341711544</v>
+        <v>509556.2422722865</v>
       </c>
       <c r="Z8" t="n">
-        <v>1583404.894476244</v>
+        <v>2795519.313762208</v>
       </c>
       <c r="AA8" t="n">
-        <v>444377.6596029626</v>
+        <v>390850.9611535184</v>
       </c>
       <c r="AB8" t="n">
-        <v>148125.8865343209</v>
+        <v>130283.6537178395</v>
       </c>
       <c r="AC8" t="n">
-        <v>4754.398788961516</v>
+        <v>5652.632434227053</v>
       </c>
       <c r="AD8" t="n">
-        <v>22675.83475713143</v>
+        <v>21231.5100946786</v>
       </c>
       <c r="AG8" t="b">
         <v>1</v>
@@ -1256,55 +1256,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.927079601747539</v>
+        <v>-5.089362702034343</v>
       </c>
       <c r="D9" t="n">
-        <v>0.100000000000001</v>
+        <v>-0.2799999999999994</v>
       </c>
       <c r="E9" t="n">
-        <v>564.5072441184834</v>
+        <v>634.5145662905289</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4659054658189263</v>
+        <v>0.3732350807251718</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.385778574125879</v>
+        <v>5.715624068133899</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7386378046147712</v>
+        <v>0.6609066446900888</v>
       </c>
       <c r="J9" t="n">
-        <v>0.545585806406129</v>
+        <v>0.4367975929955112</v>
       </c>
       <c r="K9" t="n">
-        <v>0.480669493035576</v>
+        <v>0.3563401062805843</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2086</v>
+        <v>1.7721</v>
       </c>
       <c r="M9" t="n">
-        <v>294.9546727331398</v>
+        <v>300.2979865607911</v>
       </c>
       <c r="N9" t="n">
-        <v>299.8301760326127</v>
+        <v>305.1734898602639</v>
       </c>
       <c r="O9" t="n">
         <v>25</v>
       </c>
       <c r="P9" t="n">
-        <v>38.85729924531558</v>
+        <v>14.75992980770066</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.423709223059134e-09</v>
+        <v>2.141064298857754e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>-143.4773363665699</v>
+        <v>-146.1489932803955</v>
       </c>
       <c r="S9" t="n">
-        <v>43.43101090189256</v>
+        <v>59.83703182296728</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
@@ -1313,25 +1313,25 @@
         <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>141377.0435007658</v>
+        <v>175065.981833086</v>
       </c>
       <c r="Y9" t="n">
-        <v>311119.3389067427</v>
+        <v>310840.2585923088</v>
       </c>
       <c r="Z9" t="n">
-        <v>3487917.77070653</v>
+        <v>6813430.209589556</v>
       </c>
       <c r="AA9" t="n">
-        <v>169742.295405977</v>
+        <v>135774.2767592228</v>
       </c>
       <c r="AB9" t="n">
-        <v>56580.76513532566</v>
+        <v>45258.09225307425</v>
       </c>
       <c r="AC9" t="n">
-        <v>6732.240166703133</v>
+        <v>8336.475325385049</v>
       </c>
       <c r="AD9" t="n">
-        <v>12963.30578778095</v>
+        <v>12951.6774413462</v>
       </c>
       <c r="AG9" t="b">
         <v>1</v>
@@ -1344,55 +1344,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.3145147673505</v>
+        <v>17.19283074591069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.150000000000001</v>
+        <v>0.180000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>333.9536680001393</v>
+        <v>380.1126335229775</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001605402789874315</v>
+        <v>0.002328108403910725</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.07291820537697</v>
+        <v>5.646562623708701</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8611075679633418</v>
+        <v>0.9029560777927345</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7415062436037413</v>
+        <v>0.8153296784228388</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7045785641185616</v>
+        <v>0.7889482039118157</v>
       </c>
       <c r="L10" t="n">
-        <v>1.8034</v>
+        <v>1.5534</v>
       </c>
       <c r="M10" t="n">
-        <v>327.2038090483714</v>
+        <v>320.0852322991096</v>
       </c>
       <c r="N10" t="n">
-        <v>332.0793123478442</v>
+        <v>324.9607355985825</v>
       </c>
       <c r="O10" t="n">
         <v>25</v>
       </c>
       <c r="P10" t="n">
-        <v>67.89273565634382</v>
+        <v>120.8443202512565</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.63149748919493e-11</v>
+        <v>2.090843272750333e-13</v>
       </c>
       <c r="R10" t="n">
-        <v>-159.6019045241857</v>
+        <v>-156.0426161495548</v>
       </c>
       <c r="S10" t="n">
-        <v>61.03809706839406</v>
+        <v>55.65945367386602</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
@@ -1401,25 +1401,25 @@
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>513574.8799431261</v>
+        <v>386314.8735196403</v>
       </c>
       <c r="Y10" t="n">
-        <v>1986798.006663805</v>
+        <v>2091916.395771399</v>
       </c>
       <c r="Z10" t="n">
-        <v>11713016.64430914</v>
+        <v>9953563.926153067</v>
       </c>
       <c r="AA10" t="n">
-        <v>1473223.126720679</v>
+        <v>1705601.522251759</v>
       </c>
       <c r="AB10" t="n">
-        <v>491074.3755735597</v>
+        <v>568533.8407505864</v>
       </c>
       <c r="AC10" t="n">
-        <v>24455.94666395839</v>
+        <v>18395.94635807811</v>
       </c>
       <c r="AD10" t="n">
-        <v>82783.25027765856</v>
+        <v>87163.18315714164</v>
       </c>
       <c r="AG10" t="b">
         <v>1</v>
@@ -1432,55 +1432,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.4878342588665</v>
+        <v>10.20806387184373</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3499999999999994</v>
+        <v>0.130000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>881.1811494243839</v>
+        <v>932.2145913410825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005548967866877284</v>
+        <v>0.05425632127552651</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.305768464001689</v>
+        <v>5.303483979730446</v>
       </c>
       <c r="I11" t="n">
-        <v>0.59676677116837</v>
+        <v>0.5666441519440099</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3561305791707217</v>
+        <v>0.3210855949323461</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2641492333379677</v>
+        <v>0.2240978227798242</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3279</v>
+        <v>2.3019</v>
       </c>
       <c r="M11" t="n">
-        <v>329.7628728669371</v>
+        <v>331.0475286954996</v>
       </c>
       <c r="N11" t="n">
-        <v>334.63837616641</v>
+        <v>335.9230319949724</v>
       </c>
       <c r="O11" t="n">
         <v>25</v>
       </c>
       <c r="P11" t="n">
-        <v>5.963991264980227</v>
+        <v>11.17965707211752</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004168594470041194</v>
+        <v>0.00013545051761425</v>
       </c>
       <c r="R11" t="n">
-        <v>-160.8814364334686</v>
+        <v>-161.5237643477498</v>
       </c>
       <c r="S11" t="n">
-        <v>71.75832979901219</v>
+        <v>70.87927714536009</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
@@ -1489,25 +1489,25 @@
         <v>21</v>
       </c>
       <c r="X11" t="n">
-        <v>568930.5634929603</v>
+        <v>598929.9385772203</v>
       </c>
       <c r="Y11" t="n">
-        <v>883611.7154938035</v>
+        <v>882187.7015815225</v>
       </c>
       <c r="Z11" t="n">
-        <v>47778740.41722762</v>
+        <v>47398780.5153921</v>
       </c>
       <c r="AA11" t="n">
-        <v>314681.1520008432</v>
+        <v>283257.7630043022</v>
       </c>
       <c r="AB11" t="n">
-        <v>104893.7173336144</v>
+        <v>94419.25433476739</v>
       </c>
       <c r="AC11" t="n">
-        <v>27091.93159490287</v>
+        <v>28520.47326558192</v>
       </c>
       <c r="AD11" t="n">
-        <v>36817.15481224181</v>
+        <v>36757.8208992301</v>
       </c>
       <c r="AG11" t="b">
         <v>1</v>
@@ -1520,55 +1520,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-11.63524149233548</v>
+        <v>-11.20033002247193</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8500000000000016</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="E12" t="n">
-        <v>274.0755014832393</v>
+        <v>272.3927690025085</v>
       </c>
       <c r="F12" t="n">
-        <v>1.491127205607743e-09</v>
+        <v>3.74117467187907e-15</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.924668894711115</v>
+        <v>1.424378773331171</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9108531842979477</v>
+        <v>0.9093663031072418</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8296535233457112</v>
+        <v>0.8269470732269318</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8053183123950985</v>
+        <v>0.802225226545065</v>
       </c>
       <c r="L12" t="n">
-        <v>2.5365</v>
+        <v>2.3638</v>
       </c>
       <c r="M12" t="n">
-        <v>256.2441758040125</v>
+        <v>255.6664187537985</v>
       </c>
       <c r="N12" t="n">
-        <v>261.1196791034852</v>
+        <v>260.5419220532713</v>
       </c>
       <c r="O12" t="n">
         <v>25</v>
       </c>
       <c r="P12" t="n">
-        <v>95.8943882880629</v>
+        <v>79.55733931944222</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.03036676323867e-12</v>
+        <v>1.239549851574296e-11</v>
       </c>
       <c r="R12" t="n">
-        <v>-124.1220879020062</v>
+        <v>-123.8332093768992</v>
       </c>
       <c r="S12" t="n">
-        <v>78.30251245125089</v>
+        <v>74.03627343389425</v>
       </c>
       <c r="T12" t="n">
         <v>3</v>
@@ -1577,25 +1577,25 @@
         <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>30054.44324067274</v>
+        <v>29367.84092672423</v>
       </c>
       <c r="Y12" t="n">
-        <v>176431.2584032307</v>
+        <v>169704.3874053373</v>
       </c>
       <c r="Z12" t="n">
-        <v>919809.5551565982</v>
+        <v>805424.8339989475</v>
       </c>
       <c r="AA12" t="n">
-        <v>146376.815162558</v>
+        <v>140336.546478613</v>
       </c>
       <c r="AB12" t="n">
-        <v>48792.27172085265</v>
+        <v>46778.84882620435</v>
       </c>
       <c r="AC12" t="n">
-        <v>1431.163963841559</v>
+        <v>1398.468615558297</v>
       </c>
       <c r="AD12" t="n">
-        <v>7351.302433467946</v>
+        <v>7071.016141889053</v>
       </c>
       <c r="AG12" t="b">
         <v>1</v>
@@ -1608,55 +1608,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.211297115907332</v>
+        <v>1.234166899791283</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2500000000000011</v>
+        <v>0.3600000000000012</v>
       </c>
       <c r="E13" t="n">
-        <v>15.59649488938584</v>
+        <v>15.59511693193176</v>
       </c>
       <c r="F13" t="n">
-        <v>3.413629562128705e-09</v>
+        <v>3.434791657728079e-17</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2049447617838888</v>
+        <v>0.1463888758846635</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9357679137912943</v>
+        <v>0.9515497924939612</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8756615884813113</v>
+        <v>0.9054470075953007</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8578989582643557</v>
+        <v>0.8919394372517723</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2979</v>
+        <v>1.2659</v>
       </c>
       <c r="M13" t="n">
-        <v>168.1859047081204</v>
+        <v>162.551467682721</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0614080075932</v>
+        <v>167.4269709821938</v>
       </c>
       <c r="O13" t="n">
         <v>25</v>
       </c>
       <c r="P13" t="n">
-        <v>48.45743836513106</v>
+        <v>76.60993519306177</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.298495342113588e-09</v>
+        <v>1.780884552582355e-11</v>
       </c>
       <c r="R13" t="n">
-        <v>-80.09295235406019</v>
+        <v>-77.27573384136051</v>
       </c>
       <c r="S13" t="n">
-        <v>53.11948934586592</v>
+        <v>50.71649971645311</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
@@ -1665,25 +1665,25 @@
         <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>887.5234528826381</v>
+        <v>708.4344006393666</v>
       </c>
       <c r="Y13" t="n">
-        <v>7137.966795958614</v>
+        <v>7492.458806667626</v>
       </c>
       <c r="Z13" t="n">
-        <v>25945.4725769552</v>
+        <v>22804.03472937734</v>
       </c>
       <c r="AA13" t="n">
-        <v>6250.443343075976</v>
+        <v>6784.024406028259</v>
       </c>
       <c r="AB13" t="n">
-        <v>2083.481114358659</v>
+        <v>2261.341468676087</v>
       </c>
       <c r="AC13" t="n">
-        <v>42.26302156583991</v>
+        <v>33.73497145901746</v>
       </c>
       <c r="AD13" t="n">
-        <v>297.4152831649423</v>
+        <v>312.1857836111511</v>
       </c>
       <c r="AG13" t="b">
         <v>1</v>
@@ -1696,55 +1696,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.17146043678732</v>
+        <v>24.05597442207319</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8499999999999999</v>
+        <v>-0.1799999999999993</v>
       </c>
       <c r="E14" t="n">
-        <v>431.1947469396923</v>
+        <v>505.0540015011169</v>
       </c>
       <c r="F14" t="n">
-        <v>5.921103864405386e-09</v>
+        <v>8.12846603996105e-06</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.87242331898103</v>
+        <v>5.391574033362169</v>
       </c>
       <c r="I14" t="n">
-        <v>0.77241725038875</v>
+        <v>0.760489840296435</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5966284086981168</v>
+        <v>0.5783447971940971</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5390038956549907</v>
+        <v>0.5181083396503967</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5382</v>
+        <v>1.7209</v>
       </c>
       <c r="M14" t="n">
-        <v>336.3772383946642</v>
+        <v>337.2889371113014</v>
       </c>
       <c r="N14" t="n">
-        <v>341.2527416941371</v>
+        <v>342.1644404107743</v>
       </c>
       <c r="O14" t="n">
         <v>25</v>
       </c>
       <c r="P14" t="n">
-        <v>17.56618184529207</v>
+        <v>31.81578193083535</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.131768135499671e-06</v>
+        <v>5.344944327165406e-08</v>
       </c>
       <c r="R14" t="n">
-        <v>-164.1886191973321</v>
+        <v>-164.6444685556507</v>
       </c>
       <c r="S14" t="n">
-        <v>55.54671958526231</v>
+        <v>58.05316002222381</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
@@ -1753,25 +1753,25 @@
         <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>741246.3419042167</v>
+        <v>768777.0180459558</v>
       </c>
       <c r="Y14" t="n">
-        <v>1837626.54060947</v>
+        <v>1823236.17242271</v>
       </c>
       <c r="Z14" t="n">
-        <v>13278832.76709149</v>
+        <v>14632143.6021414</v>
       </c>
       <c r="AA14" t="n">
-        <v>1096380.198705253</v>
+        <v>1054459.154376754</v>
       </c>
       <c r="AB14" t="n">
-        <v>365460.0662350845</v>
+        <v>351486.3847922513</v>
       </c>
       <c r="AC14" t="n">
-        <v>35297.44485258175</v>
+        <v>36608.4294307598</v>
       </c>
       <c r="AD14" t="n">
-        <v>76567.77252539458</v>
+        <v>75968.17385094624</v>
       </c>
       <c r="AG14" t="b">
         <v>1</v>
@@ -1784,55 +1784,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.83360621588611</v>
+        <v>65.95473331316646</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8999999999999999</v>
+        <v>0.07000000000000095</v>
       </c>
       <c r="E15" t="n">
-        <v>694.0772683194917</v>
+        <v>716.6284370178504</v>
       </c>
       <c r="F15" t="n">
-        <v>3.724814872030612e-16</v>
+        <v>8.782537232208927e-26</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>8.448755365805271</v>
+        <v>6.282340391398423</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9386444920570221</v>
+        <v>0.9394290779181282</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8810534824689848</v>
+        <v>0.8825269924381046</v>
       </c>
       <c r="K15" t="n">
-        <v>0.864061122821697</v>
+        <v>0.8657451342149767</v>
       </c>
       <c r="L15" t="n">
-        <v>1.7171</v>
+        <v>1.6958</v>
       </c>
       <c r="M15" t="n">
-        <v>341.9809437164593</v>
+        <v>341.6770364079965</v>
       </c>
       <c r="N15" t="n">
-        <v>346.8564470159321</v>
+        <v>346.5525397074694</v>
       </c>
       <c r="O15" t="n">
         <v>25</v>
       </c>
       <c r="P15" t="n">
-        <v>148.6594956740263</v>
+        <v>125.3742714371119</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.658675669175813e-14</v>
+        <v>1.45187669886817e-13</v>
       </c>
       <c r="R15" t="n">
-        <v>-166.9904718582297</v>
+        <v>-166.8385182039983</v>
       </c>
       <c r="S15" t="n">
-        <v>74.14283505155009</v>
+        <v>74.11756124833354</v>
       </c>
       <c r="T15" t="n">
         <v>3</v>
@@ -1841,25 +1841,25 @@
         <v>21</v>
       </c>
       <c r="X15" t="n">
-        <v>927489.272275661</v>
+        <v>916282.6947616386</v>
       </c>
       <c r="Y15" t="n">
-        <v>7797531.962495829</v>
+        <v>7799942.41893278</v>
       </c>
       <c r="Z15" t="n">
-        <v>57681665.83393131</v>
+        <v>56225759.06989565</v>
       </c>
       <c r="AA15" t="n">
-        <v>6870042.690220168</v>
+        <v>6883659.724171141</v>
       </c>
       <c r="AB15" t="n">
-        <v>2290014.230073389</v>
+        <v>2294553.241390381</v>
       </c>
       <c r="AC15" t="n">
-        <v>44166.15582265052</v>
+        <v>43632.50927436374</v>
       </c>
       <c r="AD15" t="n">
-        <v>324897.1651039929</v>
+        <v>324997.6007888658</v>
       </c>
       <c r="AG15" t="b">
         <v>1</v>
@@ -1872,55 +1872,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.9804560062149</v>
+        <v>125.1848369533535</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.7499999999999998</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="E16" t="n">
-        <v>919.5008187762975</v>
+        <v>856.6741351904376</v>
       </c>
       <c r="F16" t="n">
-        <v>2.685262458657334e-111</v>
+        <v>3.167964650056048e-88</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5.173765919033589</v>
+        <v>6.286731727248421</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9782591190237382</v>
+        <v>0.9740376658486364</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9569909039531004</v>
+        <v>0.9487493744918599</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9508467473749719</v>
+        <v>0.9414278565621256</v>
       </c>
       <c r="L16" t="n">
-        <v>3.3478</v>
+        <v>3.3185</v>
       </c>
       <c r="M16" t="n">
-        <v>345.0799650961305</v>
+        <v>349.1028054997951</v>
       </c>
       <c r="N16" t="n">
-        <v>349.9554683956034</v>
+        <v>353.9783087992679</v>
       </c>
       <c r="O16" t="n">
         <v>25</v>
       </c>
       <c r="P16" t="n">
-        <v>237.5490618042191</v>
+        <v>167.550572679248</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.333567399329669e-16</v>
+        <v>8.004607504012023e-15</v>
       </c>
       <c r="R16" t="n">
-        <v>-168.5399825480653</v>
+        <v>-170.5514027498975</v>
       </c>
       <c r="S16" t="n">
-        <v>80.74839491083522</v>
+        <v>80.46808870261627</v>
       </c>
       <c r="T16" t="n">
         <v>3</v>
@@ -1929,25 +1929,25 @@
         <v>21</v>
       </c>
       <c r="X16" t="n">
-        <v>1049891.477787404</v>
+        <v>1233185.205951325</v>
       </c>
       <c r="Y16" t="n">
-        <v>24410917.09164364</v>
+        <v>24061856.68417766</v>
       </c>
       <c r="Z16" t="n">
-        <v>491743418.3953158</v>
+        <v>480834611.5588453</v>
       </c>
       <c r="AA16" t="n">
-        <v>23361025.61385624</v>
+        <v>22828671.47822633</v>
       </c>
       <c r="AB16" t="n">
-        <v>7787008.537952079</v>
+        <v>7609557.159408778</v>
       </c>
       <c r="AC16" t="n">
-        <v>49994.83227559066</v>
+        <v>58723.10504530121</v>
       </c>
       <c r="AD16" t="n">
-        <v>1017121.545485152</v>
+        <v>1002577.361840736</v>
       </c>
       <c r="AG16" t="b">
         <v>1</v>
@@ -1960,55 +1960,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.67384706245939</v>
+        <v>57.94901662953841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3000000000000012</v>
+        <v>-0.06999999999999917</v>
       </c>
       <c r="E17" t="n">
-        <v>2295.818212515375</v>
+        <v>2251.442425660367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0101646937251566</v>
+        <v>0.0005913787031848338</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>20.10518050457228</v>
+        <v>16.86752352754308</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8455964891767604</v>
+        <v>0.842840446881975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7150334225080632</v>
+        <v>0.7103800189002074</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6743239114377866</v>
+        <v>0.6690057358859514</v>
       </c>
       <c r="L17" t="n">
-        <v>2.0353</v>
+        <v>2.0568</v>
       </c>
       <c r="M17" t="n">
-        <v>365.1482142296206</v>
+        <v>365.5750899712458</v>
       </c>
       <c r="N17" t="n">
-        <v>370.0237175290935</v>
+        <v>370.4505932707186</v>
       </c>
       <c r="O17" t="n">
         <v>25</v>
       </c>
       <c r="P17" t="n">
-        <v>67.4747861789554</v>
+        <v>111.7487284288973</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.970760247638935e-11</v>
+        <v>4.528925728212482e-13</v>
       </c>
       <c r="R17" t="n">
-        <v>-178.5741071148103</v>
+        <v>-178.7875449856229</v>
       </c>
       <c r="S17" t="n">
-        <v>83.9373186520381</v>
+        <v>82.43952347517364</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>2342963.941867697</v>
+        <v>2383313.626362216</v>
       </c>
       <c r="Y17" t="n">
-        <v>8221890.308992437</v>
+        <v>8229106.352786522</v>
       </c>
       <c r="Z17" t="n">
-        <v>251119949.255429</v>
+        <v>257444925.8675674</v>
       </c>
       <c r="AA17" t="n">
-        <v>5878926.36712474</v>
+        <v>5845792.726424307</v>
       </c>
       <c r="AB17" t="n">
-        <v>1959642.122374913</v>
+        <v>1948597.575474769</v>
       </c>
       <c r="AC17" t="n">
-        <v>111569.7115175094</v>
+        <v>113491.1250648674</v>
       </c>
       <c r="AD17" t="n">
-        <v>342578.7628746849</v>
+        <v>342879.4313661051</v>
       </c>
       <c r="AG17" t="b">
         <v>1</v>
@@ -2048,55 +2048,55 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.95637788850458</v>
+        <v>45.09668293213124</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>0.2700000000000011</v>
       </c>
       <c r="E18" t="n">
-        <v>2797.074343275713</v>
+        <v>2807.908123604399</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03052433312918199</v>
+        <v>0.01624923532697428</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>21.7067139602842</v>
+        <v>18.76472645404908</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7456238139408708</v>
+        <v>0.749809517741552</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5559548719157305</v>
+        <v>0.5622143128958188</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4925198536179777</v>
+        <v>0.4996735004523644</v>
       </c>
       <c r="L18" t="n">
-        <v>1.6742</v>
+        <v>1.6334</v>
       </c>
       <c r="M18" t="n">
-        <v>367.8033216879484</v>
+        <v>367.8338348011914</v>
       </c>
       <c r="N18" t="n">
-        <v>372.6788249874212</v>
+        <v>372.7093381006642</v>
       </c>
       <c r="O18" t="n">
         <v>25</v>
       </c>
       <c r="P18" t="n">
-        <v>53.66297975717655</v>
+        <v>69.61740267834799</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.090191071634637e-10</v>
+        <v>4.438727430828906e-11</v>
       </c>
       <c r="R18" t="n">
-        <v>-179.9016608439742</v>
+        <v>-179.9169174005957</v>
       </c>
       <c r="S18" t="n">
-        <v>61.74335176722828</v>
+        <v>60.13686100419854</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
@@ -2105,25 +2105,25 @@
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>2605490.809493757</v>
+        <v>2608672.816402436</v>
       </c>
       <c r="Y18" t="n">
-        <v>5867626.159382826</v>
+        <v>5958789.638962413</v>
       </c>
       <c r="Z18" t="n">
-        <v>249267780.2757598</v>
+        <v>237571912.9562857</v>
       </c>
       <c r="AA18" t="n">
-        <v>3262135.349889068</v>
+        <v>3350116.822559977</v>
       </c>
       <c r="AB18" t="n">
-        <v>1087378.449963023</v>
+        <v>1116705.607519992</v>
       </c>
       <c r="AC18" t="n">
-        <v>124070.9909282742</v>
+        <v>124222.5150667827</v>
       </c>
       <c r="AD18" t="n">
-        <v>244484.4233076177</v>
+        <v>248282.9016234339</v>
       </c>
       <c r="AG18" t="b">
         <v>1</v>
@@ -2136,55 +2136,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.45729792005012</v>
+        <v>-4.189089362402155</v>
       </c>
       <c r="D19" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>-0.2999999999999994</v>
       </c>
       <c r="E19" t="n">
-        <v>3600.071787154308</v>
+        <v>3798.893352514379</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3172236625838764</v>
+        <v>0.8341207130315182</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>20.45362710332734</v>
+        <v>20.00333238043571</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5762853008661328</v>
+        <v>0.5395793266458799</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3321047479943693</v>
+        <v>0.2911458497436212</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2366911405649935</v>
+        <v>0.1898809711355671</v>
       </c>
       <c r="L19" t="n">
-        <v>1.914</v>
+        <v>1.6452</v>
       </c>
       <c r="M19" t="n">
-        <v>377.3904749258922</v>
+        <v>378.7269598815548</v>
       </c>
       <c r="N19" t="n">
-        <v>382.265978225365</v>
+        <v>383.6024631810276</v>
       </c>
       <c r="O19" t="n">
         <v>25</v>
       </c>
       <c r="P19" t="n">
-        <v>41.52661870787676</v>
+        <v>29.33196787028414</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.225738162114509e-09</v>
+        <v>1.063036743527298e-07</v>
       </c>
       <c r="R19" t="n">
-        <v>-184.6952374629461</v>
+        <v>-185.3634799407774</v>
       </c>
       <c r="S19" t="n">
-        <v>63.64858107364012</v>
+        <v>57.25310514991502</v>
       </c>
       <c r="T19" t="n">
         <v>3</v>
@@ -2193,25 +2193,25 @@
         <v>21</v>
       </c>
       <c r="X19" t="n">
-        <v>3823274.282624328</v>
+        <v>4033226.176439637</v>
       </c>
       <c r="Y19" t="n">
-        <v>5724362.122867877</v>
+        <v>5689782.834707107</v>
       </c>
       <c r="Z19" t="n">
-        <v>324298479.8803561</v>
+        <v>235255944.4398523</v>
       </c>
       <c r="AA19" t="n">
-        <v>1901087.840243549</v>
+        <v>1656556.658267471</v>
       </c>
       <c r="AB19" t="n">
-        <v>633695.9467478497</v>
+        <v>552185.5527558235</v>
       </c>
       <c r="AC19" t="n">
-        <v>182060.680124968</v>
+        <v>192058.3893542684</v>
       </c>
       <c r="AD19" t="n">
-        <v>238515.0884528282</v>
+        <v>237074.2847794628</v>
       </c>
       <c r="AG19" t="b">
         <v>1</v>
@@ -2224,55 +2224,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.022241282077457</v>
+        <v>-2.274845581904483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6500000000000015</v>
+        <v>0.7900000000000016</v>
       </c>
       <c r="E20" t="n">
-        <v>2972.248545108507</v>
+        <v>3033.339944235189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6329382858827105</v>
+        <v>0.8810293636564577</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>14.70333035313263</v>
+        <v>15.19963966201944</v>
       </c>
       <c r="I20" t="n">
-        <v>0.611870236679516</v>
+        <v>0.5866087974306062</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3743851865342469</v>
+        <v>0.344109881222982</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2850116417534251</v>
+        <v>0.2504112928262652</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5886</v>
+        <v>1.5422</v>
       </c>
       <c r="M20" t="n">
-        <v>360.2138159098444</v>
+        <v>361.3905186330751</v>
       </c>
       <c r="N20" t="n">
-        <v>365.0893192093172</v>
+        <v>366.266021932548</v>
       </c>
       <c r="O20" t="n">
         <v>25</v>
       </c>
       <c r="P20" t="n">
-        <v>68.86001422956581</v>
+        <v>97.76862159627096</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.924513248268565e-11</v>
+        <v>1.680801820159155e-12</v>
       </c>
       <c r="R20" t="n">
-        <v>-176.1069079549222</v>
+        <v>-176.6952593165376</v>
       </c>
       <c r="S20" t="n">
-        <v>58.30268901251782</v>
+        <v>57.52598107178973</v>
       </c>
       <c r="T20" t="n">
         <v>3</v>
@@ -2281,25 +2281,25 @@
         <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>1923296.876965635</v>
+        <v>2015987.088788005</v>
       </c>
       <c r="Y20" t="n">
-        <v>3074250.857825826</v>
+        <v>3073665.894749326</v>
       </c>
       <c r="Z20" t="n">
-        <v>166057802.2083453</v>
+        <v>159609202.3462834</v>
       </c>
       <c r="AA20" t="n">
-        <v>1150953.98086019</v>
+        <v>1057678.805961322</v>
       </c>
       <c r="AB20" t="n">
-        <v>383651.3269533968</v>
+        <v>352559.6019871072</v>
       </c>
       <c r="AC20" t="n">
-        <v>91585.56556979216</v>
+        <v>95999.38518038117</v>
       </c>
       <c r="AD20" t="n">
-        <v>128093.7857427428</v>
+        <v>128069.4122812219</v>
       </c>
       <c r="AG20" t="b">
         <v>1</v>
@@ -2312,55 +2312,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17.10471849026666</v>
+        <v>13.03985420481426</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2499999999999993</v>
+        <v>0.9100000000000017</v>
       </c>
       <c r="E21" t="n">
-        <v>1330.403980805591</v>
+        <v>1357.724085723645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0005053971243595235</v>
+        <v>0.002854370865848062</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.918145851998359</v>
+        <v>4.37138784779039</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5061939946187031</v>
+        <v>0.473661114033446</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2562323601880396</v>
+        <v>0.2243548509474051</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1499798402149025</v>
+        <v>0.1135484010827488</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7592</v>
+        <v>1.7119</v>
       </c>
       <c r="M21" t="n">
-        <v>323.670675935563</v>
+        <v>324.6997321400099</v>
       </c>
       <c r="N21" t="n">
-        <v>328.5461792350358</v>
+        <v>329.5752354394828</v>
       </c>
       <c r="O21" t="n">
         <v>25</v>
       </c>
       <c r="P21" t="n">
-        <v>14.62189900972913</v>
+        <v>7.62086023736362</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.285965038880693e-05</v>
+        <v>0.001242687531010555</v>
       </c>
       <c r="R21" t="n">
-        <v>-157.8353379677815</v>
+        <v>-158.349866070005</v>
       </c>
       <c r="S21" t="n">
-        <v>77.50157840483875</v>
+        <v>74.59753120536077</v>
       </c>
       <c r="T21" t="n">
         <v>3</v>
@@ -2369,25 +2369,25 @@
         <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>445889.2116985332</v>
+        <v>464625.9926536477</v>
       </c>
       <c r="Y21" t="n">
-        <v>599500.6878912654</v>
+        <v>599018.7564779605</v>
       </c>
       <c r="Z21" t="n">
-        <v>45155201.2243883</v>
+        <v>43643233.36537024</v>
       </c>
       <c r="AA21" t="n">
-        <v>153611.4761927322</v>
+        <v>134392.7638243128</v>
       </c>
       <c r="AB21" t="n">
-        <v>51203.82539757741</v>
+        <v>44797.58794143761</v>
       </c>
       <c r="AC21" t="n">
-        <v>21232.81960469206</v>
+        <v>22125.04726922132</v>
       </c>
       <c r="AD21" t="n">
-        <v>24979.19532880273</v>
+        <v>24959.11485324835</v>
       </c>
       <c r="AG21" t="b">
         <v>1</v>
@@ -2400,55 +2400,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.72041709653464</v>
+        <v>12.37476235015248</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1499999999999992</v>
+        <v>0.4400000000000013</v>
       </c>
       <c r="E22" t="n">
-        <v>570.6394298161867</v>
+        <v>574.3183195709853</v>
       </c>
       <c r="F22" t="n">
-        <v>4.129643985065665e-26</v>
+        <v>2.978888567729479e-20</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.29812179587503</v>
+        <v>1.342206494516418</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7800727996560461</v>
+        <v>0.7896487485415598</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6085135727632218</v>
+        <v>0.6235451460732514</v>
       </c>
       <c r="K22" t="n">
-        <v>0.552586940300825</v>
+        <v>0.5697658812265731</v>
       </c>
       <c r="L22" t="n">
-        <v>1.2539</v>
+        <v>1.0311</v>
       </c>
       <c r="M22" t="n">
-        <v>281.9220105992185</v>
+        <v>283.0228164371912</v>
       </c>
       <c r="N22" t="n">
-        <v>286.7975138986913</v>
+        <v>287.8983197366641</v>
       </c>
       <c r="O22" t="n">
         <v>25</v>
       </c>
       <c r="P22" t="n">
-        <v>47.2738025688494</v>
+        <v>42.65291543062798</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62630737511367e-09</v>
+        <v>4.114001105820528e-09</v>
       </c>
       <c r="R22" t="n">
-        <v>-136.9610052996092</v>
+        <v>-137.5114082185956</v>
       </c>
       <c r="S22" t="n">
-        <v>58.6586673759551</v>
+        <v>55.10152840372229</v>
       </c>
       <c r="T22" t="n">
         <v>3</v>
@@ -2457,25 +2457,25 @@
         <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>83941.81694629298</v>
+        <v>87720.54504242903</v>
       </c>
       <c r="Y22" t="n">
-        <v>214418.2048373376</v>
+        <v>233017.4365595984</v>
       </c>
       <c r="Z22" t="n">
-        <v>6142113.74244031</v>
+        <v>4166943.053303646</v>
       </c>
       <c r="AA22" t="n">
-        <v>130476.3878910446</v>
+        <v>145296.8915171694</v>
       </c>
       <c r="AB22" t="n">
-        <v>43492.12929701487</v>
+        <v>48432.2971723898</v>
       </c>
       <c r="AC22" t="n">
-        <v>3997.229378394904</v>
+        <v>4177.168811544239</v>
       </c>
       <c r="AD22" t="n">
-        <v>8934.0918682224</v>
+        <v>9709.059856649934</v>
       </c>
       <c r="AG22" t="b">
         <v>1</v>
@@ -2488,55 +2488,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-226.9153120139885</v>
+        <v>-184.3673708088122</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5500000000000014</v>
+        <v>0.5000000000000013</v>
       </c>
       <c r="E23" t="n">
-        <v>2602.666433541243</v>
+        <v>2344.036177530858</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01033511973272389</v>
+        <v>0.00440466452834505</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>88.48634112161008</v>
+        <v>64.74423490042285</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6063398316960144</v>
+        <v>0.5787078613268215</v>
       </c>
       <c r="J23" t="n">
-        <v>0.367647991501151</v>
+        <v>0.3349027887614637</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2773119902870298</v>
+        <v>0.2398889014416729</v>
       </c>
       <c r="L23" t="n">
-        <v>2.7419</v>
+        <v>2.7182</v>
       </c>
       <c r="M23" t="n">
-        <v>434.5958676195353</v>
+        <v>435.6729198482243</v>
       </c>
       <c r="N23" t="n">
-        <v>439.4713709190082</v>
+        <v>440.5484231476971</v>
       </c>
       <c r="O23" t="n">
         <v>25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.370912569797326</v>
+        <v>3.489472871391472</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.09939710871279775</v>
+        <v>0.03378243278721029</v>
       </c>
       <c r="R23" t="n">
-        <v>-213.2979338097677</v>
+        <v>-213.8364599241121</v>
       </c>
       <c r="S23" t="n">
-        <v>77.75895472545363</v>
+        <v>79.04653928055023</v>
       </c>
       <c r="T23" t="n">
         <v>3</v>
@@ -2545,25 +2545,25 @@
         <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>37687290.11092941</v>
+        <v>39346420.08254515</v>
       </c>
       <c r="Y23" t="n">
-        <v>59598593.19557773</v>
+        <v>59158901.01128933</v>
       </c>
       <c r="Z23" t="n">
-        <v>68937306.35781457</v>
+        <v>68325340.20005992</v>
       </c>
       <c r="AA23" t="n">
-        <v>21911303.08464832</v>
+        <v>19812480.92874417</v>
       </c>
       <c r="AB23" t="n">
-        <v>7303767.694882773</v>
+        <v>6604160.309581392</v>
       </c>
       <c r="AC23" t="n">
-        <v>1794632.86242521</v>
+        <v>1873639.051549769</v>
       </c>
       <c r="AD23" t="n">
-        <v>2483274.716482405</v>
+        <v>2464954.208803722</v>
       </c>
       <c r="AG23" t="b">
         <v>1</v>
@@ -2576,55 +2576,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.3249121994183</v>
+        <v>110.5974760144793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2500000000000011</v>
+        <v>-0.1899999999999993</v>
       </c>
       <c r="E24" t="n">
-        <v>12904.97397187842</v>
+        <v>12911.20412880136</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1161989143417029</v>
+        <v>0.01980489473775976</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>70.22904504255936</v>
+        <v>47.46624362739993</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8125340573863745</v>
+        <v>0.8165194253402235</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6602115944127642</v>
+        <v>0.6667039719579287</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6116703936145877</v>
+        <v>0.6190902536662043</v>
       </c>
       <c r="L24" t="n">
-        <v>2.4338</v>
+        <v>2.4467</v>
       </c>
       <c r="M24" t="n">
-        <v>428.5368864267708</v>
+        <v>428.1933340984255</v>
       </c>
       <c r="N24" t="n">
-        <v>433.4123897262436</v>
+        <v>433.0688373978983</v>
       </c>
       <c r="O24" t="n">
         <v>25</v>
       </c>
       <c r="P24" t="n">
-        <v>44.62010274727595</v>
+        <v>37.03387952691522</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.743507310393554e-09</v>
+        <v>1.438088829420502e-08</v>
       </c>
       <c r="R24" t="n">
-        <v>-210.2684432133854</v>
+        <v>-210.0966670492127</v>
       </c>
       <c r="S24" t="n">
-        <v>75.28473958599123</v>
+        <v>75.92018372539411</v>
       </c>
       <c r="T24" t="n">
         <v>3</v>
@@ -2633,25 +2633,25 @@
         <v>21</v>
       </c>
       <c r="X24" t="n">
-        <v>29576012.89310049</v>
+        <v>29172356.46387782</v>
       </c>
       <c r="Y24" t="n">
-        <v>87042442.90497801</v>
+        <v>87526865.03721386</v>
       </c>
       <c r="Z24" t="n">
-        <v>7836209062.667273</v>
+        <v>7924811623.079099</v>
       </c>
       <c r="AA24" t="n">
-        <v>57466430.01187752</v>
+        <v>58354508.57333604</v>
       </c>
       <c r="AB24" t="n">
-        <v>19155476.67062584</v>
+        <v>19451502.85777868</v>
       </c>
       <c r="AC24" t="n">
-        <v>1408381.566338118</v>
+        <v>1389159.83161323</v>
       </c>
       <c r="AD24" t="n">
-        <v>3626768.454374084</v>
+        <v>3646952.709883911</v>
       </c>
       <c r="AG24" t="b">
         <v>1</v>
@@ -2664,55 +2664,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.9109266244387</v>
+        <v>93.12033137210339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4500000000000013</v>
+        <v>0.110000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>5043.56643807552</v>
+        <v>5060.322930194549</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0148180920192325</v>
+        <v>0.004867939068392584</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>39.35946223642264</v>
+        <v>33.07246618736397</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8459757358598627</v>
+        <v>0.8500797215089094</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7156749456636362</v>
+        <v>0.7226355329206651</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6750570807584414</v>
+        <v>0.6830120376236173</v>
       </c>
       <c r="L25" t="n">
-        <v>2.078</v>
+        <v>2.1491</v>
       </c>
       <c r="M25" t="n">
-        <v>394.5386098166296</v>
+        <v>394.1430626876117</v>
       </c>
       <c r="N25" t="n">
-        <v>399.4141131161024</v>
+        <v>399.0185659870845</v>
       </c>
       <c r="O25" t="n">
         <v>25</v>
       </c>
       <c r="P25" t="n">
-        <v>20.44083048096543</v>
+        <v>39.81436318448797</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.953566904409394e-06</v>
+        <v>7.59885790838291e-09</v>
       </c>
       <c r="R25" t="n">
-        <v>-193.2693049083148</v>
+        <v>-193.0715313438058</v>
       </c>
       <c r="S25" t="n">
-        <v>69.4029338403881</v>
+        <v>71.11689294140506</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
@@ -2721,25 +2721,25 @@
         <v>21</v>
       </c>
       <c r="X25" t="n">
-        <v>7591525.75663412</v>
+        <v>7472358.717456183</v>
       </c>
       <c r="Y25" t="n">
-        <v>26700164.62092416</v>
+        <v>26940576.76580055</v>
       </c>
       <c r="Z25" t="n">
-        <v>1142492405.683582</v>
+        <v>1217625435.68568</v>
       </c>
       <c r="AA25" t="n">
-        <v>19108638.86429004</v>
+        <v>19468218.04834437</v>
       </c>
       <c r="AB25" t="n">
-        <v>6369546.28809668</v>
+        <v>6489406.01611479</v>
       </c>
       <c r="AC25" t="n">
-        <v>361501.2265063867</v>
+        <v>355826.6055931516</v>
       </c>
       <c r="AD25" t="n">
-        <v>1112506.859205173</v>
+        <v>1122524.031908356</v>
       </c>
       <c r="AG25" t="b">
         <v>1</v>
@@ -2752,55 +2752,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>169.6313785369969</v>
+        <v>166.662539988478</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0999999999999992</v>
+        <v>0.08000000000000096</v>
       </c>
       <c r="E26" t="n">
-        <v>18318.41080163793</v>
+        <v>18374.77908807858</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03836088624201017</v>
+        <v>0.002593940243220231</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>81.90884138566977</v>
+        <v>55.32987049031978</v>
       </c>
       <c r="I26" t="n">
-        <v>0.79581339348068</v>
+        <v>0.8013316658359375</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6333189572432356</v>
+        <v>0.6421324386713987</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5809359511351264</v>
+        <v>0.5910085013387414</v>
       </c>
       <c r="L26" t="n">
-        <v>1.7829</v>
+        <v>1.7185</v>
       </c>
       <c r="M26" t="n">
-        <v>449.3149610857268</v>
+        <v>448.8616034149661</v>
       </c>
       <c r="N26" t="n">
-        <v>454.1904643851997</v>
+        <v>453.7371067144389</v>
       </c>
       <c r="O26" t="n">
         <v>25</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78918990223919</v>
+        <v>125.8033843613638</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.713535369838796e-11</v>
+        <v>1.403482352749216e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>-220.6574805428634</v>
+        <v>-220.430801707483</v>
       </c>
       <c r="S26" t="n">
-        <v>59.69849801004321</v>
+        <v>58.04272432996131</v>
       </c>
       <c r="T26" t="n">
         <v>3</v>
@@ -2809,25 +2809,25 @@
         <v>21</v>
       </c>
       <c r="X26" t="n">
-        <v>67903436.46243431</v>
+        <v>66683152.65229149</v>
       </c>
       <c r="Y26" t="n">
-        <v>185183929.7497515</v>
+        <v>186334722.277501</v>
       </c>
       <c r="Z26" t="n">
-        <v>8614682913.00589</v>
+        <v>8013248349.975239</v>
       </c>
       <c r="AA26" t="n">
-        <v>117280493.2873172</v>
+        <v>119651569.6252096</v>
       </c>
       <c r="AB26" t="n">
-        <v>39093497.76243908</v>
+        <v>39883856.54173652</v>
       </c>
       <c r="AC26" t="n">
-        <v>3233496.974401634</v>
+        <v>3175388.22153769</v>
       </c>
       <c r="AD26" t="n">
-        <v>7715997.072906314</v>
+        <v>7763946.761562544</v>
       </c>
       <c r="AG26" t="b">
         <v>1</v>
@@ -2911,38 +2911,38 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-82.3913092235118</v>
+        <v>-91.60636515035414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002303662946313513</v>
+        <v>2.101875174167342e-07</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-126.23525878089208, -38.54735966613151]</t>
+          <t>[-126.20018240178723, -57.01254789892104]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22.36977306890115</v>
+        <v>17.65023108807341</v>
       </c>
       <c r="G2" t="n">
-        <v>37.98457813802297</v>
+        <v>44.76482151085283</v>
       </c>
       <c r="H2" t="n">
-        <v>6.553542589500305e-09</v>
+        <v>2.616584850325129e-11</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[25.15303204704437, 50.81612422900157]</t>
+          <t>[31.60422798460428, 57.925415037101374]</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>6.54682748876622</v>
+        <v>6.714711918207492</v>
       </c>
     </row>
     <row r="3">
@@ -2952,38 +2952,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-281.0676965470567</v>
+        <v>-295.553491449559</v>
       </c>
       <c r="C3" t="n">
-        <v>5.870671481200783e-10</v>
+        <v>6.182071579980901e-13</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-370.0077380685414, -192.12765502557198]</t>
+          <t>[-376.04843014294454, -215.05855275617355]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>45.37840604369898</v>
+        <v>41.06960093569029</v>
       </c>
       <c r="G3" t="n">
-        <v>32.11357526508033</v>
+        <v>27.07897135826776</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01624530580385788</v>
+        <v>0.001302108922927412</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[5.924605851590698, 58.30254467856996]</t>
+          <t>[10.573429952428967, 43.58451276410656]</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>13.36196461775057</v>
+        <v>8.421349339086026</v>
       </c>
     </row>
     <row r="4">
@@ -2993,38 +2993,38 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-334.986320656102</v>
+        <v>-292.0379788186362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004614691916338157</v>
+        <v>0.02173033464567331</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-566.7600525489979, -103.21258876320599]</t>
+          <t>[-541.437447114878, -42.6385105223944]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>118.2540769734024</v>
+        <v>127.2469648745962</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.429091317965725</v>
+        <v>10.09329851072939</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4673321939886275</v>
+        <v>0.6214245429823231</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[-34.85562320993207, 15.99744057400062]</t>
+          <t>[-29.965841428473478, 50.15243844993225]</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>12.97295873420511</v>
+        <v>20.43871226980917</v>
       </c>
     </row>
     <row r="5">
@@ -3034,38 +3034,38 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2261.77285368183</v>
+        <v>-2106.090863519452</v>
       </c>
       <c r="C5" t="n">
-        <v>3.761898018218638e-07</v>
+        <v>3.198591755744082e-09</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-3134.3015292621467, -1389.244178101514]</t>
+          <t>[-2803.239219138685, -1408.942507900219]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>445.175871833723</v>
+        <v>355.6944725098269</v>
       </c>
       <c r="G5" t="n">
-        <v>-99.47005518207571</v>
+        <v>-21.62150578550834</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2543822279811031</v>
+        <v>0.847302508985094</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[-270.52014752609153, 71.58003716194013]</t>
+          <t>[-241.69355293639686, 198.4505413653802]</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>87.2720589221216</v>
+        <v>112.2837199493403</v>
       </c>
     </row>
     <row r="6">
@@ -3075,38 +3075,38 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-946.8082675614407</v>
+        <v>-1182.3055141783</v>
       </c>
       <c r="C6" t="n">
-        <v>2.793899835000874e-12</v>
+        <v>5.014576344901678e-17</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-1212.3756057757973, -681.2409293470843]</t>
+          <t>[-1458.6206570883833, -905.9903712682167]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>135.4960296766256</v>
+        <v>140.9797042647834</v>
       </c>
       <c r="G6" t="n">
-        <v>222.7956796529037</v>
+        <v>136.2740121986694</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006449109180513319</v>
+        <v>0.1212436227030042</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[62.492058833110804, 383.09930047269654]</t>
+          <t>[-36.090799382292374, 308.63882377963114]</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>81.78906453600544</v>
+        <v>87.94284636888914</v>
       </c>
     </row>
     <row r="7">
@@ -3116,38 +3116,38 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-84.96884117783276</v>
+        <v>-97.49045458629233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02679469277517085</v>
+        <v>0.01758259412322216</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-160.17145394480215, -9.766228410863363]</t>
+          <t>[-177.9682151636922, -17.01269400889244]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>38.36938502960157</v>
+        <v>41.06083642974983</v>
       </c>
       <c r="G7" t="n">
-        <v>8.629757376945932</v>
+        <v>0.6389989642547763</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05120638685452483</v>
+        <v>0.9450176740971263</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[-0.045225236372655075, 17.30473999026452]</t>
+          <t>[-17.521218609758215, 18.799216538267764]</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>4.426092867902545</v>
+        <v>9.26558738694102</v>
       </c>
     </row>
     <row r="8">
@@ -3157,38 +3157,38 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-65.16138573779074</v>
+        <v>-124.398799059046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005278088918750176</v>
+        <v>0.0001313046940280828</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-110.94434032328118, -19.378431152300294]</t>
+          <t>[-188.15854256987134, -60.63905554822074]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>23.35907952728752</v>
+        <v>32.53107914928745</v>
       </c>
       <c r="G8" t="n">
-        <v>17.17420163497234</v>
+        <v>-4.506097882923988</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001080496469399266</v>
+        <v>0.6294963142513885</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[8.480283543295199, 25.86811972664949]</t>
+          <t>[-22.81275648954355, 13.800560723695572]</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4.435754003774387</v>
+        <v>9.340303572422835</v>
       </c>
     </row>
     <row r="9">
@@ -3198,38 +3198,38 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-211.6913332570118</v>
+        <v>-188.6182229352323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001385008401424545</v>
+        <v>0.007298632424875716</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[-341.44083051535995, -81.94183599866358]</t>
+          <t>[-326.411139741508, -50.82530612895653]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>66.19993953041774</v>
+        <v>70.3038004234612</v>
       </c>
       <c r="G9" t="n">
-        <v>-25.55111341938943</v>
+        <v>-6.642344511925955</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007007305250257944</v>
+        <v>0.6876966034830723</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[-44.123084446784915, -6.979142391993957]</t>
+          <t>[-39.02868652513806, 25.743997501286152]</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9.475669539791964</v>
+        <v>16.52394751570511</v>
       </c>
     </row>
     <row r="10">
@@ -3239,38 +3239,38 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-346.0528640369835</v>
+        <v>-274.0173978780176</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000398043241316563</v>
+        <v>0.003134613032443266</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[-537.5746940248025, -154.53103404916456]</t>
+          <t>[-455.8130604216196, -92.22173533441565]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>97.71701495462096</v>
+        <v>92.75459344027898</v>
       </c>
       <c r="G10" t="n">
-        <v>21.37802164834808</v>
+        <v>60.38394828485556</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2271081697920871</v>
+        <v>0.02024520395421817</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[-13.312081815884387, 56.068125112580546]</t>
+          <t>[9.409798895172031, 111.35809767453908]</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>17.69935760955996</v>
+        <v>26.00769697390417</v>
       </c>
     </row>
     <row r="11">
@@ -3280,38 +3280,38 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-309.7788821317049</v>
+        <v>-260.7743145728212</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007367137414505118</v>
+        <v>0.0007260719054479028</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-489.6480928788863, -129.9096713845235]</t>
+          <t>[-412.0103513670414, -109.53827777860101]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>91.77169180962854</v>
+        <v>77.16266114436324</v>
       </c>
       <c r="G11" t="n">
-        <v>-20.97250802001273</v>
+        <v>-1.966858981748204</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1557876560308152</v>
+        <v>0.9171878490024236</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[-49.9325471591803, 7.987531119154848]</t>
+          <t>[-39.042215599920056, 35.10849763642365]</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>14.77580168186797</v>
+        <v>18.91634586687181</v>
       </c>
     </row>
     <row r="12">
@@ -3321,38 +3321,38 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-30.71189432824374</v>
+        <v>-25.25209975410758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000790972798308156</v>
+        <v>0.0004120484041162034</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-48.64853925995318, -12.775249396534306]</t>
+          <t>[-39.26392933833656, -11.240270169878606]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9.151517616237546</v>
+        <v>7.149024010008603</v>
       </c>
       <c r="G12" t="n">
-        <v>8.119664321048154</v>
+        <v>11.67059677993883</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03926921191778175</v>
+        <v>0.002069540225053543</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[0.39937749727715577, 15.839951144819151]</t>
+          <t>[4.2441514309168085, 19.097042128960855]</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3.938994228806057</v>
+        <v>3.789072354186545</v>
       </c>
     </row>
     <row r="13">
@@ -3362,38 +3362,38 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.4637306869131</v>
+        <v>-9.181158161205108</v>
       </c>
       <c r="C13" t="n">
-        <v>1.703618644356432e-06</v>
+        <v>9.909116835798538e-05</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[-17.56816252851432, -7.35929884531187]</t>
+          <t>[-13.803720087925923, -4.558596234484293]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.604349815539639</v>
+        <v>2.358493300480516</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93536061993556</v>
+        <v>3.277716156379133</v>
       </c>
       <c r="H13" t="n">
-        <v>2.86381037987283e-06</v>
+        <v>1.066734380661284e-18</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[1.1249010439951732, 2.7458201958759467]</t>
+          <t>[2.5499987638766766, 4.005433548881589]</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.4135073819382338</v>
+        <v>0.3712912064928733</v>
       </c>
     </row>
     <row r="14">
@@ -3403,38 +3403,38 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-452.3574361580579</v>
+        <v>-384.0915071869752</v>
       </c>
       <c r="C14" t="n">
-        <v>1.309154440898134e-09</v>
+        <v>6.191991194370312e-08</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-598.5105692258321, -306.2043030902837]</t>
+          <t>[-523.1608559898145, -245.0221583841358]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>74.56929526287803</v>
+        <v>70.95505320495715</v>
       </c>
       <c r="G14" t="n">
-        <v>-22.58594166801389</v>
+        <v>15.10254254830331</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2200146513628966</v>
+        <v>0.3889293403923746</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[-58.67890816104756, 13.507024825019784]</t>
+          <t>[-19.254226126026836, 49.459311222633445]</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>18.41511720507641</v>
+        <v>17.52928571409064</v>
       </c>
     </row>
     <row r="15">
@@ -3444,38 +3444,38 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-692.5969598239146</v>
+        <v>-655.4955959518696</v>
       </c>
       <c r="C15" t="n">
-        <v>1.307605585643711e-23</v>
+        <v>2.519270741034183e-16</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-828.138095611236, -557.0558240365932]</t>
+          <t>[-812.2799623638905, -498.7112295398487]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>69.15491144554321</v>
+        <v>79.9934935788188</v>
       </c>
       <c r="G15" t="n">
-        <v>1.665095394630229</v>
+        <v>16.0309748805521</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9541438993444398</v>
+        <v>0.6109478831840247</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[-55.08817034745656, 58.41836113671702]</t>
+          <t>[-45.73203606114002, 77.79398582224421]</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>28.95627990603364</v>
+        <v>31.51231932263596</v>
       </c>
     </row>
     <row r="16">
@@ -3485,38 +3485,38 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-759.8258269265292</v>
+        <v>-787.0961634650663</v>
       </c>
       <c r="C16" t="n">
-        <v>5.430061500374169e-27</v>
+        <v>4.291475129224874e-35</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-898.2551631981835, -621.3964906548749]</t>
+          <t>[-911.9065652376428, -662.2857616924898]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>70.62851019894613</v>
+        <v>63.67994654854119</v>
       </c>
       <c r="G16" t="n">
-        <v>48.37517910707202</v>
+        <v>40.29089913068559</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008432789190413353</v>
+        <v>0.01831062818895413</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[19.972428023062722, 76.77793019108132]</t>
+          <t>[6.819313410663234, 73.76248485070795]</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>14.49146581674285</v>
+        <v>17.07765345896249</v>
       </c>
     </row>
     <row r="17">
@@ -3526,38 +3526,38 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-734.7022431692861</v>
+        <v>-765.9427604765413</v>
       </c>
       <c r="C17" t="n">
-        <v>1.469741423062726e-11</v>
+        <v>2.038553946930406e-11</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-948.0069955611428, -521.3974907774294]</t>
+          <t>[-989.8973514307505, -541.988169522332]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>108.8309550963066</v>
+        <v>114.264646044894</v>
       </c>
       <c r="G17" t="n">
-        <v>28.50452189790689</v>
+        <v>20.17956380657497</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5508873904794529</v>
+        <v>0.7761225430946707</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[-65.16573321876791, 122.17477701458168]</t>
+          <t>[-118.90134177990731, 159.26046939305726]</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>47.7918246740929</v>
+        <v>70.96094963149055</v>
       </c>
     </row>
     <row r="18">
@@ -3567,38 +3567,38 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-860.5207557001527</v>
+        <v>-859.4137658790137</v>
       </c>
       <c r="C18" t="n">
-        <v>1.949418481154756e-17</v>
+        <v>1.973554657370273e-20</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-1059.018538612388, -662.0229727879174]</t>
+          <t>[-1041.2427282631763, -677.584803494851]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>101.2762400115311</v>
+        <v>92.77158346704647</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.16285295464526</v>
+        <v>-8.514189932896782</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7675601689008626</v>
+        <v>0.8044503870347114</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[-85.1857671829391, 62.86006127364858]</t>
+          <t>[-75.91350222871016, 58.88512236291659]</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>37.76748696005495</v>
+        <v>34.38803612079128</v>
       </c>
     </row>
     <row r="19">
@@ -3608,38 +3608,38 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1034.60150881121</v>
+        <v>-913.3399076190691</v>
       </c>
       <c r="C19" t="n">
-        <v>7.692557517268225e-24</v>
+        <v>2.808060003849629e-08</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-1236.0205497183574, -833.1824679040633]</t>
+          <t>[-1235.7085206791257, -590.9712945590124]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>102.7667051516838</v>
+        <v>164.4768044733776</v>
       </c>
       <c r="G19" t="n">
-        <v>-71.01021553381089</v>
+        <v>-21.73432981040717</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06134860560972519</v>
+        <v>0.7119473987780941</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[-145.39789940010056, 3.37746833247877]</t>
+          <t>[-137.1017873936695, 93.63312777285515]</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>37.95359733803796</v>
+        <v>58.86202935016465</v>
       </c>
     </row>
     <row r="20">
@@ -3649,38 +3649,38 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-727.2336869951195</v>
+        <v>-703.1843579442902</v>
       </c>
       <c r="C20" t="n">
-        <v>1.98736847635142e-34</v>
+        <v>1.679305538257791e-37</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-843.7185988985378, -610.7487750917011]</t>
+          <t>[-810.8731533897859, -595.4955624987946]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>59.43216958180685</v>
+        <v>54.94427259629826</v>
       </c>
       <c r="G20" t="n">
-        <v>-51.1753228928693</v>
+        <v>-44.87963934374109</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02651517075742637</v>
+        <v>0.2219476107940854</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[-96.38518522118011, -5.965460564558505]</t>
+          <t>[-116.89941286704341, 27.14013417956123]</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>23.06668014561514</v>
+        <v>36.74545761625474</v>
       </c>
     </row>
     <row r="21">
@@ -3690,38 +3690,38 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-264.5257830572552</v>
+        <v>-244.6650320815263</v>
       </c>
       <c r="C21" t="n">
-        <v>1.138478685433769e-09</v>
+        <v>2.399966232334228e-05</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-349.6774583573682, -179.37410775714224]</t>
+          <t>[-358.1910406060266, -131.13902355702595]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>43.44553061779632</v>
+        <v>57.92249726014305</v>
       </c>
       <c r="G21" t="n">
-        <v>-26.83935221223968</v>
+        <v>-27.59456281119613</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05436061340862506</v>
+        <v>0.1733965773228257</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[-54.181077241948316, 0.502372817468963]</t>
+          <t>[-67.32242688265208, 12.13330126025982]</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>13.95011604569098</v>
+        <v>20.2696908641303</v>
       </c>
     </row>
     <row r="22">
@@ -3731,38 +3731,38 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-95.3036845196559</v>
+        <v>-75.06395911853865</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00478551211910214</v>
+        <v>0.06174380138568848</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[-161.51542564827764, -29.09194339103415]</t>
+          <t>[-153.8178845973011, 3.689966360223778]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>33.7821213302344</v>
+        <v>40.18131256490596</v>
       </c>
       <c r="G22" t="n">
-        <v>-14.93092635860924</v>
+        <v>-18.73778000612517</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002477169325665534</v>
+        <v>0.003684295324735526</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[-24.601432775873022, -5.260419941345464]</t>
+          <t>[-31.384263722377405, -6.091296289872934]</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>4.934022509364203</v>
+        <v>6.452406174810398</v>
       </c>
     </row>
     <row r="23">
@@ -3772,38 +3772,38 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1281.9808170619</v>
+        <v>1470.176822009701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03557943037506991</v>
+        <v>0.007305121032524597</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[86.45604503846153, 2477.5055890853378]</t>
+          <t>[396.0367248349046, 2544.3169191844972]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>609.9728267731372</v>
+        <v>548.0407322009366</v>
       </c>
       <c r="G23" t="n">
-        <v>384.5789513603021</v>
+        <v>451.5326491165393</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01310473632527432</v>
+        <v>0.007841952083163814</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[80.75462208064624, 688.403280639958]</t>
+          <t>[118.68032451471845, 784.3849737183601]</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>155.0152613395876</v>
+        <v>169.8257351805021</v>
       </c>
     </row>
     <row r="24">
@@ -3813,38 +3813,38 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3991.634987300355</v>
+        <v>-3895.136028801265</v>
       </c>
       <c r="C24" t="n">
-        <v>4.609304422779502e-23</v>
+        <v>1.359602447333951e-18</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[-4782.698286834353, -3200.571687766356]</t>
+          <t>[-4762.603691759086, -3027.6683658434426]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>403.6111407014645</v>
+        <v>442.5936750880609</v>
       </c>
       <c r="G24" t="n">
-        <v>76.22763220780062</v>
+        <v>134.094757252686</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6344659312080989</v>
+        <v>0.4885505844951842</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[-238.00786522803412, 390.4631296436354]</t>
+          <t>[-245.36645288904506, 513.555967394417]</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>160.3271794351755</v>
+        <v>193.6062157952252</v>
       </c>
     </row>
     <row r="25">
@@ -3854,38 +3854,38 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1750.117368453429</v>
+        <v>-1674.501017093789</v>
       </c>
       <c r="C25" t="n">
-        <v>1.268406281503363e-09</v>
+        <v>1.789376512865412e-09</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[-2315.0935082809547, -1185.1412286259035]</t>
+          <t>[-2220.0528427175072, -1128.9491914700702]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>288.2584293813484</v>
+        <v>278.3478828830334</v>
       </c>
       <c r="G25" t="n">
-        <v>28.32042984618392</v>
+        <v>67.81547346901434</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6901686951868242</v>
+        <v>0.3382836194105695</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[-110.92538588079539, 167.56624557316323]</t>
+          <t>[-70.99107072655158, 206.62201766458026]</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>71.04508900435546</v>
+        <v>70.82096675778445</v>
       </c>
     </row>
     <row r="26">
@@ -3895,38 +3895,38 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5205.089544409322</v>
+        <v>-5005.077315811678</v>
       </c>
       <c r="C26" t="n">
-        <v>1.062612001063655e-31</v>
+        <v>3.923858312626325e-50</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[-6075.889444992739, -4334.289643825905]</t>
+          <t>[-5663.966800068777, -4346.187831554579]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>444.2938275663105</v>
+        <v>336.1742814941168</v>
       </c>
       <c r="G26" t="n">
-        <v>149.3208493765467</v>
+        <v>264.671733985108</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4130339107131122</v>
+        <v>0.1899213086357983</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[-208.21096344178375, 506.8526621948772]</t>
+          <t>[-131.0731106527624, 660.4165786229785]</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>182.4175421785787</v>
+        <v>201.914345242798</v>
       </c>
     </row>
   </sheetData>
@@ -6264,82 +6264,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>619.5517959187387</v>
+        <v>588.2914701353434</v>
       </c>
       <c r="C2" t="n">
-        <v>623.0857787960784</v>
+        <v>596.6211447770091</v>
       </c>
       <c r="D2" t="n">
-        <v>626.6197616734182</v>
+        <v>604.9508194186749</v>
       </c>
       <c r="E2" t="n">
-        <v>630.1537445507581</v>
+        <v>613.2804940603406</v>
       </c>
       <c r="F2" t="n">
-        <v>633.6877274280979</v>
+        <v>621.6101687020063</v>
       </c>
       <c r="G2" t="n">
-        <v>637.2217103054377</v>
+        <v>629.939843343672</v>
       </c>
       <c r="H2" t="n">
-        <v>640.7556931827775</v>
+        <v>638.2695179853378</v>
       </c>
       <c r="I2" t="n">
-        <v>644.2896760601172</v>
+        <v>646.5991926270035</v>
       </c>
       <c r="J2" t="n">
-        <v>647.823658937457</v>
+        <v>654.9288672686693</v>
       </c>
       <c r="K2" t="n">
-        <v>651.3576418147968</v>
+        <v>663.258541910335</v>
       </c>
       <c r="L2" t="n">
-        <v>654.8916246921367</v>
+        <v>671.5882165520007</v>
       </c>
       <c r="M2" t="n">
-        <v>658.4256075694765</v>
+        <v>679.9178911936665</v>
       </c>
       <c r="N2" t="n">
-        <v>661.9595904468163</v>
+        <v>688.2475658353322</v>
       </c>
       <c r="O2" t="n">
-        <v>665.493573324156</v>
+        <v>696.577240476998</v>
       </c>
       <c r="P2" t="n">
-        <v>669.0275562014958</v>
+        <v>704.9069151186636</v>
       </c>
       <c r="Q2" t="n">
-        <v>672.5615390788356</v>
+        <v>713.2365897603294</v>
       </c>
       <c r="R2" t="n">
-        <v>676.0955219561754</v>
+        <v>721.5662644019951</v>
       </c>
       <c r="S2" t="n">
-        <v>679.6295048335153</v>
+        <v>729.8959390436609</v>
       </c>
       <c r="T2" t="n">
-        <v>683.1634877108551</v>
+        <v>738.2256136853266</v>
       </c>
       <c r="U2" t="n">
-        <v>686.6974705881948</v>
+        <v>746.5552883269924</v>
       </c>
       <c r="V2" t="n">
-        <v>690.2314534655346</v>
+        <v>754.8849629686581</v>
       </c>
       <c r="W2" t="n">
-        <v>693.7654363428744</v>
+        <v>763.2146376103237</v>
       </c>
       <c r="X2" t="n">
-        <v>697.2994192202142</v>
+        <v>771.5443122519896</v>
       </c>
       <c r="Y2" t="n">
-        <v>700.833402097554</v>
+        <v>779.8739868936552</v>
       </c>
       <c r="Z2" t="n">
-        <v>704.3673849748939</v>
+        <v>788.203661535321</v>
       </c>
       <c r="AA2" t="n">
-        <v>707.9013678522336</v>
+        <v>796.5333361769867</v>
       </c>
     </row>
     <row r="3">
@@ -6349,82 +6349,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.7046323920288</v>
+        <v>581.6676489447891</v>
       </c>
       <c r="C3" t="n">
-        <v>632.79242830795</v>
+        <v>600.9435593303658</v>
       </c>
       <c r="D3" t="n">
-        <v>645.8802242238711</v>
+        <v>620.2194697159425</v>
       </c>
       <c r="E3" t="n">
-        <v>658.9680201397922</v>
+        <v>639.4953801015192</v>
       </c>
       <c r="F3" t="n">
-        <v>672.0558160557133</v>
+        <v>658.7712904870959</v>
       </c>
       <c r="G3" t="n">
-        <v>685.1436119716345</v>
+        <v>678.0472008726726</v>
       </c>
       <c r="H3" t="n">
-        <v>698.2314078875556</v>
+        <v>697.3231112582494</v>
       </c>
       <c r="I3" t="n">
-        <v>711.3192038034767</v>
+        <v>716.5990216438261</v>
       </c>
       <c r="J3" t="n">
-        <v>724.4069997193978</v>
+        <v>735.8749320294028</v>
       </c>
       <c r="K3" t="n">
-        <v>737.4947956353191</v>
+        <v>755.1508424149795</v>
       </c>
       <c r="L3" t="n">
-        <v>750.5825915512402</v>
+        <v>774.4267528005562</v>
       </c>
       <c r="M3" t="n">
-        <v>763.6703874671614</v>
+        <v>793.7026631861329</v>
       </c>
       <c r="N3" t="n">
-        <v>776.7581833830825</v>
+        <v>812.9785735717096</v>
       </c>
       <c r="O3" t="n">
-        <v>789.8459792990036</v>
+        <v>832.2544839572863</v>
       </c>
       <c r="P3" t="n">
-        <v>802.9337752149247</v>
+        <v>851.530394342863</v>
       </c>
       <c r="Q3" t="n">
-        <v>816.0215711308458</v>
+        <v>870.8063047284397</v>
       </c>
       <c r="R3" t="n">
-        <v>829.109367046767</v>
+        <v>890.0822151140164</v>
       </c>
       <c r="S3" t="n">
-        <v>842.1971629626881</v>
+        <v>909.3581254995931</v>
       </c>
       <c r="T3" t="n">
-        <v>855.2849588786092</v>
+        <v>928.6340358851699</v>
       </c>
       <c r="U3" t="n">
-        <v>868.3727547945305</v>
+        <v>947.9099462707466</v>
       </c>
       <c r="V3" t="n">
-        <v>881.4605507104516</v>
+        <v>967.1858566563233</v>
       </c>
       <c r="W3" t="n">
-        <v>894.5483466263727</v>
+        <v>986.4617670419</v>
       </c>
       <c r="X3" t="n">
-        <v>907.6361425422938</v>
+        <v>1005.737677427477</v>
       </c>
       <c r="Y3" t="n">
-        <v>920.723938458215</v>
+        <v>1025.013587813053</v>
       </c>
       <c r="Z3" t="n">
-        <v>933.8117343741361</v>
+        <v>1044.28949819863</v>
       </c>
       <c r="AA3" t="n">
-        <v>946.8995302900573</v>
+        <v>1063.565408584207</v>
       </c>
     </row>
     <row r="4">
@@ -6434,82 +6434,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1447.945474642794</v>
+        <v>1487.789640525381</v>
       </c>
       <c r="C4" t="n">
-        <v>1441.501430965965</v>
+        <v>1475.464772099053</v>
       </c>
       <c r="D4" t="n">
-        <v>1435.057387289135</v>
+        <v>1463.139903672724</v>
       </c>
       <c r="E4" t="n">
-        <v>1428.613343612305</v>
+        <v>1450.815035246396</v>
       </c>
       <c r="F4" t="n">
-        <v>1422.169299935476</v>
+        <v>1438.490166820068</v>
       </c>
       <c r="G4" t="n">
-        <v>1415.725256258646</v>
+        <v>1426.165298393739</v>
       </c>
       <c r="H4" t="n">
-        <v>1409.281212581817</v>
+        <v>1413.840429967411</v>
       </c>
       <c r="I4" t="n">
-        <v>1402.837168904987</v>
+        <v>1401.515561541082</v>
       </c>
       <c r="J4" t="n">
-        <v>1396.393125228157</v>
+        <v>1389.190693114754</v>
       </c>
       <c r="K4" t="n">
-        <v>1389.949081551328</v>
+        <v>1376.865824688426</v>
       </c>
       <c r="L4" t="n">
-        <v>1383.505037874498</v>
+        <v>1364.540956262097</v>
       </c>
       <c r="M4" t="n">
-        <v>1377.060994197669</v>
+        <v>1352.216087835769</v>
       </c>
       <c r="N4" t="n">
-        <v>1370.616950520839</v>
+        <v>1339.89121940944</v>
       </c>
       <c r="O4" t="n">
-        <v>1364.17290684401</v>
+        <v>1327.566350983112</v>
       </c>
       <c r="P4" t="n">
-        <v>1357.72886316718</v>
+        <v>1315.241482556783</v>
       </c>
       <c r="Q4" t="n">
-        <v>1351.28481949035</v>
+        <v>1302.916614130455</v>
       </c>
       <c r="R4" t="n">
-        <v>1344.840775813521</v>
+        <v>1290.591745704127</v>
       </c>
       <c r="S4" t="n">
-        <v>1338.396732136691</v>
+        <v>1278.266877277798</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.952688459862</v>
+        <v>1265.94200885147</v>
       </c>
       <c r="U4" t="n">
-        <v>1325.508644783032</v>
+        <v>1253.617140425141</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.064601106202</v>
+        <v>1241.292271998813</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.620557429373</v>
+        <v>1228.967403572484</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.176513752543</v>
+        <v>1216.642535146156</v>
       </c>
       <c r="Y4" t="n">
-        <v>1299.732470075714</v>
+        <v>1204.317666719828</v>
       </c>
       <c r="Z4" t="n">
-        <v>1293.288426398884</v>
+        <v>1191.992798293499</v>
       </c>
       <c r="AA4" t="n">
-        <v>1286.844382722054</v>
+        <v>1179.667929867171</v>
       </c>
     </row>
     <row r="5">
@@ -6519,82 +6519,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10039.22821348816</v>
+        <v>10216.60319030596</v>
       </c>
       <c r="C5" t="n">
-        <v>9979.076699122224</v>
+        <v>10126.62667873754</v>
       </c>
       <c r="D5" t="n">
-        <v>9918.925184756288</v>
+        <v>10036.65016716913</v>
       </c>
       <c r="E5" t="n">
-        <v>9858.77367039035</v>
+        <v>9946.673655600714</v>
       </c>
       <c r="F5" t="n">
-        <v>9798.622156024412</v>
+        <v>9856.6971440323</v>
       </c>
       <c r="G5" t="n">
-        <v>9738.470641658474</v>
+        <v>9766.720632463885</v>
       </c>
       <c r="H5" t="n">
-        <v>9678.319127292536</v>
+        <v>9676.744120895471</v>
       </c>
       <c r="I5" t="n">
-        <v>9618.1676129266</v>
+        <v>9586.767609327057</v>
       </c>
       <c r="J5" t="n">
-        <v>9558.016098560662</v>
+        <v>9496.791097758643</v>
       </c>
       <c r="K5" t="n">
-        <v>9497.864584194724</v>
+        <v>9406.814586190229</v>
       </c>
       <c r="L5" t="n">
-        <v>9437.713069828786</v>
+        <v>9316.838074621814</v>
       </c>
       <c r="M5" t="n">
-        <v>9377.561555462848</v>
+        <v>9226.8615630534</v>
       </c>
       <c r="N5" t="n">
-        <v>9317.410041096911</v>
+        <v>9136.885051484986</v>
       </c>
       <c r="O5" t="n">
-        <v>9257.258526730973</v>
+        <v>9046.908539916572</v>
       </c>
       <c r="P5" t="n">
-        <v>9197.107012365035</v>
+        <v>8956.932028348157</v>
       </c>
       <c r="Q5" t="n">
-        <v>9136.955497999097</v>
+        <v>8866.955516779743</v>
       </c>
       <c r="R5" t="n">
-        <v>9076.803983633159</v>
+        <v>8776.979005211329</v>
       </c>
       <c r="S5" t="n">
-        <v>9016.652469267221</v>
+        <v>8687.002493642914</v>
       </c>
       <c r="T5" t="n">
-        <v>8956.500954901285</v>
+        <v>8597.025982074501</v>
       </c>
       <c r="U5" t="n">
-        <v>8896.349440535347</v>
+        <v>8507.049470506086</v>
       </c>
       <c r="V5" t="n">
-        <v>8836.197926169409</v>
+        <v>8417.072958937672</v>
       </c>
       <c r="W5" t="n">
-        <v>8776.046411803471</v>
+        <v>8327.096447369258</v>
       </c>
       <c r="X5" t="n">
-        <v>8715.894897437534</v>
+        <v>8237.119935800843</v>
       </c>
       <c r="Y5" t="n">
-        <v>8655.743383071596</v>
+        <v>8147.143424232429</v>
       </c>
       <c r="Z5" t="n">
-        <v>8595.591868705658</v>
+        <v>8057.166912664015</v>
       </c>
       <c r="AA5" t="n">
-        <v>8535.44035433972</v>
+        <v>7967.1904010956</v>
       </c>
     </row>
     <row r="6">
@@ -6604,82 +6604,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3343.021990439674</v>
+        <v>2997.949648573289</v>
       </c>
       <c r="C6" t="n">
-        <v>3489.710106644401</v>
+        <v>3201.230404267572</v>
       </c>
       <c r="D6" t="n">
-        <v>3636.398222849127</v>
+        <v>3404.511159961855</v>
       </c>
       <c r="E6" t="n">
-        <v>3783.086339053854</v>
+        <v>3607.791915656138</v>
       </c>
       <c r="F6" t="n">
-        <v>3929.774455258581</v>
+        <v>3811.072671350421</v>
       </c>
       <c r="G6" t="n">
-        <v>4076.462571463308</v>
+        <v>4014.353427044704</v>
       </c>
       <c r="H6" t="n">
-        <v>4223.150687668034</v>
+        <v>4217.634182738987</v>
       </c>
       <c r="I6" t="n">
-        <v>4369.838803872761</v>
+        <v>4420.91493843327</v>
       </c>
       <c r="J6" t="n">
-        <v>4516.526920077487</v>
+        <v>4624.195694127553</v>
       </c>
       <c r="K6" t="n">
-        <v>4663.215036282214</v>
+        <v>4827.476449821836</v>
       </c>
       <c r="L6" t="n">
-        <v>4809.903152486941</v>
+        <v>5030.757205516119</v>
       </c>
       <c r="M6" t="n">
-        <v>4956.591268691667</v>
+        <v>5234.037961210402</v>
       </c>
       <c r="N6" t="n">
-        <v>5103.279384896394</v>
+        <v>5437.318716904685</v>
       </c>
       <c r="O6" t="n">
-        <v>5249.96750110112</v>
+        <v>5640.599472598968</v>
       </c>
       <c r="P6" t="n">
-        <v>5396.655617305847</v>
+        <v>5843.88022829325</v>
       </c>
       <c r="Q6" t="n">
-        <v>5543.343733510574</v>
+        <v>6047.160983987534</v>
       </c>
       <c r="R6" t="n">
-        <v>5690.0318497153</v>
+        <v>6250.441739681817</v>
       </c>
       <c r="S6" t="n">
-        <v>5836.719965920027</v>
+        <v>6453.7224953761</v>
       </c>
       <c r="T6" t="n">
-        <v>5983.408082124753</v>
+        <v>6657.003251070382</v>
       </c>
       <c r="U6" t="n">
-        <v>6130.09619832948</v>
+        <v>6860.284006764666</v>
       </c>
       <c r="V6" t="n">
-        <v>6276.784314534208</v>
+        <v>7063.564762458948</v>
       </c>
       <c r="W6" t="n">
-        <v>6423.472430738934</v>
+        <v>7266.845518153232</v>
       </c>
       <c r="X6" t="n">
-        <v>6570.160546943661</v>
+        <v>7470.126273847514</v>
       </c>
       <c r="Y6" t="n">
-        <v>6716.848663148387</v>
+        <v>7673.407029541797</v>
       </c>
       <c r="Z6" t="n">
-        <v>6863.536779353114</v>
+        <v>7876.68778523608</v>
       </c>
       <c r="AA6" t="n">
-        <v>7010.224895557841</v>
+        <v>8079.968540930363</v>
       </c>
     </row>
     <row r="7">
@@ -6689,82 +6689,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>331.21139867443</v>
+        <v>312.2309047384044</v>
       </c>
       <c r="C7" t="n">
-        <v>335.4268776241643</v>
+        <v>319.333324159183</v>
       </c>
       <c r="D7" t="n">
-        <v>339.6423565738985</v>
+        <v>326.4357435799615</v>
       </c>
       <c r="E7" t="n">
-        <v>343.8578355236328</v>
+        <v>333.5381630007401</v>
       </c>
       <c r="F7" t="n">
-        <v>348.073314473367</v>
+        <v>340.6405824215187</v>
       </c>
       <c r="G7" t="n">
-        <v>352.2887934231013</v>
+        <v>347.7430018422972</v>
       </c>
       <c r="H7" t="n">
-        <v>356.5042723728355</v>
+        <v>354.8454212630758</v>
       </c>
       <c r="I7" t="n">
-        <v>360.7197513225698</v>
+        <v>361.9478406838543</v>
       </c>
       <c r="J7" t="n">
-        <v>364.9352302723041</v>
+        <v>369.0502601046329</v>
       </c>
       <c r="K7" t="n">
-        <v>369.1507092220384</v>
+        <v>376.1526795254115</v>
       </c>
       <c r="L7" t="n">
-        <v>373.3661881717726</v>
+        <v>383.2550989461901</v>
       </c>
       <c r="M7" t="n">
-        <v>377.5816671215068</v>
+        <v>390.3575183669686</v>
       </c>
       <c r="N7" t="n">
-        <v>381.7971460712411</v>
+        <v>397.4599377877472</v>
       </c>
       <c r="O7" t="n">
-        <v>386.0126250209753</v>
+        <v>404.5623572085258</v>
       </c>
       <c r="P7" t="n">
-        <v>390.2281039707096</v>
+        <v>411.6647766293044</v>
       </c>
       <c r="Q7" t="n">
-        <v>394.4435829204439</v>
+        <v>418.7671960500829</v>
       </c>
       <c r="R7" t="n">
-        <v>398.6590618701782</v>
+        <v>425.8696154708615</v>
       </c>
       <c r="S7" t="n">
-        <v>402.8745408199124</v>
+        <v>432.9720348916401</v>
       </c>
       <c r="T7" t="n">
-        <v>407.0900197696467</v>
+        <v>440.0744543124187</v>
       </c>
       <c r="U7" t="n">
-        <v>411.3054987193809</v>
+        <v>447.1768737331972</v>
       </c>
       <c r="V7" t="n">
-        <v>415.5209776691152</v>
+        <v>454.2792931539758</v>
       </c>
       <c r="W7" t="n">
-        <v>419.7364566188494</v>
+        <v>461.3817125747544</v>
       </c>
       <c r="X7" t="n">
-        <v>423.9519355685837</v>
+        <v>468.4841319955329</v>
       </c>
       <c r="Y7" t="n">
-        <v>428.167414518318</v>
+        <v>475.5865514163115</v>
       </c>
       <c r="Z7" t="n">
-        <v>432.3828934680522</v>
+        <v>482.6889708370901</v>
       </c>
       <c r="AA7" t="n">
-        <v>436.5983724177865</v>
+        <v>489.7913902578687</v>
       </c>
     </row>
     <row r="8">
@@ -6774,82 +6774,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.62028977053652</v>
+        <v>65.16637102491272</v>
       </c>
       <c r="C8" t="n">
-        <v>95.6209850536296</v>
+        <v>82.03596120164872</v>
       </c>
       <c r="D8" t="n">
-        <v>107.6216803367227</v>
+        <v>98.90555137838473</v>
       </c>
       <c r="E8" t="n">
-        <v>119.6223756198158</v>
+        <v>115.7751415551207</v>
       </c>
       <c r="F8" t="n">
-        <v>131.6230709029089</v>
+        <v>132.6447317318568</v>
       </c>
       <c r="G8" t="n">
-        <v>143.6237661860019</v>
+        <v>149.5143219085928</v>
       </c>
       <c r="H8" t="n">
-        <v>155.624461469095</v>
+        <v>166.3839120853287</v>
       </c>
       <c r="I8" t="n">
-        <v>167.6251567521881</v>
+        <v>183.2535022620648</v>
       </c>
       <c r="J8" t="n">
-        <v>179.6258520352812</v>
+        <v>200.1230924388008</v>
       </c>
       <c r="K8" t="n">
-        <v>191.6265473183743</v>
+        <v>216.9926826155368</v>
       </c>
       <c r="L8" t="n">
-        <v>203.6272426014674</v>
+        <v>233.8622727922728</v>
       </c>
       <c r="M8" t="n">
-        <v>215.6279378845605</v>
+        <v>250.7318629690088</v>
       </c>
       <c r="N8" t="n">
-        <v>227.6286331676536</v>
+        <v>267.6014531457448</v>
       </c>
       <c r="O8" t="n">
-        <v>239.6293284507466</v>
+        <v>284.4710433224808</v>
       </c>
       <c r="P8" t="n">
-        <v>251.6300237338398</v>
+        <v>301.3406334992168</v>
       </c>
       <c r="Q8" t="n">
-        <v>263.6307190169329</v>
+        <v>318.2102236759528</v>
       </c>
       <c r="R8" t="n">
-        <v>275.6314143000259</v>
+        <v>335.0798138526888</v>
       </c>
       <c r="S8" t="n">
-        <v>287.632109583119</v>
+        <v>351.9494040294248</v>
       </c>
       <c r="T8" t="n">
-        <v>299.6328048662121</v>
+        <v>368.8189942061608</v>
       </c>
       <c r="U8" t="n">
-        <v>311.6335001493052</v>
+        <v>385.6885843828969</v>
       </c>
       <c r="V8" t="n">
-        <v>323.6341954323983</v>
+        <v>402.5581745596328</v>
       </c>
       <c r="W8" t="n">
-        <v>335.6348907154913</v>
+        <v>419.4277647363689</v>
       </c>
       <c r="X8" t="n">
-        <v>347.6355859985845</v>
+        <v>436.2973549131049</v>
       </c>
       <c r="Y8" t="n">
-        <v>359.6362812816776</v>
+        <v>453.1669450898409</v>
       </c>
       <c r="Z8" t="n">
-        <v>371.6369765647706</v>
+        <v>470.0365352665769</v>
       </c>
       <c r="AA8" t="n">
-        <v>383.6376718478637</v>
+        <v>486.9061254433129</v>
       </c>
     </row>
     <row r="9">
@@ -6859,82 +6859,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>568.434323720231</v>
+        <v>629.4252035884946</v>
       </c>
       <c r="C9" t="n">
-        <v>572.3614033219785</v>
+        <v>624.3358408864602</v>
       </c>
       <c r="D9" t="n">
-        <v>576.2884829237261</v>
+        <v>619.2464781844259</v>
       </c>
       <c r="E9" t="n">
-        <v>580.2155625254736</v>
+        <v>614.1571154823915</v>
       </c>
       <c r="F9" t="n">
-        <v>584.1426421272211</v>
+        <v>609.0677527803572</v>
       </c>
       <c r="G9" t="n">
-        <v>588.0697217289686</v>
+        <v>603.9783900783228</v>
       </c>
       <c r="H9" t="n">
-        <v>591.9968013307162</v>
+        <v>598.8890273762885</v>
       </c>
       <c r="I9" t="n">
-        <v>595.9238809324637</v>
+        <v>593.7996646742542</v>
       </c>
       <c r="J9" t="n">
-        <v>599.8509605342113</v>
+        <v>588.7103019722199</v>
       </c>
       <c r="K9" t="n">
-        <v>603.7780401359588</v>
+        <v>583.6209392701855</v>
       </c>
       <c r="L9" t="n">
-        <v>607.7051197377064</v>
+        <v>578.5315765681512</v>
       </c>
       <c r="M9" t="n">
-        <v>611.6321993394539</v>
+        <v>573.4422138661168</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5592789412015</v>
+        <v>568.3528511640825</v>
       </c>
       <c r="O9" t="n">
-        <v>619.486358542949</v>
+        <v>563.2634884620481</v>
       </c>
       <c r="P9" t="n">
-        <v>623.4134381446966</v>
+        <v>558.1741257600138</v>
       </c>
       <c r="Q9" t="n">
-        <v>627.340517746444</v>
+        <v>553.0847630579794</v>
       </c>
       <c r="R9" t="n">
-        <v>631.2675973481915</v>
+        <v>547.9954003559451</v>
       </c>
       <c r="S9" t="n">
-        <v>635.1946769499391</v>
+        <v>542.9060376539107</v>
       </c>
       <c r="T9" t="n">
-        <v>639.1217565516866</v>
+        <v>537.8166749518764</v>
       </c>
       <c r="U9" t="n">
-        <v>643.0488361534342</v>
+        <v>532.727312249842</v>
       </c>
       <c r="V9" t="n">
-        <v>646.9759157551817</v>
+        <v>527.6379495478077</v>
       </c>
       <c r="W9" t="n">
-        <v>650.9029953569293</v>
+        <v>522.5485868457733</v>
       </c>
       <c r="X9" t="n">
-        <v>654.8300749586768</v>
+        <v>517.459224143739</v>
       </c>
       <c r="Y9" t="n">
-        <v>658.7571545604244</v>
+        <v>512.3698614417046</v>
       </c>
       <c r="Z9" t="n">
-        <v>662.6842341621718</v>
+        <v>507.2804987396703</v>
       </c>
       <c r="AA9" t="n">
-        <v>666.6113137639195</v>
+        <v>502.191136037636</v>
       </c>
     </row>
     <row r="10">
@@ -6944,82 +6944,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>356.2681827674897</v>
+        <v>397.3054642688882</v>
       </c>
       <c r="C10" t="n">
-        <v>378.5826975348402</v>
+        <v>414.4982950147989</v>
       </c>
       <c r="D10" t="n">
-        <v>400.8972123021907</v>
+        <v>431.6911257607096</v>
       </c>
       <c r="E10" t="n">
-        <v>423.2117270695413</v>
+        <v>448.8839565066203</v>
       </c>
       <c r="F10" t="n">
-        <v>445.5262418368918</v>
+        <v>466.076787252531</v>
       </c>
       <c r="G10" t="n">
-        <v>467.8407566042422</v>
+        <v>483.2696179984417</v>
       </c>
       <c r="H10" t="n">
-        <v>490.1552713715928</v>
+        <v>500.4624487443524</v>
       </c>
       <c r="I10" t="n">
-        <v>512.4697861389433</v>
+        <v>517.6552794902631</v>
       </c>
       <c r="J10" t="n">
-        <v>534.7843009062938</v>
+        <v>534.8481102361737</v>
       </c>
       <c r="K10" t="n">
-        <v>557.0988156736443</v>
+        <v>552.0409409820845</v>
       </c>
       <c r="L10" t="n">
-        <v>579.4133304409947</v>
+        <v>569.2337717279952</v>
       </c>
       <c r="M10" t="n">
-        <v>601.7278452083452</v>
+        <v>586.4266024739059</v>
       </c>
       <c r="N10" t="n">
-        <v>624.0423599756957</v>
+        <v>603.6194332198165</v>
       </c>
       <c r="O10" t="n">
-        <v>646.3568747430463</v>
+        <v>620.8122639657272</v>
       </c>
       <c r="P10" t="n">
-        <v>668.6713895103967</v>
+        <v>638.0050947116379</v>
       </c>
       <c r="Q10" t="n">
-        <v>690.9859042777473</v>
+        <v>655.1979254575485</v>
       </c>
       <c r="R10" t="n">
-        <v>713.3004190450977</v>
+        <v>672.3907562034592</v>
       </c>
       <c r="S10" t="n">
-        <v>735.6149338124483</v>
+        <v>689.58358694937</v>
       </c>
       <c r="T10" t="n">
-        <v>757.9294485797988</v>
+        <v>706.7764176952807</v>
       </c>
       <c r="U10" t="n">
-        <v>780.2439633471492</v>
+        <v>723.9692484411914</v>
       </c>
       <c r="V10" t="n">
-        <v>802.5584781144997</v>
+        <v>741.1620791871021</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8729928818502</v>
+        <v>758.3549099330128</v>
       </c>
       <c r="X10" t="n">
-        <v>847.1875076492007</v>
+        <v>775.5477406789234</v>
       </c>
       <c r="Y10" t="n">
-        <v>869.5020224165512</v>
+        <v>792.7405714248341</v>
       </c>
       <c r="Z10" t="n">
-        <v>891.8165371839017</v>
+        <v>809.9334021707448</v>
       </c>
       <c r="AA10" t="n">
-        <v>914.1310519512522</v>
+        <v>827.1262329166555</v>
       </c>
     </row>
     <row r="11">
@@ -7029,82 +7029,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>898.6689836832504</v>
+        <v>942.4226552129262</v>
       </c>
       <c r="C11" t="n">
-        <v>916.1568179421168</v>
+        <v>952.6307190847699</v>
       </c>
       <c r="D11" t="n">
-        <v>933.6446522009834</v>
+        <v>962.8387829566136</v>
       </c>
       <c r="E11" t="n">
-        <v>951.1324864598499</v>
+        <v>973.0468468284574</v>
       </c>
       <c r="F11" t="n">
-        <v>968.6203207187164</v>
+        <v>983.2549107003011</v>
       </c>
       <c r="G11" t="n">
-        <v>986.1081549775829</v>
+        <v>993.4629745721448</v>
       </c>
       <c r="H11" t="n">
-        <v>1003.595989236449</v>
+        <v>1003.671038443989</v>
       </c>
       <c r="I11" t="n">
-        <v>1021.083823495316</v>
+        <v>1013.879102315832</v>
       </c>
       <c r="J11" t="n">
-        <v>1038.571657754183</v>
+        <v>1024.087166187676</v>
       </c>
       <c r="K11" t="n">
-        <v>1056.059492013049</v>
+        <v>1034.29523005952</v>
       </c>
       <c r="L11" t="n">
-        <v>1073.547326271915</v>
+        <v>1044.503293931363</v>
       </c>
       <c r="M11" t="n">
-        <v>1091.035160530782</v>
+        <v>1054.711357803207</v>
       </c>
       <c r="N11" t="n">
-        <v>1108.522994789648</v>
+        <v>1064.919421675051</v>
       </c>
       <c r="O11" t="n">
-        <v>1126.010829048515</v>
+        <v>1075.127485546895</v>
       </c>
       <c r="P11" t="n">
-        <v>1143.498663307381</v>
+        <v>1085.335549418738</v>
       </c>
       <c r="Q11" t="n">
-        <v>1160.986497566248</v>
+        <v>1095.543613290582</v>
       </c>
       <c r="R11" t="n">
-        <v>1178.474331825114</v>
+        <v>1105.751677162426</v>
       </c>
       <c r="S11" t="n">
-        <v>1195.962166083981</v>
+        <v>1115.959741034269</v>
       </c>
       <c r="T11" t="n">
-        <v>1213.450000342847</v>
+        <v>1126.167804906113</v>
       </c>
       <c r="U11" t="n">
-        <v>1230.937834601714</v>
+        <v>1136.375868777957</v>
       </c>
       <c r="V11" t="n">
-        <v>1248.425668860581</v>
+        <v>1146.583932649801</v>
       </c>
       <c r="W11" t="n">
-        <v>1265.913503119447</v>
+        <v>1156.791996521644</v>
       </c>
       <c r="X11" t="n">
-        <v>1283.401337378313</v>
+        <v>1167.000060393488</v>
       </c>
       <c r="Y11" t="n">
-        <v>1300.88917163718</v>
+        <v>1177.208124265332</v>
       </c>
       <c r="Z11" t="n">
-        <v>1318.377005896047</v>
+        <v>1187.416188137176</v>
       </c>
       <c r="AA11" t="n">
-        <v>1335.864840154913</v>
+        <v>1197.624252009019</v>
       </c>
     </row>
     <row r="12">
@@ -7114,82 +7114,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>262.4402599909038</v>
+        <v>261.1924389800366</v>
       </c>
       <c r="C12" t="n">
-        <v>250.8050184985683</v>
+        <v>249.9921089575646</v>
       </c>
       <c r="D12" t="n">
-        <v>239.1697770062329</v>
+        <v>238.7917789350927</v>
       </c>
       <c r="E12" t="n">
-        <v>227.5345355138974</v>
+        <v>227.5914489126208</v>
       </c>
       <c r="F12" t="n">
-        <v>215.8992940215619</v>
+        <v>216.3911188901488</v>
       </c>
       <c r="G12" t="n">
-        <v>204.2640525292264</v>
+        <v>205.1907888676769</v>
       </c>
       <c r="H12" t="n">
-        <v>192.628811036891</v>
+        <v>193.990458845205</v>
       </c>
       <c r="I12" t="n">
-        <v>180.9935695445555</v>
+        <v>182.7901288227331</v>
       </c>
       <c r="J12" t="n">
-        <v>169.35832805222</v>
+        <v>171.5897988002611</v>
       </c>
       <c r="K12" t="n">
-        <v>157.7230865598845</v>
+        <v>160.3894687777892</v>
       </c>
       <c r="L12" t="n">
-        <v>146.087845067549</v>
+        <v>149.1891387553173</v>
       </c>
       <c r="M12" t="n">
-        <v>134.4526035752136</v>
+        <v>137.9888087328454</v>
       </c>
       <c r="N12" t="n">
-        <v>122.8173620828781</v>
+        <v>126.7884787103735</v>
       </c>
       <c r="O12" t="n">
-        <v>111.1821205905426</v>
+        <v>115.5881486879015</v>
       </c>
       <c r="P12" t="n">
-        <v>99.54687909820711</v>
+        <v>104.3878186654296</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.91163760587165</v>
+        <v>93.18748864295767</v>
       </c>
       <c r="R12" t="n">
-        <v>76.27639611353618</v>
+        <v>81.98715862048576</v>
       </c>
       <c r="S12" t="n">
-        <v>64.64115462120068</v>
+        <v>70.78682859801381</v>
       </c>
       <c r="T12" t="n">
-        <v>53.00591312886522</v>
+        <v>59.5864985755419</v>
       </c>
       <c r="U12" t="n">
-        <v>41.37067163652972</v>
+        <v>48.38616855306998</v>
       </c>
       <c r="V12" t="n">
-        <v>29.73543014419425</v>
+        <v>37.18583853059803</v>
       </c>
       <c r="W12" t="n">
-        <v>18.10018865185879</v>
+        <v>25.98550850812612</v>
       </c>
       <c r="X12" t="n">
-        <v>6.464947159523319</v>
+        <v>14.78517848565417</v>
       </c>
       <c r="Y12" t="n">
-        <v>-5.170294332812148</v>
+        <v>3.584848463182254</v>
       </c>
       <c r="Z12" t="n">
-        <v>-16.80553582514767</v>
+        <v>-7.615481559289663</v>
       </c>
       <c r="AA12" t="n">
-        <v>-28.44077731748314</v>
+        <v>-18.81581158176158</v>
       </c>
     </row>
     <row r="13">
@@ -7199,82 +7199,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.80779200529318</v>
+        <v>16.82928383172304</v>
       </c>
       <c r="C13" t="n">
-        <v>18.01908912120051</v>
+        <v>18.06345073151432</v>
       </c>
       <c r="D13" t="n">
-        <v>19.23038623710784</v>
+        <v>19.29761763130561</v>
       </c>
       <c r="E13" t="n">
-        <v>20.44168335301518</v>
+        <v>20.53178453109689</v>
       </c>
       <c r="F13" t="n">
-        <v>21.65298046892251</v>
+        <v>21.76595143088817</v>
       </c>
       <c r="G13" t="n">
-        <v>22.86427758482984</v>
+        <v>23.00011833067945</v>
       </c>
       <c r="H13" t="n">
-        <v>24.07557470073717</v>
+        <v>24.23428523047073</v>
       </c>
       <c r="I13" t="n">
-        <v>25.28687181664451</v>
+        <v>25.46845213026202</v>
       </c>
       <c r="J13" t="n">
-        <v>26.49816893255183</v>
+        <v>26.7026190300533</v>
       </c>
       <c r="K13" t="n">
-        <v>27.70946604845917</v>
+        <v>27.93678592984458</v>
       </c>
       <c r="L13" t="n">
-        <v>28.9207631643665</v>
+        <v>29.17095282963587</v>
       </c>
       <c r="M13" t="n">
-        <v>30.13206028027383</v>
+        <v>30.40511972942715</v>
       </c>
       <c r="N13" t="n">
-        <v>31.34335739618117</v>
+        <v>31.63928662921843</v>
       </c>
       <c r="O13" t="n">
-        <v>32.5546545120885</v>
+        <v>32.87345352900971</v>
       </c>
       <c r="P13" t="n">
-        <v>33.76595162799583</v>
+        <v>34.107620428801</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.97724874390316</v>
+        <v>35.34178732859228</v>
       </c>
       <c r="R13" t="n">
-        <v>36.1885458598105</v>
+        <v>36.57595422838357</v>
       </c>
       <c r="S13" t="n">
-        <v>37.39984297571783</v>
+        <v>37.81012112817484</v>
       </c>
       <c r="T13" t="n">
-        <v>38.61114009162516</v>
+        <v>39.04428802796613</v>
       </c>
       <c r="U13" t="n">
-        <v>39.8224372075325</v>
+        <v>40.27845492775741</v>
       </c>
       <c r="V13" t="n">
-        <v>41.03373432343983</v>
+        <v>41.51262182754869</v>
       </c>
       <c r="W13" t="n">
-        <v>42.24503143934716</v>
+        <v>42.74678872733998</v>
       </c>
       <c r="X13" t="n">
-        <v>43.45632855525449</v>
+        <v>43.98095562713126</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.66762567116182</v>
+        <v>45.21512252692254</v>
       </c>
       <c r="Z13" t="n">
-        <v>45.87892278706916</v>
+        <v>46.44928942671382</v>
       </c>
       <c r="AA13" t="n">
-        <v>47.09021990297649</v>
+        <v>47.68345632650511</v>
       </c>
     </row>
     <row r="14">
@@ -7284,82 +7284,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>465.3662073764796</v>
+        <v>529.1099759231902</v>
       </c>
       <c r="C14" t="n">
-        <v>499.5376678132669</v>
+        <v>553.1659503452634</v>
       </c>
       <c r="D14" t="n">
-        <v>533.7091282500542</v>
+        <v>577.2219247673365</v>
       </c>
       <c r="E14" t="n">
-        <v>567.8805886868415</v>
+        <v>601.2778991894097</v>
       </c>
       <c r="F14" t="n">
-        <v>602.0520491236289</v>
+        <v>625.3338736114829</v>
       </c>
       <c r="G14" t="n">
-        <v>636.2235095604162</v>
+        <v>649.3898480335561</v>
       </c>
       <c r="H14" t="n">
-        <v>670.3949699972035</v>
+        <v>673.4458224556292</v>
       </c>
       <c r="I14" t="n">
-        <v>704.5664304339908</v>
+        <v>697.5017968777024</v>
       </c>
       <c r="J14" t="n">
-        <v>738.7378908707781</v>
+        <v>721.5577712997756</v>
       </c>
       <c r="K14" t="n">
-        <v>772.9093513075654</v>
+        <v>745.6137457218488</v>
       </c>
       <c r="L14" t="n">
-        <v>807.0808117443528</v>
+        <v>769.6697201439219</v>
       </c>
       <c r="M14" t="n">
-        <v>841.2522721811401</v>
+        <v>793.7256945659951</v>
       </c>
       <c r="N14" t="n">
-        <v>875.4237326179275</v>
+        <v>817.7816689880683</v>
       </c>
       <c r="O14" t="n">
-        <v>909.5951930547147</v>
+        <v>841.8376434101416</v>
       </c>
       <c r="P14" t="n">
-        <v>943.766653491502</v>
+        <v>865.8936178322148</v>
       </c>
       <c r="Q14" t="n">
-        <v>977.9381139282893</v>
+        <v>889.9495922542879</v>
       </c>
       <c r="R14" t="n">
-        <v>1012.109574365077</v>
+        <v>914.0055666763611</v>
       </c>
       <c r="S14" t="n">
-        <v>1046.281034801864</v>
+        <v>938.0615410984343</v>
       </c>
       <c r="T14" t="n">
-        <v>1080.452495238651</v>
+        <v>962.1175155205076</v>
       </c>
       <c r="U14" t="n">
-        <v>1114.623955675439</v>
+        <v>986.1734899425808</v>
       </c>
       <c r="V14" t="n">
-        <v>1148.795416112226</v>
+        <v>1010.229464364654</v>
       </c>
       <c r="W14" t="n">
-        <v>1182.966876549013</v>
+        <v>1034.285438786727</v>
       </c>
       <c r="X14" t="n">
-        <v>1217.138336985801</v>
+        <v>1058.3414132088</v>
       </c>
       <c r="Y14" t="n">
-        <v>1251.309797422588</v>
+        <v>1082.397387630873</v>
       </c>
       <c r="Z14" t="n">
-        <v>1285.481257859375</v>
+        <v>1106.453362052947</v>
       </c>
       <c r="AA14" t="n">
-        <v>1319.652718296163</v>
+        <v>1130.50933647502</v>
       </c>
     </row>
     <row r="15">
@@ -7369,82 +7369,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762.9108745353778</v>
+        <v>782.5831703310168</v>
       </c>
       <c r="C15" t="n">
-        <v>831.7444807512639</v>
+        <v>848.5379036441833</v>
       </c>
       <c r="D15" t="n">
-        <v>900.5780869671501</v>
+        <v>914.4926369573498</v>
       </c>
       <c r="E15" t="n">
-        <v>969.4116931830362</v>
+        <v>980.4473702705162</v>
       </c>
       <c r="F15" t="n">
-        <v>1038.245299398922</v>
+        <v>1046.402103583683</v>
       </c>
       <c r="G15" t="n">
-        <v>1107.078905614808</v>
+        <v>1112.356836896849</v>
       </c>
       <c r="H15" t="n">
-        <v>1175.912511830694</v>
+        <v>1178.311570210016</v>
       </c>
       <c r="I15" t="n">
-        <v>1244.746118046581</v>
+        <v>1244.266303523182</v>
       </c>
       <c r="J15" t="n">
-        <v>1313.579724262467</v>
+        <v>1310.221036836349</v>
       </c>
       <c r="K15" t="n">
-        <v>1382.413330478353</v>
+        <v>1376.175770149515</v>
       </c>
       <c r="L15" t="n">
-        <v>1451.246936694239</v>
+        <v>1442.130503462681</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.080542910125</v>
+        <v>1508.085236775848</v>
       </c>
       <c r="N15" t="n">
-        <v>1588.914149126011</v>
+        <v>1574.039970089014</v>
       </c>
       <c r="O15" t="n">
-        <v>1657.747755341897</v>
+        <v>1639.994703402181</v>
       </c>
       <c r="P15" t="n">
-        <v>1726.581361557784</v>
+        <v>1705.949436715347</v>
       </c>
       <c r="Q15" t="n">
-        <v>1795.41496777367</v>
+        <v>1771.904170028514</v>
       </c>
       <c r="R15" t="n">
-        <v>1864.248573989556</v>
+        <v>1837.85890334168</v>
       </c>
       <c r="S15" t="n">
-        <v>1933.082180205442</v>
+        <v>1903.813636654847</v>
       </c>
       <c r="T15" t="n">
-        <v>2001.915786421328</v>
+        <v>1969.768369968013</v>
       </c>
       <c r="U15" t="n">
-        <v>2070.749392637214</v>
+        <v>2035.72310328118</v>
       </c>
       <c r="V15" t="n">
-        <v>2139.5829988531</v>
+        <v>2101.677836594346</v>
       </c>
       <c r="W15" t="n">
-        <v>2208.416605068986</v>
+        <v>2167.632569907512</v>
       </c>
       <c r="X15" t="n">
-        <v>2277.250211284872</v>
+        <v>2233.587303220679</v>
       </c>
       <c r="Y15" t="n">
-        <v>2346.083817500758</v>
+        <v>2299.542036533845</v>
       </c>
       <c r="Z15" t="n">
-        <v>2414.917423716644</v>
+        <v>2365.496769847012</v>
       </c>
       <c r="AA15" t="n">
-        <v>2483.75102993253</v>
+        <v>2431.451503160178</v>
       </c>
     </row>
     <row r="16">
@@ -7454,82 +7454,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1035.481274782512</v>
+        <v>981.8589721437911</v>
       </c>
       <c r="C16" t="n">
-        <v>1151.461730788727</v>
+        <v>1107.043809097145</v>
       </c>
       <c r="D16" t="n">
-        <v>1267.442186794942</v>
+        <v>1232.228646050498</v>
       </c>
       <c r="E16" t="n">
-        <v>1383.422642801157</v>
+        <v>1357.413483003852</v>
       </c>
       <c r="F16" t="n">
-        <v>1499.403098807372</v>
+        <v>1482.598319957205</v>
       </c>
       <c r="G16" t="n">
-        <v>1615.383554813587</v>
+        <v>1607.783156910558</v>
       </c>
       <c r="H16" t="n">
-        <v>1731.364010819802</v>
+        <v>1732.967993863912</v>
       </c>
       <c r="I16" t="n">
-        <v>1847.344466826017</v>
+        <v>1858.152830817265</v>
       </c>
       <c r="J16" t="n">
-        <v>1963.324922832232</v>
+        <v>1983.337667770619</v>
       </c>
       <c r="K16" t="n">
-        <v>2079.305378838446</v>
+        <v>2108.522504723972</v>
       </c>
       <c r="L16" t="n">
-        <v>2195.285834844661</v>
+        <v>2233.707341677326</v>
       </c>
       <c r="M16" t="n">
-        <v>2311.266290850876</v>
+        <v>2358.892178630679</v>
       </c>
       <c r="N16" t="n">
-        <v>2427.246746857091</v>
+        <v>2484.077015584032</v>
       </c>
       <c r="O16" t="n">
-        <v>2543.227202863306</v>
+        <v>2609.261852537386</v>
       </c>
       <c r="P16" t="n">
-        <v>2659.207658869521</v>
+        <v>2734.44668949074</v>
       </c>
       <c r="Q16" t="n">
-        <v>2775.188114875736</v>
+        <v>2859.631526444093</v>
       </c>
       <c r="R16" t="n">
-        <v>2891.16857088195</v>
+        <v>2984.816363397446</v>
       </c>
       <c r="S16" t="n">
-        <v>3007.149026888165</v>
+        <v>3110.0012003508</v>
       </c>
       <c r="T16" t="n">
-        <v>3123.129482894381</v>
+        <v>3235.186037304153</v>
       </c>
       <c r="U16" t="n">
-        <v>3239.109938900595</v>
+        <v>3360.370874257506</v>
       </c>
       <c r="V16" t="n">
-        <v>3355.09039490681</v>
+        <v>3485.55571121086</v>
       </c>
       <c r="W16" t="n">
-        <v>3471.070850913025</v>
+        <v>3610.740548164214</v>
       </c>
       <c r="X16" t="n">
-        <v>3587.05130691924</v>
+        <v>3735.925385117567</v>
       </c>
       <c r="Y16" t="n">
-        <v>3703.031762925455</v>
+        <v>3861.11022207092</v>
       </c>
       <c r="Z16" t="n">
-        <v>3819.01221893167</v>
+        <v>3986.295059024274</v>
       </c>
       <c r="AA16" t="n">
-        <v>3934.992674937885</v>
+        <v>4111.479895977627</v>
       </c>
     </row>
     <row r="17">
@@ -7539,82 +7539,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2347.492059577835</v>
+        <v>2309.391442289906</v>
       </c>
       <c r="C17" t="n">
-        <v>2399.165906640294</v>
+        <v>2367.340458919444</v>
       </c>
       <c r="D17" t="n">
-        <v>2450.839753702754</v>
+        <v>2425.289475548983</v>
       </c>
       <c r="E17" t="n">
-        <v>2502.513600765213</v>
+        <v>2483.238492178521</v>
       </c>
       <c r="F17" t="n">
-        <v>2554.187447827672</v>
+        <v>2541.18750880806</v>
       </c>
       <c r="G17" t="n">
-        <v>2605.861294890132</v>
+        <v>2599.136525437598</v>
       </c>
       <c r="H17" t="n">
-        <v>2657.535141952591</v>
+        <v>2657.085542067136</v>
       </c>
       <c r="I17" t="n">
-        <v>2709.208989015051</v>
+        <v>2715.034558696675</v>
       </c>
       <c r="J17" t="n">
-        <v>2760.88283607751</v>
+        <v>2772.983575326213</v>
       </c>
       <c r="K17" t="n">
-        <v>2812.556683139969</v>
+        <v>2830.932591955751</v>
       </c>
       <c r="L17" t="n">
-        <v>2864.230530202429</v>
+        <v>2888.88160858529</v>
       </c>
       <c r="M17" t="n">
-        <v>2915.904377264888</v>
+        <v>2946.830625214829</v>
       </c>
       <c r="N17" t="n">
-        <v>2967.578224327347</v>
+        <v>3004.779641844367</v>
       </c>
       <c r="O17" t="n">
-        <v>3019.252071389807</v>
+        <v>3062.728658473905</v>
       </c>
       <c r="P17" t="n">
-        <v>3070.925918452266</v>
+        <v>3120.677675103444</v>
       </c>
       <c r="Q17" t="n">
-        <v>3122.599765514726</v>
+        <v>3178.626691732982</v>
       </c>
       <c r="R17" t="n">
-        <v>3174.273612577185</v>
+        <v>3236.57570836252</v>
       </c>
       <c r="S17" t="n">
-        <v>3225.947459639644</v>
+        <v>3294.524724992059</v>
       </c>
       <c r="T17" t="n">
-        <v>3277.621306702104</v>
+        <v>3352.473741621598</v>
       </c>
       <c r="U17" t="n">
-        <v>3329.295153764563</v>
+        <v>3410.422758251136</v>
       </c>
       <c r="V17" t="n">
-        <v>3380.969000827023</v>
+        <v>3468.371774880674</v>
       </c>
       <c r="W17" t="n">
-        <v>3432.642847889482</v>
+        <v>3526.320791510213</v>
       </c>
       <c r="X17" t="n">
-        <v>3484.316694951941</v>
+        <v>3584.269808139751</v>
       </c>
       <c r="Y17" t="n">
-        <v>3535.9905420144</v>
+        <v>3642.218824769289</v>
       </c>
       <c r="Z17" t="n">
-        <v>3587.66438907686</v>
+        <v>3700.167841398827</v>
       </c>
       <c r="AA17" t="n">
-        <v>3639.33823613932</v>
+        <v>3758.116858028366</v>
       </c>
     </row>
     <row r="18">
@@ -7624,82 +7624,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2844.030721164218</v>
+        <v>2853.004806536531</v>
       </c>
       <c r="C18" t="n">
-        <v>2890.987099052722</v>
+        <v>2898.101489468662</v>
       </c>
       <c r="D18" t="n">
-        <v>2937.943476941227</v>
+        <v>2943.198172400793</v>
       </c>
       <c r="E18" t="n">
-        <v>2984.899854829731</v>
+        <v>2988.294855332924</v>
       </c>
       <c r="F18" t="n">
-        <v>3031.856232718236</v>
+        <v>3033.391538265056</v>
       </c>
       <c r="G18" t="n">
-        <v>3078.812610606741</v>
+        <v>3078.488221197187</v>
       </c>
       <c r="H18" t="n">
-        <v>3125.768988495245</v>
+        <v>3123.584904129318</v>
       </c>
       <c r="I18" t="n">
-        <v>3172.72536638375</v>
+        <v>3168.681587061449</v>
       </c>
       <c r="J18" t="n">
-        <v>3219.681744272254</v>
+        <v>3213.778269993581</v>
       </c>
       <c r="K18" t="n">
-        <v>3266.638122160759</v>
+        <v>3258.874952925712</v>
       </c>
       <c r="L18" t="n">
-        <v>3313.594500049263</v>
+        <v>3303.971635857843</v>
       </c>
       <c r="M18" t="n">
-        <v>3360.550877937768</v>
+        <v>3349.068318789974</v>
       </c>
       <c r="N18" t="n">
-        <v>3407.507255826273</v>
+        <v>3394.165001722105</v>
       </c>
       <c r="O18" t="n">
-        <v>3454.463633714777</v>
+        <v>3439.261684654237</v>
       </c>
       <c r="P18" t="n">
-        <v>3501.420011603282</v>
+        <v>3484.358367586368</v>
       </c>
       <c r="Q18" t="n">
-        <v>3548.376389491787</v>
+        <v>3529.455050518499</v>
       </c>
       <c r="R18" t="n">
-        <v>3595.332767380291</v>
+        <v>3574.55173345063</v>
       </c>
       <c r="S18" t="n">
-        <v>3642.289145268795</v>
+        <v>3619.648416382762</v>
       </c>
       <c r="T18" t="n">
-        <v>3689.2455231573</v>
+        <v>3664.745099314893</v>
       </c>
       <c r="U18" t="n">
-        <v>3736.201901045805</v>
+        <v>3709.841782247024</v>
       </c>
       <c r="V18" t="n">
-        <v>3783.158278934309</v>
+        <v>3754.938465179155</v>
       </c>
       <c r="W18" t="n">
-        <v>3830.114656822814</v>
+        <v>3800.035148111287</v>
       </c>
       <c r="X18" t="n">
-        <v>3877.071034711319</v>
+        <v>3845.131831043418</v>
       </c>
       <c r="Y18" t="n">
-        <v>3924.027412599823</v>
+        <v>3890.228513975549</v>
       </c>
       <c r="Z18" t="n">
-        <v>3970.983790488328</v>
+        <v>3935.32519690768</v>
       </c>
       <c r="AA18" t="n">
-        <v>4017.940168376832</v>
+        <v>3980.421879839811</v>
       </c>
     </row>
     <row r="19">
@@ -7709,82 +7709,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3620.529085074359</v>
+        <v>3794.704263151977</v>
       </c>
       <c r="C19" t="n">
-        <v>3640.986382994409</v>
+        <v>3790.515173789575</v>
       </c>
       <c r="D19" t="n">
-        <v>3661.443680914459</v>
+        <v>3786.326084427173</v>
       </c>
       <c r="E19" t="n">
-        <v>3681.900978834509</v>
+        <v>3782.136995064771</v>
       </c>
       <c r="F19" t="n">
-        <v>3702.358276754559</v>
+        <v>3777.947905702369</v>
       </c>
       <c r="G19" t="n">
-        <v>3722.815574674609</v>
+        <v>3773.758816339966</v>
       </c>
       <c r="H19" t="n">
-        <v>3743.272872594659</v>
+        <v>3769.569726977564</v>
       </c>
       <c r="I19" t="n">
-        <v>3763.730170514709</v>
+        <v>3765.380637615162</v>
       </c>
       <c r="J19" t="n">
-        <v>3784.187468434759</v>
+        <v>3761.19154825276</v>
       </c>
       <c r="K19" t="n">
-        <v>3804.64476635481</v>
+        <v>3757.002458890358</v>
       </c>
       <c r="L19" t="n">
-        <v>3825.10206427486</v>
+        <v>3752.813369527956</v>
       </c>
       <c r="M19" t="n">
-        <v>3845.55936219491</v>
+        <v>3748.624280165554</v>
       </c>
       <c r="N19" t="n">
-        <v>3866.01666011496</v>
+        <v>3744.435190803151</v>
       </c>
       <c r="O19" t="n">
-        <v>3886.47395803501</v>
+        <v>3740.246101440749</v>
       </c>
       <c r="P19" t="n">
-        <v>3906.93125595506</v>
+        <v>3736.057012078347</v>
       </c>
       <c r="Q19" t="n">
-        <v>3927.38855387511</v>
+        <v>3731.867922715945</v>
       </c>
       <c r="R19" t="n">
-        <v>3947.84585179516</v>
+        <v>3727.678833353543</v>
       </c>
       <c r="S19" t="n">
-        <v>3968.303149715211</v>
+        <v>3723.489743991141</v>
       </c>
       <c r="T19" t="n">
-        <v>3988.760447635261</v>
+        <v>3719.300654628738</v>
       </c>
       <c r="U19" t="n">
-        <v>4009.217745555311</v>
+        <v>3715.111565266336</v>
       </c>
       <c r="V19" t="n">
-        <v>4029.675043475361</v>
+        <v>3710.922475903934</v>
       </c>
       <c r="W19" t="n">
-        <v>4050.132341395411</v>
+        <v>3706.733386541532</v>
       </c>
       <c r="X19" t="n">
-        <v>4070.589639315461</v>
+        <v>3702.54429717913</v>
       </c>
       <c r="Y19" t="n">
-        <v>4091.046937235511</v>
+        <v>3698.355207816728</v>
       </c>
       <c r="Z19" t="n">
-        <v>4111.504235155561</v>
+        <v>3694.166118454325</v>
       </c>
       <c r="AA19" t="n">
-        <v>4131.961533075611</v>
+        <v>3689.977029091923</v>
       </c>
     </row>
     <row r="20">
@@ -7794,82 +7794,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2979.270786390584</v>
+        <v>3031.065098653285</v>
       </c>
       <c r="C20" t="n">
-        <v>2986.293027672662</v>
+        <v>3028.79025307138</v>
       </c>
       <c r="D20" t="n">
-        <v>2993.315268954739</v>
+        <v>3026.515407489476</v>
       </c>
       <c r="E20" t="n">
-        <v>3000.337510236816</v>
+        <v>3024.240561907571</v>
       </c>
       <c r="F20" t="n">
-        <v>3007.359751518894</v>
+        <v>3021.965716325667</v>
       </c>
       <c r="G20" t="n">
-        <v>3014.381992800972</v>
+        <v>3019.690870743762</v>
       </c>
       <c r="H20" t="n">
-        <v>3021.404234083049</v>
+        <v>3017.416025161858</v>
       </c>
       <c r="I20" t="n">
-        <v>3028.426475365126</v>
+        <v>3015.141179579954</v>
       </c>
       <c r="J20" t="n">
-        <v>3035.448716647204</v>
+        <v>3012.866333998049</v>
       </c>
       <c r="K20" t="n">
-        <v>3042.470957929281</v>
+        <v>3010.591488416144</v>
       </c>
       <c r="L20" t="n">
-        <v>3049.493199211359</v>
+        <v>3008.31664283424</v>
       </c>
       <c r="M20" t="n">
-        <v>3056.515440493436</v>
+        <v>3006.041797252336</v>
       </c>
       <c r="N20" t="n">
-        <v>3063.537681775514</v>
+        <v>3003.766951670431</v>
       </c>
       <c r="O20" t="n">
-        <v>3070.559923057591</v>
+        <v>3001.492106088526</v>
       </c>
       <c r="P20" t="n">
-        <v>3077.582164339668</v>
+        <v>2999.217260506622</v>
       </c>
       <c r="Q20" t="n">
-        <v>3084.604405621746</v>
+        <v>2996.942414924717</v>
       </c>
       <c r="R20" t="n">
-        <v>3091.626646903824</v>
+        <v>2994.667569342813</v>
       </c>
       <c r="S20" t="n">
-        <v>3098.648888185901</v>
+        <v>2992.392723760909</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.671129467979</v>
+        <v>2990.117878179004</v>
       </c>
       <c r="U20" t="n">
-        <v>3112.693370750056</v>
+        <v>2987.843032597099</v>
       </c>
       <c r="V20" t="n">
-        <v>3119.715612032133</v>
+        <v>2985.568187015195</v>
       </c>
       <c r="W20" t="n">
-        <v>3126.737853314211</v>
+        <v>2983.293341433291</v>
       </c>
       <c r="X20" t="n">
-        <v>3133.760094596288</v>
+        <v>2981.018495851386</v>
       </c>
       <c r="Y20" t="n">
-        <v>3140.782335878366</v>
+        <v>2978.743650269482</v>
       </c>
       <c r="Z20" t="n">
-        <v>3147.804577160443</v>
+        <v>2976.468804687577</v>
       </c>
       <c r="AA20" t="n">
-        <v>3154.826818442521</v>
+        <v>2974.193959105673</v>
       </c>
     </row>
     <row r="21">
@@ -7879,82 +7879,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1347.508699295857</v>
+        <v>1370.763939928459</v>
       </c>
       <c r="C21" t="n">
-        <v>1364.613417786124</v>
+        <v>1383.803794133274</v>
       </c>
       <c r="D21" t="n">
-        <v>1381.718136276391</v>
+        <v>1396.843648338088</v>
       </c>
       <c r="E21" t="n">
-        <v>1398.822854766657</v>
+        <v>1409.883502542902</v>
       </c>
       <c r="F21" t="n">
-        <v>1415.927573256924</v>
+        <v>1422.923356747717</v>
       </c>
       <c r="G21" t="n">
-        <v>1433.032291747191</v>
+        <v>1435.963210952531</v>
       </c>
       <c r="H21" t="n">
-        <v>1450.137010237457</v>
+        <v>1449.003065157345</v>
       </c>
       <c r="I21" t="n">
-        <v>1467.241728727724</v>
+        <v>1462.042919362159</v>
       </c>
       <c r="J21" t="n">
-        <v>1484.346447217991</v>
+        <v>1475.082773566974</v>
       </c>
       <c r="K21" t="n">
-        <v>1501.451165708257</v>
+        <v>1488.122627771788</v>
       </c>
       <c r="L21" t="n">
-        <v>1518.555884198524</v>
+        <v>1501.162481976602</v>
       </c>
       <c r="M21" t="n">
-        <v>1535.660602688791</v>
+        <v>1514.202336181416</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.765321179057</v>
+        <v>1527.242190386231</v>
       </c>
       <c r="O21" t="n">
-        <v>1569.870039669324</v>
+        <v>1540.282044591045</v>
       </c>
       <c r="P21" t="n">
-        <v>1586.97475815959</v>
+        <v>1553.321898795859</v>
       </c>
       <c r="Q21" t="n">
-        <v>1604.079476649857</v>
+        <v>1566.361753000673</v>
       </c>
       <c r="R21" t="n">
-        <v>1621.184195140124</v>
+        <v>1579.401607205488</v>
       </c>
       <c r="S21" t="n">
-        <v>1638.28891363039</v>
+        <v>1592.441461410302</v>
       </c>
       <c r="T21" t="n">
-        <v>1655.393632120657</v>
+        <v>1605.481315615116</v>
       </c>
       <c r="U21" t="n">
-        <v>1672.498350610924</v>
+        <v>1618.52116981993</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.60306910119</v>
+        <v>1631.561024024745</v>
       </c>
       <c r="W21" t="n">
-        <v>1706.707787591457</v>
+        <v>1644.600878229559</v>
       </c>
       <c r="X21" t="n">
-        <v>1723.812506081724</v>
+        <v>1657.640732434373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1740.91722457199</v>
+        <v>1670.680586639187</v>
       </c>
       <c r="Z21" t="n">
-        <v>1758.021943062257</v>
+        <v>1683.720440844002</v>
       </c>
       <c r="AA21" t="n">
-        <v>1775.126661552524</v>
+        <v>1696.760295048816</v>
       </c>
     </row>
     <row r="22">
@@ -7964,82 +7964,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.3598469127214</v>
+        <v>586.6930819211377</v>
       </c>
       <c r="C22" t="n">
-        <v>598.080264009256</v>
+        <v>599.0678442712903</v>
       </c>
       <c r="D22" t="n">
-        <v>611.8006811057907</v>
+        <v>611.4426066214427</v>
       </c>
       <c r="E22" t="n">
-        <v>625.5210982023253</v>
+        <v>623.8173689715952</v>
       </c>
       <c r="F22" t="n">
-        <v>639.2415152988599</v>
+        <v>636.1921313217476</v>
       </c>
       <c r="G22" t="n">
-        <v>652.9619323953946</v>
+        <v>648.5668936719002</v>
       </c>
       <c r="H22" t="n">
-        <v>666.6823494919292</v>
+        <v>660.9416560220526</v>
       </c>
       <c r="I22" t="n">
-        <v>680.4027665884638</v>
+        <v>673.3164183722051</v>
       </c>
       <c r="J22" t="n">
-        <v>694.1231836849985</v>
+        <v>685.6911807223576</v>
       </c>
       <c r="K22" t="n">
-        <v>707.843600781533</v>
+        <v>698.0659430725101</v>
       </c>
       <c r="L22" t="n">
-        <v>721.5640178780677</v>
+        <v>710.4407054226625</v>
       </c>
       <c r="M22" t="n">
-        <v>735.2844349746024</v>
+        <v>722.8154677728151</v>
       </c>
       <c r="N22" t="n">
-        <v>749.0048520711371</v>
+        <v>735.1902301229675</v>
       </c>
       <c r="O22" t="n">
-        <v>762.7252691676716</v>
+        <v>747.5649924731199</v>
       </c>
       <c r="P22" t="n">
-        <v>776.4456862642063</v>
+        <v>759.9397548232724</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.1661033607409</v>
+        <v>772.314517173425</v>
       </c>
       <c r="R22" t="n">
-        <v>803.8865204572755</v>
+        <v>784.6892795235774</v>
       </c>
       <c r="S22" t="n">
-        <v>817.6069375538102</v>
+        <v>797.0640418737298</v>
       </c>
       <c r="T22" t="n">
-        <v>831.3273546503449</v>
+        <v>809.4388042238824</v>
       </c>
       <c r="U22" t="n">
-        <v>845.0477717468794</v>
+        <v>821.8135665740349</v>
       </c>
       <c r="V22" t="n">
-        <v>858.7681888434141</v>
+        <v>834.1883289241873</v>
       </c>
       <c r="W22" t="n">
-        <v>872.4886059399487</v>
+        <v>846.5630912743397</v>
       </c>
       <c r="X22" t="n">
-        <v>886.2090230364834</v>
+        <v>858.9378536244923</v>
       </c>
       <c r="Y22" t="n">
-        <v>899.929440133018</v>
+        <v>871.3126159746447</v>
       </c>
       <c r="Z22" t="n">
-        <v>913.6498572295527</v>
+        <v>883.6873783247972</v>
       </c>
       <c r="AA22" t="n">
-        <v>927.3702743260873</v>
+        <v>896.0621406749497</v>
       </c>
     </row>
     <row r="23">
@@ -8049,82 +8049,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2375.751121527254</v>
+        <v>2159.668806722046</v>
       </c>
       <c r="C23" t="n">
-        <v>2148.835809513266</v>
+        <v>1975.301435913234</v>
       </c>
       <c r="D23" t="n">
-        <v>1921.920497499277</v>
+        <v>1790.934065104422</v>
       </c>
       <c r="E23" t="n">
-        <v>1695.005185485289</v>
+        <v>1606.56669429561</v>
       </c>
       <c r="F23" t="n">
-        <v>1468.0898734713</v>
+        <v>1422.199323486798</v>
       </c>
       <c r="G23" t="n">
-        <v>1241.174561457312</v>
+        <v>1237.831952677986</v>
       </c>
       <c r="H23" t="n">
-        <v>1014.259249443323</v>
+        <v>1053.464581869173</v>
       </c>
       <c r="I23" t="n">
-        <v>787.3439374293348</v>
+        <v>869.0972110603611</v>
       </c>
       <c r="J23" t="n">
-        <v>560.4286254153462</v>
+        <v>684.7298402515489</v>
       </c>
       <c r="K23" t="n">
-        <v>333.5133134013577</v>
+        <v>500.3624694427367</v>
       </c>
       <c r="L23" t="n">
-        <v>106.5980013873691</v>
+        <v>315.9950986339247</v>
       </c>
       <c r="M23" t="n">
-        <v>-120.317310626619</v>
+        <v>131.6277278251127</v>
       </c>
       <c r="N23" t="n">
-        <v>-347.2326226406076</v>
+        <v>-52.73964298369947</v>
       </c>
       <c r="O23" t="n">
-        <v>-574.1479346545962</v>
+        <v>-237.1070137925117</v>
       </c>
       <c r="P23" t="n">
-        <v>-801.0632466685847</v>
+        <v>-421.4743846013239</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1027.978558682573</v>
+        <v>-605.8417554101361</v>
       </c>
       <c r="R23" t="n">
-        <v>-1254.893870696562</v>
+        <v>-790.2091262189483</v>
       </c>
       <c r="S23" t="n">
-        <v>-1481.80918271055</v>
+        <v>-974.5764970277605</v>
       </c>
       <c r="T23" t="n">
-        <v>-1708.724494724539</v>
+        <v>-1158.943867836573</v>
       </c>
       <c r="U23" t="n">
-        <v>-1935.639806738528</v>
+        <v>-1343.311238645385</v>
       </c>
       <c r="V23" t="n">
-        <v>-2162.555118752516</v>
+        <v>-1527.678609454197</v>
       </c>
       <c r="W23" t="n">
-        <v>-2389.470430766505</v>
+        <v>-1712.045980263009</v>
       </c>
       <c r="X23" t="n">
-        <v>-2616.385742780493</v>
+        <v>-1896.413351071821</v>
       </c>
       <c r="Y23" t="n">
-        <v>-2843.301054794481</v>
+        <v>-2080.780721880633</v>
       </c>
       <c r="Z23" t="n">
-        <v>-3070.21636680847</v>
+        <v>-2265.148092689446</v>
       </c>
       <c r="AA23" t="n">
-        <v>-3297.131678822458</v>
+        <v>-2449.515463498257</v>
       </c>
     </row>
     <row r="24">
@@ -8134,82 +8134,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13015.29888407784</v>
+        <v>13021.80160481584</v>
       </c>
       <c r="C24" t="n">
-        <v>13125.62379627726</v>
+        <v>13132.39908083032</v>
       </c>
       <c r="D24" t="n">
-        <v>13235.94870847668</v>
+        <v>13242.9965568448</v>
       </c>
       <c r="E24" t="n">
-        <v>13346.27362067609</v>
+        <v>13353.59403285928</v>
       </c>
       <c r="F24" t="n">
-        <v>13456.59853287551</v>
+        <v>13464.19150887376</v>
       </c>
       <c r="G24" t="n">
-        <v>13566.92344507493</v>
+        <v>13574.78898488824</v>
       </c>
       <c r="H24" t="n">
-        <v>13677.24835727435</v>
+        <v>13685.38646090272</v>
       </c>
       <c r="I24" t="n">
-        <v>13787.57326947377</v>
+        <v>13795.9839369172</v>
       </c>
       <c r="J24" t="n">
-        <v>13897.89818167318</v>
+        <v>13906.58141293168</v>
       </c>
       <c r="K24" t="n">
-        <v>14008.2230938726</v>
+        <v>14017.17888894615</v>
       </c>
       <c r="L24" t="n">
-        <v>14118.54800607202</v>
+        <v>14127.77636496063</v>
       </c>
       <c r="M24" t="n">
-        <v>14228.87291827144</v>
+        <v>14238.37384097511</v>
       </c>
       <c r="N24" t="n">
-        <v>14339.19783047086</v>
+        <v>14348.97131698959</v>
       </c>
       <c r="O24" t="n">
-        <v>14449.52274267028</v>
+        <v>14459.56879300407</v>
       </c>
       <c r="P24" t="n">
-        <v>14559.84765486969</v>
+        <v>14570.16626901855</v>
       </c>
       <c r="Q24" t="n">
-        <v>14670.17256706911</v>
+        <v>14680.76374503303</v>
       </c>
       <c r="R24" t="n">
-        <v>14780.49747926853</v>
+        <v>14791.36122104751</v>
       </c>
       <c r="S24" t="n">
-        <v>14890.82239146795</v>
+        <v>14901.95869706199</v>
       </c>
       <c r="T24" t="n">
-        <v>15001.14730366737</v>
+        <v>15012.55617307647</v>
       </c>
       <c r="U24" t="n">
-        <v>15111.47221586679</v>
+        <v>15123.15364909095</v>
       </c>
       <c r="V24" t="n">
-        <v>15221.7971280662</v>
+        <v>15233.75112510543</v>
       </c>
       <c r="W24" t="n">
-        <v>15332.12204026562</v>
+        <v>15344.34860111991</v>
       </c>
       <c r="X24" t="n">
-        <v>15442.44695246504</v>
+        <v>15454.94607713439</v>
       </c>
       <c r="Y24" t="n">
-        <v>15552.77186466446</v>
+        <v>15565.54355314887</v>
       </c>
       <c r="Z24" t="n">
-        <v>15663.09677686388</v>
+        <v>15676.14102916335</v>
       </c>
       <c r="AA24" t="n">
-        <v>15773.4216890633</v>
+        <v>15786.73850517783</v>
       </c>
     </row>
     <row r="25">
@@ -8219,82 +8219,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5139.477364699958</v>
+        <v>5153.443261566653</v>
       </c>
       <c r="C25" t="n">
-        <v>5235.388291324397</v>
+        <v>5246.563592938756</v>
       </c>
       <c r="D25" t="n">
-        <v>5331.299217948836</v>
+        <v>5339.68392431086</v>
       </c>
       <c r="E25" t="n">
-        <v>5427.210144573274</v>
+        <v>5432.804255682963</v>
       </c>
       <c r="F25" t="n">
-        <v>5523.121071197713</v>
+        <v>5525.924587055067</v>
       </c>
       <c r="G25" t="n">
-        <v>5619.031997822152</v>
+        <v>5619.044918427169</v>
       </c>
       <c r="H25" t="n">
-        <v>5714.942924446591</v>
+        <v>5712.165249799273</v>
       </c>
       <c r="I25" t="n">
-        <v>5810.85385107103</v>
+        <v>5805.285581171376</v>
       </c>
       <c r="J25" t="n">
-        <v>5906.764777695468</v>
+        <v>5898.40591254348</v>
       </c>
       <c r="K25" t="n">
-        <v>6002.675704319907</v>
+        <v>5991.526243915583</v>
       </c>
       <c r="L25" t="n">
-        <v>6098.586630944345</v>
+        <v>6084.646575287687</v>
       </c>
       <c r="M25" t="n">
-        <v>6194.497557568784</v>
+        <v>6177.76690665979</v>
       </c>
       <c r="N25" t="n">
-        <v>6290.408484193223</v>
+        <v>6270.887238031894</v>
       </c>
       <c r="O25" t="n">
-        <v>6386.319410817661</v>
+        <v>6364.007569403997</v>
       </c>
       <c r="P25" t="n">
-        <v>6482.230337442101</v>
+        <v>6457.1279007761</v>
       </c>
       <c r="Q25" t="n">
-        <v>6578.141264066538</v>
+        <v>6550.248232148204</v>
       </c>
       <c r="R25" t="n">
-        <v>6674.052190690978</v>
+        <v>6643.368563520307</v>
       </c>
       <c r="S25" t="n">
-        <v>6769.963117315417</v>
+        <v>6736.488894892411</v>
       </c>
       <c r="T25" t="n">
-        <v>6865.874043939855</v>
+        <v>6829.609226264514</v>
       </c>
       <c r="U25" t="n">
-        <v>6961.784970564294</v>
+        <v>6922.729557636618</v>
       </c>
       <c r="V25" t="n">
-        <v>7057.695897188732</v>
+        <v>7015.84988900872</v>
       </c>
       <c r="W25" t="n">
-        <v>7153.606823813171</v>
+        <v>7108.970220380825</v>
       </c>
       <c r="X25" t="n">
-        <v>7249.51775043761</v>
+        <v>7202.090551752927</v>
       </c>
       <c r="Y25" t="n">
-        <v>7345.428677062048</v>
+        <v>7295.210883125031</v>
       </c>
       <c r="Z25" t="n">
-        <v>7441.339603686487</v>
+        <v>7388.331214497134</v>
       </c>
       <c r="AA25" t="n">
-        <v>7537.250530310926</v>
+        <v>7481.451545869238</v>
       </c>
     </row>
     <row r="26">
@@ -8304,82 +8304,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18488.04218017492</v>
+        <v>18541.44162806706</v>
       </c>
       <c r="C26" t="n">
-        <v>18657.67355871192</v>
+        <v>18708.10416805554</v>
       </c>
       <c r="D26" t="n">
-        <v>18827.30493724891</v>
+        <v>18874.76670804402</v>
       </c>
       <c r="E26" t="n">
-        <v>18996.93631578591</v>
+        <v>19041.42924803249</v>
       </c>
       <c r="F26" t="n">
-        <v>19166.56769432291</v>
+        <v>19208.09178802097</v>
       </c>
       <c r="G26" t="n">
-        <v>19336.1990728599</v>
+        <v>19374.75432800945</v>
       </c>
       <c r="H26" t="n">
-        <v>19505.8304513969</v>
+        <v>19541.41686799793</v>
       </c>
       <c r="I26" t="n">
-        <v>19675.4618299339</v>
+        <v>19708.0794079864</v>
       </c>
       <c r="J26" t="n">
-        <v>19845.0932084709</v>
+        <v>19874.74194797488</v>
       </c>
       <c r="K26" t="n">
-        <v>20014.7245870079</v>
+        <v>20041.40448796336</v>
       </c>
       <c r="L26" t="n">
-        <v>20184.35596554489</v>
+        <v>20208.06702795184</v>
       </c>
       <c r="M26" t="n">
-        <v>20353.98734408189</v>
+        <v>20374.72956794032</v>
       </c>
       <c r="N26" t="n">
-        <v>20523.61872261888</v>
+        <v>20541.39210792879</v>
       </c>
       <c r="O26" t="n">
-        <v>20693.25010115588</v>
+        <v>20708.05464791727</v>
       </c>
       <c r="P26" t="n">
-        <v>20862.88147969288</v>
+        <v>20874.71718790575</v>
       </c>
       <c r="Q26" t="n">
-        <v>21032.51285822987</v>
+        <v>21041.37972789423</v>
       </c>
       <c r="R26" t="n">
-        <v>21202.14423676687</v>
+        <v>21208.04226788271</v>
       </c>
       <c r="S26" t="n">
-        <v>21371.77561530387</v>
+        <v>21374.70480787119</v>
       </c>
       <c r="T26" t="n">
-        <v>21541.40699384086</v>
+        <v>21541.36734785966</v>
       </c>
       <c r="U26" t="n">
-        <v>21711.03837237786</v>
+        <v>21708.02988784814</v>
       </c>
       <c r="V26" t="n">
-        <v>21880.66975091486</v>
+        <v>21874.69242783662</v>
       </c>
       <c r="W26" t="n">
-        <v>22050.30112945185</v>
+        <v>22041.3549678251</v>
       </c>
       <c r="X26" t="n">
-        <v>22219.93250798885</v>
+        <v>22208.01750781358</v>
       </c>
       <c r="Y26" t="n">
-        <v>22389.56388652585</v>
+        <v>22374.68004780205</v>
       </c>
       <c r="Z26" t="n">
-        <v>22559.19526506284</v>
+        <v>22541.34258779053</v>
       </c>
       <c r="AA26" t="n">
-        <v>22728.82664359984</v>
+        <v>22708.00512777901</v>
       </c>
     </row>
   </sheetData>
@@ -8393,7 +8393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>QE</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-1.0, 1.0, 0.05]</t>
+          <t>[-1.0, 1.0, 0.01]</t>
         </is>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'maxlags': 3}</t>
+          <t>{'maxlags': 6}</t>
         </is>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'Total': [2016, 2022]}</t>
+          <t>{'Total': [2016, 2024]}</t>
         </is>
       </c>
     </row>
@@ -8598,8 +8598,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'Pulse_Pandemia': {'start_date': '2020-01-01', 'end_date': '2020-06-30'}, 'Trend_PandemiaePos': {'start_date': '2020-01-01', 'end_date': '2022-06-30', 'add_time_trend': True}}</t>
-        </is>
+          <t>{'Pulse_Pandemia': {'start_date': '2020-01-01', 'end_date': '2020-09-01'}, 'Trend_PandemiaePos': {'start_date': '2020-12-01', 'end_date': '2024-12-31', 'add_time_trend': True}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DoChowTest</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -262,6 +262,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>119</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -564,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,11 +807,11 @@
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>sul</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>23.7957544</v>
+        <v>16.0995987</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>100</v>
@@ -795,125 +820,125 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.4387889</v>
+        <v>0.3972512</v>
       </c>
       <c r="F2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.0515741</v>
+        <v>0.2235461</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.2167365768257548</v>
+        <v>1.388519777020644</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.0044534</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.0181336</v>
+        <v>0.0290653</v>
       </c>
       <c r="K2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>4.9064347</v>
+        <v>4.6542177</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>20.61895012781793</v>
+        <v>28.90890515613149</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>5.89e-05</v>
+        <v>5.8e-06</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>1.2213049</v>
+        <v>1.0269351</v>
       </c>
       <c r="P2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>-0.3111656</v>
+        <v>-0.3215736</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>-1.307651847952572</v>
+        <v>-1.997401219273058</v>
       </c>
       <c r="S2" s="3" t="n">
-        <v>0.0010327</v>
+        <v>6.8e-05</v>
       </c>
       <c r="T2" s="3" t="n">
-        <v>0.09482500000000001</v>
+        <v>0.08073130000000001</v>
       </c>
       <c r="U2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>-2.0929481</v>
+        <v>-3.3370559</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>-8.795468545514995</v>
+        <v>-20.7275720802248</v>
       </c>
       <c r="X2" s="3" t="n">
-        <v>0.1656802</v>
+        <v>0.0084096</v>
       </c>
       <c r="Y2" s="3" t="n">
-        <v>1.5098255</v>
+        <v>1.2663553</v>
       </c>
       <c r="Z2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>0.1338558</v>
+        <v>0.1507814</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>0.5625196082064674</v>
+        <v>0.936553560068605</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>0.0158223</v>
+        <v>0.0007875</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>0.055473</v>
+        <v>0.0449134</v>
       </c>
       <c r="AE2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>0.0386276</v>
+        <v>-0.1378668</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>0.1623298548551586</v>
+        <v>-0.8563366100124727</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>0.7624879</v>
+        <v>0.1140315</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>0.1278149</v>
+        <v>0.08723930000000001</v>
       </c>
       <c r="AJ2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>-0.2380369</v>
+        <v>-0.2141213</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>-1.000333500377484</v>
+        <v>-1.329979288619393</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>0.007733</v>
+        <v>0.3617011</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>0.08936959999999999</v>
+        <v>0.2347491</v>
       </c>
       <c r="AO2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>sudeste</t>
+          <t>centro_oeste</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.7359317</v>
+        <v>20.0393857</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>100</v>
@@ -922,112 +947,112 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.476784</v>
+        <v>0.7241438</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.2987836</v>
+        <v>0.1466163</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>3.068875655596585</v>
+        <v>0.731640762691099</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0</v>
+        <v>0.0024885</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.0170212</v>
+        <v>0.0484725</v>
       </c>
       <c r="K3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>4.3011411</v>
+        <v>3.3296783</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>44.1780124407086</v>
+        <v>16.61567048707658</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>9.38e-05</v>
+        <v>0.0319246</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>1.1011551</v>
+        <v>1.5520417</v>
       </c>
       <c r="P3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>-0.3985849</v>
+        <v>-0.2538626</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>-4.09395775958156</v>
+        <v>-1.266818049946377</v>
       </c>
       <c r="S3" s="3" t="n">
-        <v>1e-07</v>
+        <v>0.0157654</v>
       </c>
       <c r="T3" s="3" t="n">
-        <v>0.0753317</v>
+        <v>0.1051495</v>
       </c>
       <c r="U3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>-4.9499077</v>
+        <v>-2.0629866</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>-50.84164387304787</v>
+        <v>-10.29465986402455</v>
       </c>
       <c r="X3" s="3" t="n">
-        <v>2.5e-06</v>
+        <v>0.3082933</v>
       </c>
       <c r="Y3" s="3" t="n">
-        <v>1.0519423</v>
+        <v>2.0248989</v>
       </c>
       <c r="Z3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>-0.1106494</v>
+        <v>0.1018231</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>-1.136505185683684</v>
+        <v>0.5081149243699157</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>0.0023446</v>
+        <v>0.1726886</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>0.0363654</v>
+        <v>0.0746714</v>
       </c>
       <c r="AE3" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>0.0481687</v>
+        <v>-0.1912408</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>0.4947516030454689</v>
+        <v>-0.9543244353055522</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>0.6612143</v>
+        <v>0.3577097</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>0.1099146</v>
+        <v>0.2079296</v>
       </c>
       <c r="AJ3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>-0.1571466</v>
+        <v>0.2623407</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>-1.614088842497919</v>
+        <v>1.309125486994324</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>0.0889774</v>
+        <v>0.1628517</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>0.0923948</v>
+        <v>0.1879845</v>
       </c>
       <c r="AO3" s="3" t="b">
         <v>0</v>
@@ -1036,11 +1061,11 @@
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>norte</t>
+          <t>nordeste</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>5.036204</v>
+        <v>8.939730600000001</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>100</v>
@@ -1049,112 +1074,112 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.4235247</v>
+        <v>0.5287425</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.1307645</v>
+        <v>0.2034031</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>2.596489457784846</v>
+        <v>2.275270630333431</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>1.5e-06</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0146457</v>
+        <v>0.0423214</v>
       </c>
       <c r="K4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2.024034</v>
+        <v>5.2585019</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>40.18967483148291</v>
+        <v>58.82170502520879</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.1171867</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1.2919158</v>
+        <v>0.8292498</v>
       </c>
       <c r="P4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>-0.106385</v>
+        <v>-0.140994</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>-2.112403821192802</v>
+        <v>-1.57716153455383</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.1810659</v>
+        <v>0.09740649999999999</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0795413</v>
+        <v>0.0850612</v>
       </c>
       <c r="U4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>-0.4340674</v>
+        <v>1.5919145</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>-8.618939023229444</v>
+        <v>17.80718684328682</v>
       </c>
       <c r="X4" s="3" t="n">
-        <v>0.6337483</v>
+        <v>0.3931194</v>
       </c>
       <c r="Y4" s="3" t="n">
-        <v>0.9110301</v>
+        <v>1.8641252</v>
       </c>
       <c r="Z4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>0.1993356</v>
+        <v>0.2866652</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>3.958052548932875</v>
+        <v>3.206641968959203</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>0</v>
+        <v>6e-07</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>0.0308358</v>
+        <v>0.0575036</v>
       </c>
       <c r="AE4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>-0.1531789</v>
+        <v>-0.0502644</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>-3.04155501911668</v>
+        <v>-0.5622586522554516</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>0.041817</v>
+        <v>0.6865572</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>0.0752597</v>
+        <v>0.1245613</v>
       </c>
       <c r="AJ4" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>-0.0722373</v>
+        <v>0.0415199</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>-1.434359137479728</v>
+        <v>0.4644423964366403</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>0.2792095</v>
+        <v>0.799963</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>0.0667567</v>
+        <v>0.1638544</v>
       </c>
       <c r="AO4" s="3" t="b">
         <v>0</v>
@@ -1163,11 +1188,11 @@
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>nordeste</t>
+          <t>norte</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>4.713857</v>
+        <v>9.7916747</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>100</v>
@@ -1176,112 +1201,112 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.3557471</v>
+        <v>0.7077457</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.187952</v>
+        <v>0.0406892</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>3.987222803876646</v>
+        <v>0.4155490919872064</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0</v>
+        <v>0.394559</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.0170496</v>
+        <v>0.0477921</v>
       </c>
       <c r="K5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>5.1866779</v>
+        <v>2.5588533</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>110.0304447593865</v>
+        <v>26.13294847507882</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>0</v>
+        <v>0.0282546</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>0.7809237</v>
+        <v>1.1664379</v>
       </c>
       <c r="P5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>-0.1094756</v>
+        <v>-0.0005334</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>-2.322420653200216</v>
+        <v>-0.005447354194016122</v>
       </c>
       <c r="S5" s="3" t="n">
-        <v>0.07826669999999999</v>
+        <v>0.9959566</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>0.0621726</v>
+        <v>0.1052536</v>
       </c>
       <c r="U5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>2.9800221</v>
+        <v>2.6594079</v>
       </c>
       <c r="W5" s="3" t="n">
-        <v>63.21833874333098</v>
+        <v>27.15988821998109</v>
       </c>
       <c r="X5" s="3" t="n">
-        <v>0.0140827</v>
+        <v>0.1760879</v>
       </c>
       <c r="Y5" s="3" t="n">
-        <v>1.2137853</v>
+        <v>1.9657108</v>
       </c>
       <c r="Z5" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>0.2100032</v>
+        <v>0.2738864</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>4.455018054116314</v>
+        <v>2.797135092903905</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>3e-07</v>
+        <v>2.69e-05</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>0.0407933</v>
+        <v>0.0652423</v>
       </c>
       <c r="AE5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>-0.1535769</v>
+        <v>-0.0106588</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>-3.257988520162215</v>
+        <v>-0.108856170626238</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>0.1430877</v>
+        <v>0.8471641</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>0.1048744</v>
+        <v>0.0553022</v>
       </c>
       <c r="AJ5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>-0.1402134</v>
+        <v>0.0484987</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>-2.974494057804304</v>
+        <v>0.4953054828870593</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>0.0913374</v>
+        <v>0.755</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>0.08304590000000001</v>
+        <v>0.155418</v>
       </c>
       <c r="AO5" s="3" t="b">
         <v>0</v>
@@ -1290,11 +1315,11 @@
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>centro_oeste</t>
+          <t>sudeste</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>10.0432826</v>
+        <v>16.9537806</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>100</v>
@@ -1303,114 +1328,241 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0.8858423</v>
+        <v>0.4077647</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.2980217</v>
+        <v>0.2887756</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>2.967373917440523</v>
+        <v>1.703310758405628</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.0283536</v>
+        <v>0.0325078</v>
       </c>
       <c r="K6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>3.0322726</v>
+        <v>4.4838746</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>30.19204721514304</v>
+        <v>26.44763841435268</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0.0990941</v>
+        <v>1.24e-05</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>1.838564</v>
+        <v>1.026025</v>
       </c>
       <c r="P6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>-0.4421485</v>
+        <v>-0.3916396</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>-4.402430030270698</v>
+        <v>-2.310042684953208</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>7.2e-05</v>
+        <v>2.2e-06</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0.1113848</v>
+        <v>0.0826799</v>
       </c>
       <c r="U6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>-6.2761917</v>
+        <v>-5.4994326</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>-62.49143815160416</v>
+        <v>-32.43779534296075</v>
       </c>
       <c r="X6" s="3" t="n">
-        <v>0.000115</v>
+        <v>0.0001897</v>
       </c>
       <c r="Y6" s="3" t="n">
-        <v>1.6274563</v>
+        <v>1.4734753</v>
       </c>
       <c r="Z6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>-0.1671134</v>
+        <v>0.0243787</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>-1.663932502057863</v>
+        <v>0.1437950188203111</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>0.0033008</v>
+        <v>0.6300268999999999</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>0.0568753</v>
+        <v>0.0506109</v>
       </c>
       <c r="AE6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>0.07786369999999999</v>
+        <v>-0.3193937</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>0.7752811831315661</v>
+        <v>-1.883908342134829</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>0.5872249</v>
+        <v>0.09571109999999999</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>0.1434319</v>
+        <v>0.1917115</v>
       </c>
       <c r="AJ6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>-0.004282</v>
+        <v>-0.1332698</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>-0.04263591212952359</v>
+        <v>-0.7860770423595743</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>0.9715775</v>
+        <v>0.1798159</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>0.1201816</v>
+        <v>0.099357</v>
       </c>
       <c r="AO6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>sul</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>23.5233247</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.5434336</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.1381846</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.5874365100889267</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>2.7e-05</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0.0329191</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>4.3281314</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>18.39931837700649</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0.0005679</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1.2558073</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>-0.4398923</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>-1.870025952633222</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1e-07</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>0.08286</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>-6.20752</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>-26.38878681051895</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>5.8e-06</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>1.3688836</v>
+      </c>
+      <c r="Z7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>0.2211614</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>0.9401790167661307</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>0.0001136</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>0.0573025</v>
+      </c>
+      <c r="AE7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>-0.1429541</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>-0.6077119339926336</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>0.4151945</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>0.1754497</v>
+      </c>
+      <c r="AJ7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>-0.2028045</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>-0.862142283513145</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>0.2157323</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>0.1638221</v>
+      </c>
+      <c r="AO7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1425,7 +1577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,186 +1645,223 @@
     <row r="2" ht="25" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>sul</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.4124137</v>
+        <v>0.8181653</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.3708672</v>
+        <v>0.7979615</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>1.825</v>
+        <v>1.785</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>377.278757</v>
+        <v>237.1563262</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>398.6613877</v>
+        <v>255.2577652</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>13.3270554</v>
+        <v>180.6891462</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>-180.6393785</v>
+        <v>-110.5781631</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>422.2245575</v>
+        <v>409.3448234</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>sudeste</t>
+          <t>centro_oeste</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.902278</v>
+        <v>0.4710862</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.8953684</v>
+        <v>0.412318</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>1.663</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>352.5189883</v>
+        <v>292.2285975</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>373.9016189</v>
+        <v>310.3300365</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>197.8045952</v>
+        <v>22.3932565</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>-168.2594941</v>
+        <v>-138.1142987</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>431.8133837</v>
+        <v>407.3436499</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>norte</t>
+          <t>nordeste</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.8563636</v>
+        <v>0.9083528</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0.8462075</v>
+        <v>0.8981698</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.618</v>
+        <v>1.838</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>273.4187335</v>
+        <v>233.0149674</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>294.8013642</v>
+        <v>251.1164064</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>195.8642018</v>
+        <v>241.9341603</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>-128.7093667</v>
+        <v>-108.5074837</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>410.0717763</v>
+        <v>408.2365476</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>nordeste</t>
+          <t>norte</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.9530422</v>
+        <v>0.6430404</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.9497219</v>
+        <v>0.6033783</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1.752</v>
+        <v>1.57</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>335.696459</v>
+        <v>205.5513256</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>357.0790896</v>
+        <v>223.6527646</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>559.2818509</v>
+        <v>44.0031135</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>-159.8482295</v>
+        <v>-94.77566280000001</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>436.8709961</v>
+        <v>389.9462155</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>centro_oeste</t>
+          <t>sudeste</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.6617402</v>
+        <v>0.7620611</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0.6378228</v>
+        <v>0.7356235</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1.675</v>
+        <v>1.732</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>415.3420172</v>
+        <v>248.6100851</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>436.7246479</v>
+        <v>266.7115242</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>48.9396515</v>
+        <v>148.5958263</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>-199.6710086</v>
+        <v>-116.3050426</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>413.6481998</v>
+        <v>405.6981369</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>sul</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.5084799</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.4538665</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>266.5946719</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>284.6961109</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>29.170432</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>-125.2973359</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>421.694457</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1903,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>{'DateRange': [2016, 2024], 'FrequencyDateGroup': 'M', 'DummyArgs': {'Pandemia_Step': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': []}, 'Pandemia_Trend': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': [], 'add_time_trend': True, 'keep_period_index': False}, 'PosPandemia_Step': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': False, 'step': True}, 'PosPandemia_Trend': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': True, 'add_time_trend': True, 'keep_period_index': False, 'step': False}}, 'melt_total_atd': True, 'ExtractIR': True}</t>
+          <t>{'DateRange': [2018, 2023], 'FrequencyDateGroup': 'M', 'DummyArgs': {'Pandemia_Step': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': []}, 'Pandemia_Trend': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': [], 'add_time_trend': True, 'keep_period_index': False}, 'PosPandemia_Step': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': False, 'step': True}, 'PosPandemia_Trend': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': True, 'add_time_trend': True, 'keep_period_index': False, 'step': False}}, 'melt_total_atd': True, 'ExtractIR': True}</t>
         </is>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>{'DateRange': [2018, 2023], 'FrequencyDateGroup': 'M', 'DummyArgs': {'Pandemia_Step': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': []}, 'Pandemia_Trend': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': [], 'add_time_trend': True, 'keep_period_index': False}, 'PosPandemia_Step': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': False, 'step': True}, 'PosPandemia_Trend': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': True, 'add_time_trend': True, 'keep_period_index': False, 'step': False}}, 'melt_total_atd': True, 'ExtractIR': True}</t>
+          <t>{'DateRange': {'year_start': 2018, 'year_end': 2023, 'month_start': 1, 'month_end': 12, 'day_start': 1, 'day_end': 31}, 'FrequencyDateGroup': 'M', 'DummyArgs': {'Pandemia_Step': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': []}, 'Pandemia_Trend': {'start_date': '2020-04-01', 'end_date': '2022-03-01', 'exclude_ranges': [], 'add_time_trend': True, 'keep_period_index': False}, 'PosPandemia_Step': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': False, 'step': True}, 'PosPandemia_Trend': {'start_date': '2022-04-01', 'end_date': '2024-12-01', 'exclude_ranges': [], 'plot': True, 'add_time_trend': True, 'keep_period_index': False, 'step': False}}, 'melt_total_atd': True, 'ExtractIR': True}</t>
         </is>
       </c>
     </row>
